--- a/Data/Datatables_ms.xlsx
+++ b/Data/Datatables_ms.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristakraskura/Github_repositories/KK_etal_gobies_tempVar_tempTol/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980B2736-1DB9-844A-BBA5-9EFA76E86B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5982852F-D385-8E4D-97A6-864746A31DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2800" yWindow="500" windowWidth="23220" windowHeight="15700" xr2:uid="{C7FD16A5-6D6F-ED42-9CEB-C21D96802EB4}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="23220" windowHeight="15700" xr2:uid="{C7FD16A5-6D6F-ED42-9CEB-C21D96802EB4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1 C" sheetId="1" r:id="rId1"/>
+    <sheet name="In text values" sheetId="3" r:id="rId2"/>
+    <sheet name="Suppl Table 1" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>SITE1</t>
   </si>
@@ -66,13 +68,70 @@
   </si>
   <si>
     <t>Site Specific means and maxes, Table 1</t>
+  </si>
+  <si>
+    <t>±</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Daily Min (mean +/- SD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily Max </t>
+  </si>
+  <si>
+    <t>(mean +/- SD)</t>
+  </si>
+  <si>
+    <t>Daily Mean (mean +/- SD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daily ∆ </t>
+  </si>
+  <si>
+    <t>Recording time span</t>
+  </si>
+  <si>
+    <t>Site 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019-09-17 to 2021-07-05 </t>
+  </si>
+  <si>
+    <t>Site 2</t>
+  </si>
+  <si>
+    <t>2019-09-17 to 2019-09-26</t>
+  </si>
+  <si>
+    <t>Site 3</t>
+  </si>
+  <si>
+    <t>2019-09-26 to 2021-07-05</t>
+  </si>
+  <si>
+    <t>Site 4</t>
+  </si>
+  <si>
+    <t>2019-09-17 to 2020-02-02</t>
+  </si>
+  <si>
+    <t>Test Site</t>
+  </si>
+  <si>
+    <t>2021-07-06 to 2022-04-11</t>
+  </si>
+  <si>
+    <t>n (days)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -88,6 +147,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Symbol"/>
+      <charset val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -97,7 +162,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -105,11 +170,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -117,6 +262,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -432,30 +610,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2699860-745F-E14A-AEFD-805F79CD608E}">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:F28"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="13.83203125" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="23.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="2"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H1" s="2"/>
+      <c r="I1"/>
+      <c r="J1"/>
+      <c r="K1"/>
+      <c r="L1"/>
+      <c r="M1"/>
+      <c r="N1"/>
+      <c r="O1"/>
+      <c r="P1"/>
+    </row>
+    <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -465,18 +658,42 @@
       <c r="C3">
         <v>11.1</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3">
         <v>4.7</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>658</v>
       </c>
-      <c r="F3" s="3" t="str">
-        <f>CONCATENATE(C3, " +/- ", D3)</f>
-        <v>11.1 +/- 4.7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="3" t="str">
+        <f>CONCATENATE(C3, " ",D3," ", E3)</f>
+        <v>11.1 ± 4.7</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -486,18 +703,32 @@
       <c r="C4">
         <v>15.2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4">
         <v>1.54</v>
       </c>
-      <c r="E4">
-        <v>10</v>
-      </c>
-      <c r="F4" s="3" t="str">
-        <f t="shared" ref="F4:F7" si="0">CONCATENATE(C4, " +/- ", D4)</f>
-        <v>15.2 +/- 1.54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f t="shared" ref="G4:G7" si="0">CONCATENATE(C4, " ",D4," ", E4)</f>
+        <v>15.2 ± 1.54</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="16"/>
+      <c r="O4" s="18"/>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -507,18 +738,46 @@
       <c r="C5">
         <v>13.5</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5">
         <v>3.87</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>649</v>
       </c>
-      <c r="F5" s="3" t="str">
+      <c r="G5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>13.5 +/- 3.87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13.5 ± 3.87</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="5" t="str">
+        <f>G3</f>
+        <v>11.1 ± 4.7</v>
+      </c>
+      <c r="K5" s="5" t="str">
+        <f>G10</f>
+        <v>26.1 ± 5.33</v>
+      </c>
+      <c r="L5" s="5" t="str">
+        <f>G17</f>
+        <v>17 ± 4.36</v>
+      </c>
+      <c r="M5" s="5" t="str">
+        <f>G24</f>
+        <v>15 ± 4.06</v>
+      </c>
+      <c r="N5" s="5">
+        <v>93565</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -528,18 +787,46 @@
       <c r="C6">
         <v>13.3</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
         <v>2.79</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>139</v>
       </c>
-      <c r="F6" s="3" t="str">
+      <c r="G6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>13.3 +/- 2.79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+        <v>13.3 ± 2.79</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="5" t="str">
+        <f>G4</f>
+        <v>15.2 ± 1.54</v>
+      </c>
+      <c r="K6" s="5" t="str">
+        <f t="shared" ref="K6:K9" si="1">G11</f>
+        <v>28.6 ± 2.71</v>
+      </c>
+      <c r="L6" s="5" t="str">
+        <f t="shared" ref="L6:L9" si="2">G18</f>
+        <v>21.2 ± 1.75</v>
+      </c>
+      <c r="M6" s="5" t="str">
+        <f t="shared" ref="M6:M9" si="3">G25</f>
+        <v>13.4 ± 2.48</v>
+      </c>
+      <c r="N6" s="5">
+        <v>1114</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -549,23 +836,107 @@
       <c r="C7">
         <v>14.6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7">
         <v>3.15</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>280</v>
       </c>
-      <c r="F7" s="3" t="str">
+      <c r="G7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>14.6 +/- 3.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>14.6 ± 3.15</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="5" t="str">
+        <f t="shared" ref="J7:J9" si="4">G5</f>
+        <v>13.5 ± 3.87</v>
+      </c>
+      <c r="K7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>24.1 ± 5.74</v>
+      </c>
+      <c r="L7" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>17.8 ± 3.73</v>
+      </c>
+      <c r="M7" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>10.6 ± 4.14</v>
+      </c>
+      <c r="N7" s="5">
+        <v>93216</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D8" s="4"/>
+      <c r="G8" s="3"/>
+      <c r="I8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>13.3 ± 2.79</v>
+      </c>
+      <c r="K8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>19.4 ± 3.38</v>
+      </c>
+      <c r="L8" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>16.3 ± 2.6</v>
+      </c>
+      <c r="M8" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>6.03 ± 1.8</v>
+      </c>
+      <c r="N8" s="5">
+        <v>19907</v>
+      </c>
+      <c r="O8" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="4"/>
+      <c r="G9" s="3"/>
+      <c r="I9" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="5" t="str">
+        <f t="shared" si="4"/>
+        <v>14.6 ± 3.15</v>
+      </c>
+      <c r="K9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>20.3 ± 4.28</v>
+      </c>
+      <c r="L9" s="5" t="str">
+        <f t="shared" si="2"/>
+        <v>17.1 ± 3.15</v>
+      </c>
+      <c r="M9" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>5.74 ± 2.05</v>
+      </c>
+      <c r="N9" s="9">
+        <v>30565</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1</v>
       </c>
@@ -575,18 +946,21 @@
       <c r="C10">
         <v>26.1</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10">
         <v>5.33</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>658</v>
       </c>
-      <c r="F10" s="3" t="str">
-        <f>CONCATENATE(C10, " +/- ", D10)</f>
-        <v>26.1 +/- 5.33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="3" t="str">
+        <f>CONCATENATE(C10, " ",D10," ", E10)</f>
+        <v>26.1 ± 5.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2</v>
       </c>
@@ -596,18 +970,21 @@
       <c r="C11">
         <v>28.6</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11">
         <v>2.71</v>
       </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11" s="3" t="str">
-        <f t="shared" ref="F11:F14" si="1">CONCATENATE(C11, " +/- ", D11)</f>
-        <v>28.6 +/- 2.71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>10</v>
+      </c>
+      <c r="G11" s="3" t="str">
+        <f t="shared" ref="G11:G14" si="5">CONCATENATE(C11, " ",D11," ", E11)</f>
+        <v>28.6 ± 2.71</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -617,18 +994,21 @@
       <c r="C12">
         <v>24.1</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12">
         <v>5.74</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>649</v>
       </c>
-      <c r="F12" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>24.1 +/- 5.74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>24.1 ± 5.74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>4</v>
       </c>
@@ -638,18 +1018,21 @@
       <c r="C13">
         <v>19.399999999999999</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13">
         <v>3.38</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>139</v>
       </c>
-      <c r="F13" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>19.4 +/- 3.38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G13" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>19.4 ± 3.38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>5</v>
       </c>
@@ -659,23 +1042,32 @@
       <c r="C14">
         <v>20.3</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14">
         <v>4.28</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>280</v>
       </c>
-      <c r="F14" s="3" t="str">
-        <f t="shared" si="1"/>
-        <v>20.3 +/- 4.28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" s="3" t="str">
+        <f t="shared" si="5"/>
+        <v>20.3 ± 4.28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="D15" s="4"/>
+      <c r="G15" s="3"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16" s="4"/>
+      <c r="G16" s="3"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1</v>
       </c>
@@ -685,18 +1077,21 @@
       <c r="C17">
         <v>17</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17">
         <v>4.3600000000000003</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>658</v>
       </c>
-      <c r="F17" s="3" t="str">
-        <f>CONCATENATE(C17, " +/- ", D17)</f>
-        <v>17 +/- 4.36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" s="3" t="str">
+        <f>CONCATENATE(C17, " ",D17," ", E17)</f>
+        <v>17 ± 4.36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2</v>
       </c>
@@ -706,18 +1101,21 @@
       <c r="C18">
         <v>21.2</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18">
         <v>1.75</v>
       </c>
-      <c r="E18">
-        <v>10</v>
-      </c>
-      <c r="F18" s="3" t="str">
-        <f t="shared" ref="F18:F21" si="2">CONCATENATE(C18, " +/- ", D18)</f>
-        <v>21.2 +/- 1.75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>10</v>
+      </c>
+      <c r="G18" s="3" t="str">
+        <f t="shared" ref="G18:G21" si="6">CONCATENATE(C18, " ",D18," ", E18)</f>
+        <v>21.2 ± 1.75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -727,18 +1125,21 @@
       <c r="C19">
         <v>17.8</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19">
         <v>3.73</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>649</v>
       </c>
-      <c r="F19" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>17.8 +/- 3.73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G19" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>17.8 ± 3.73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>4</v>
       </c>
@@ -748,18 +1149,21 @@
       <c r="C20">
         <v>16.3</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20">
         <v>2.6</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>139</v>
       </c>
-      <c r="F20" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>16.3 +/- 2.6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>16.3 ± 2.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>5</v>
       </c>
@@ -769,23 +1173,32 @@
       <c r="C21">
         <v>17.100000000000001</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21">
         <v>3.15</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>280</v>
       </c>
-      <c r="F21" s="3" t="str">
-        <f t="shared" si="2"/>
-        <v>17.1 +/- 3.15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>17.1 ± 3.15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="D22" s="4"/>
+      <c r="G22" s="3"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D23" s="4"/>
+      <c r="G23" s="3"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -795,18 +1208,21 @@
       <c r="C24">
         <v>15</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24">
         <v>4.0599999999999996</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>658</v>
       </c>
-      <c r="F24" s="3" t="str">
-        <f>CONCATENATE(C24, " +/- ", D24)</f>
-        <v>15 +/- 4.06</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" s="3" t="str">
+        <f>CONCATENATE(C24, " ",D24," ", E24)</f>
+        <v>15 ± 4.06</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -816,18 +1232,21 @@
       <c r="C25">
         <v>13.4</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25">
         <v>2.48</v>
       </c>
-      <c r="E25">
-        <v>10</v>
-      </c>
-      <c r="F25" s="3" t="str">
-        <f t="shared" ref="F25:F28" si="3">CONCATENATE(C25, " +/- ", D25)</f>
-        <v>13.4 +/- 2.48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25" s="3" t="str">
+        <f t="shared" ref="G25:G28" si="7">CONCATENATE(C25, " ",D25," ", E25)</f>
+        <v>13.4 ± 2.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -837,18 +1256,21 @@
       <c r="C26">
         <v>10.6</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E26">
         <v>4.1399999999999997</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>649</v>
       </c>
-      <c r="F26" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>10.6 +/- 4.14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>10.6 ± 4.14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -858,18 +1280,21 @@
       <c r="C27">
         <v>6.03</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27">
         <v>1.8</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>139</v>
       </c>
-      <c r="F27" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>6.03 +/- 1.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>6.03 ± 1.8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -879,18 +1304,56 @@
       <c r="C28">
         <v>5.74</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28">
         <v>2.0499999999999998</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>280</v>
       </c>
-      <c r="F28" s="3" t="str">
-        <f t="shared" si="3"/>
-        <v>5.74 +/- 2.05</v>
+      <c r="G28" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>5.74 ± 2.05</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1142CAA0-8D4A-9B4F-A595-47983E645F1F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6B25FA-E12C-9342-968B-84F8C5E44A66}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Datatables_ms.xlsx
+++ b/Data/Datatables_ms.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristakraskura/Github_repositories/KK_etal_gobies_tempVar_tempTol/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5982852F-D385-8E4D-97A6-864746A31DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BB509C-B146-544C-B8F7-AF71784E3448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="23220" windowHeight="15700" xr2:uid="{C7FD16A5-6D6F-ED42-9CEB-C21D96802EB4}"/>
+    <workbookView xWindow="-24880" yWindow="500" windowWidth="22780" windowHeight="13900" activeTab="3" xr2:uid="{C7FD16A5-6D6F-ED42-9CEB-C21D96802EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1 C" sheetId="1" r:id="rId1"/>
-    <sheet name="In text values" sheetId="3" r:id="rId2"/>
-    <sheet name="Suppl Table 1" sheetId="2" r:id="rId3"/>
+    <sheet name="Suppl Table 1" sheetId="2" r:id="rId2"/>
+    <sheet name="STATS" sheetId="4" r:id="rId3"/>
+    <sheet name="STATS-posthoc" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="189">
   <si>
     <t>SITE1</t>
   </si>
@@ -125,13 +126,496 @@
   </si>
   <si>
     <t>n (days)</t>
+  </si>
+  <si>
+    <t>contrast</t>
+  </si>
+  <si>
+    <t>estimate</t>
+  </si>
+  <si>
+    <t>SE</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t.ratio</t>
+  </si>
+  <si>
+    <t>p.value</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>&lt;.0001</t>
+  </si>
+  <si>
+    <t>Analysis of Deviance Table (Type II Wald chisquare tests)</t>
+  </si>
+  <si>
+    <t>Response:</t>
+  </si>
+  <si>
+    <t>temp_tolerance</t>
+  </si>
+  <si>
+    <t>Chisq</t>
+  </si>
+  <si>
+    <t>Df</t>
+  </si>
+  <si>
+    <t>Pr(&gt;Chisq)</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t>&lt;2e-16</t>
+  </si>
+  <si>
+    <t>***</t>
+  </si>
+  <si>
+    <t>TL_mm</t>
+  </si>
+  <si>
+    <t>&gt; car::Anova(mod1.b, type = "II") #CTmax</t>
+  </si>
+  <si>
+    <t>&gt; car::Anova(mod1min.b, "II") # CTmin</t>
+  </si>
+  <si>
+    <t>max.Env.Temp</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>mean.Env.Temp</t>
+  </si>
+  <si>
+    <t>model.CTmax.3.b</t>
+  </si>
+  <si>
+    <t>&gt; car::Anova(model.CTmax.3.b, type = "II") #CTmax</t>
+  </si>
+  <si>
+    <t>&gt; car::Anova(model.CTmin.7.b, type = "II") #CTmax</t>
+  </si>
+  <si>
+    <t>Anova Table (Type II tests)</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Pr(&gt;F)</t>
+  </si>
+  <si>
+    <t>**</t>
+  </si>
+  <si>
+    <t>Residuals</t>
+  </si>
+  <si>
+    <t>SumSq</t>
+  </si>
+  <si>
+    <t>1) increase with increasing static acclimation temperatures (mixed model fixed effects: temperature, TL, random effect: tank)</t>
+  </si>
+  <si>
+    <t>car::Anova(mod.CTmin.b, type = "II")</t>
+  </si>
+  <si>
+    <t>&gt; car::Anova(mod.CTmax.b, type = "II")</t>
+  </si>
+  <si>
+    <t>CT min</t>
+  </si>
+  <si>
+    <t>CT max</t>
+  </si>
+  <si>
+    <t>field10</t>
+  </si>
+  <si>
+    <t>field12</t>
+  </si>
+  <si>
+    <t>field14</t>
+  </si>
+  <si>
+    <t>field16</t>
+  </si>
+  <si>
+    <t>field2</t>
+  </si>
+  <si>
+    <t>field4</t>
+  </si>
+  <si>
+    <t>field5</t>
+  </si>
+  <si>
+    <t>field7</t>
+  </si>
+  <si>
+    <t>field1</t>
+  </si>
+  <si>
+    <t>field11</t>
+  </si>
+  <si>
+    <t>field13</t>
+  </si>
+  <si>
+    <t>field15</t>
+  </si>
+  <si>
+    <t>field3</t>
+  </si>
+  <si>
+    <t>field6</t>
+  </si>
+  <si>
+    <t>field8</t>
+  </si>
+  <si>
+    <t>field9</t>
+  </si>
+  <si>
+    <t>Field_Lab</t>
+  </si>
+  <si>
+    <t>2) differ between treatments (field treatment is each unique test) (ANOVA factors: treatment, TL)</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>treatment</t>
+  </si>
+  <si>
+    <t>POST HOC next sheet</t>
+  </si>
+  <si>
+    <t>HYPOTHESIS 1</t>
+  </si>
+  <si>
+    <t>HYPOTHESIS 2</t>
+  </si>
+  <si>
+    <t>3) differ between lab and field variable treatments (mixed model fixed effects: location; random effects: treatment group)</t>
+  </si>
+  <si>
+    <t>HYPOTHESIS 3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we explored what environmental temperature indices best explained measured CTmin and CTmax in acclimated and acclimatized fish (mixed model fixed effects: daily mean, max, min, and daily ∆ [max - min] temperatures, and the start temperature of the test; ºC), and total length (mm) in various combinations (random effect: treatment group). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HYPOTHESIS 4. </t>
+  </si>
+  <si>
+    <t>BIC</t>
+  </si>
+  <si>
+    <t>delta</t>
+  </si>
+  <si>
+    <t>model.CTmin.1.b</t>
+  </si>
+  <si>
+    <t>model.CTmin.3.b</t>
+  </si>
+  <si>
+    <t>model.CTmin.7.b</t>
+  </si>
+  <si>
+    <t>model.CTmin.1</t>
+  </si>
+  <si>
+    <t>model.CTmin.3</t>
+  </si>
+  <si>
+    <t>model.CTmin.7</t>
+  </si>
+  <si>
+    <t>model.CTmin.8</t>
+  </si>
+  <si>
+    <t>model.CTmin.7.d</t>
+  </si>
+  <si>
+    <t>model.CTmin.2.b</t>
+  </si>
+  <si>
+    <t>model.CTmin.7.c</t>
+  </si>
+  <si>
+    <t>model.CTmin.5.b</t>
+  </si>
+  <si>
+    <t>model.CTmin.11</t>
+  </si>
+  <si>
+    <t>model.CTmin.10</t>
+  </si>
+  <si>
+    <t>model.CTmin.9</t>
+  </si>
+  <si>
+    <t>model.CTmin.2</t>
+  </si>
+  <si>
+    <t>model.CTmin.5</t>
+  </si>
+  <si>
+    <t>model.CTmin.4.b</t>
+  </si>
+  <si>
+    <t>model.CTmin.4</t>
+  </si>
+  <si>
+    <t>model.CTmin.0</t>
+  </si>
+  <si>
+    <t>model.CTmin.6.b</t>
+  </si>
+  <si>
+    <t>model.CTmin.6</t>
+  </si>
+  <si>
+    <t>model.CTmin.0&lt;-lmer(temp_tolerance ~ 1  + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.1&lt;-lmer(temp_tolerance ~ max.Env.Temp + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.1.b&lt;-lmer(temp_tolerance ~ max.Env.Temp + TL_mm + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.2&lt;-lmer(temp_tolerance ~ min.Env.Temp + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.2.b&lt;-lmer(temp_tolerance ~ min.Env.Temp + TL_mm + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.3&lt;-lmer(temp_tolerance ~ mean.Env.Temp + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.3.b&lt;-lmer(temp_tolerance ~ mean.Env.Temp +TL_mm +  (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.4&lt;-lmer(temp_tolerance ~ Temp_test_start + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.4.b&lt;-lmer(temp_tolerance ~ Temp_test_start + TL_mm + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.5&lt;-lmer(temp_tolerance ~ delta.T + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.5.b&lt;-lmer(temp_tolerance ~ delta.T + TL_mm + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.6&lt;-lmer(temp_tolerance ~ TimeDay2 + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.6.b&lt;-lmer(temp_tolerance ~ TimeDay2 + TL_mm + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.7&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.7.c&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + Stat_Var + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.7.b&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + TL_mm + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) # best </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.7.d&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + TL_mm + Stat_Var + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) # best </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.8&lt;-lmer(temp_tolerance ~ max.Env.Temp + Temp_test_start + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.9&lt;-lmer(temp_tolerance ~ delta.T + Temp_test_start + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.10&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + TimeDay2 + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t>model.CTmin.11&lt;-lmer(temp_tolerance ~ max.Env.Temp + Temp_test_start + delta.T + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE)</t>
+  </si>
+  <si>
+    <t>model.CTmax.0&lt;-lmer(temp_tolerance ~ 1  + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.1&lt;-lmer(temp_tolerance ~ max.Env.Temp + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.1.b&lt;-lmer(temp_tolerance ~ max.Env.Temp + TL_mm + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.2&lt;-lmer(temp_tolerance ~ min.Env.Temp + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.2.b&lt;-lmer(temp_tolerance ~ min.Env.Temp + TL_mm + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.3&lt;-lmer(temp_tolerance ~ mean.Env.Temp + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t>model.CTmax.3.b&lt;-lmer(temp_tolerance ~ mean.Env.Temp + TL_mm + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) # &lt;&lt;&lt; BEST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.3.c&lt;-lmer(temp_tolerance ~ mean.Env.Temp + TL_mm + delta.T + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.4&lt;-lmer(temp_tolerance ~ Temp_test_start + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.4.b&lt;-lmer(temp_tolerance ~ Temp_test_start + TL_mm + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.5&lt;-lmer(temp_tolerance ~ delta.T + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.5.b&lt;-lmer(temp_tolerance ~ delta.T + TL_mm + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.6&lt;-lmer(temp_tolerance ~ TimeDay2 + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.6.b&lt;-lmer(temp_tolerance ~ TimeDay2 + TL_mm + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.7&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.7.b&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + TL_mm + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.8&lt;-lmer(temp_tolerance ~ max.Env.Temp + Temp_test_start + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.9&lt;-lmer(temp_tolerance ~ delta.T + Temp_test_start + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.10&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + TimeDay2 + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t>model.CTmax.11&lt;-lmer(temp_tolerance ~ max.Env.Temp + Temp_test_start + delta.T + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE)</t>
+  </si>
+  <si>
+    <t>model.CTmax.1.b</t>
+  </si>
+  <si>
+    <t>model.CTmax.3</t>
+  </si>
+  <si>
+    <t>model.CTmax.7.b</t>
+  </si>
+  <si>
+    <t>model.CTmax.1</t>
+  </si>
+  <si>
+    <t>model.CTmax.3.c</t>
+  </si>
+  <si>
+    <t>model.CTmax.7</t>
+  </si>
+  <si>
+    <t>model.CTmax.2.b</t>
+  </si>
+  <si>
+    <t>model.CTmax.8</t>
+  </si>
+  <si>
+    <t>model.CTmax.11</t>
+  </si>
+  <si>
+    <t>model.CTmax.2</t>
+  </si>
+  <si>
+    <t>model.CTmax.10</t>
+  </si>
+  <si>
+    <t>model.CTmax.5.b</t>
+  </si>
+  <si>
+    <t>model.CTmax.5</t>
+  </si>
+  <si>
+    <t>model.CTmax.9</t>
+  </si>
+  <si>
+    <t>model.CTmax.4.b</t>
+  </si>
+  <si>
+    <t>model.CTmax.0</t>
+  </si>
+  <si>
+    <t>model.CTmax.4</t>
+  </si>
+  <si>
+    <t>model.CTmax.6.b</t>
+  </si>
+  <si>
+    <t>model.CTmax.6</t>
+  </si>
+  <si>
+    <t>contrast(emmeans(mod.CTmax.b,</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>treatment),</t>
+  </si>
+  <si>
+    <t>pairwise)</t>
+  </si>
+  <si>
+    <t>COLD</t>
+  </si>
+  <si>
+    <t>HOT</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>MED</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>contrast(emmeans(mod.CTmin.b,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">** mark fed and unfed models </t>
+  </si>
+  <si>
+    <t>SAME DAY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,16 +637,72 @@
       <name val="Symbol"/>
       <charset val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -250,11 +790,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -266,36 +832,94 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -612,8 +1236,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2699860-745F-E14A-AEFD-805F79CD608E}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -671,25 +1295,25 @@
         <f>CONCATENATE(C3, " ",D3," ", E3)</f>
         <v>11.1 ± 4.7</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="16" t="s">
         <v>17</v>
       </c>
     </row>
@@ -716,17 +1340,17 @@
         <f t="shared" ref="G4:G7" si="0">CONCATENATE(C4, " ",D4," ", E4)</f>
         <v>15.2 ± 1.54</v>
       </c>
-      <c r="I4" s="15"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="17" t="s">
+      <c r="I4" s="13"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17" t="s">
+      <c r="L4" s="15"/>
+      <c r="M4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="18"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="17"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -751,29 +1375,29 @@
         <f t="shared" si="0"/>
         <v>13.5 ± 3.87</v>
       </c>
-      <c r="I5" s="7" t="s">
+      <c r="I5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="5" t="str">
+      <c r="J5" t="str">
         <f>G3</f>
         <v>11.1 ± 4.7</v>
       </c>
-      <c r="K5" s="5" t="str">
+      <c r="K5" t="str">
         <f>G10</f>
         <v>26.1 ± 5.33</v>
       </c>
-      <c r="L5" s="5" t="str">
+      <c r="L5" t="str">
         <f>G17</f>
         <v>17 ± 4.36</v>
       </c>
-      <c r="M5" s="5" t="str">
+      <c r="M5" t="str">
         <f>G24</f>
         <v>15 ± 4.06</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5">
         <v>93565</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="O5" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -800,29 +1424,29 @@
         <f t="shared" si="0"/>
         <v>13.3 ± 2.79</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="5" t="str">
+      <c r="J6" t="str">
         <f>G4</f>
         <v>15.2 ± 1.54</v>
       </c>
-      <c r="K6" s="5" t="str">
+      <c r="K6" t="str">
         <f t="shared" ref="K6:K9" si="1">G11</f>
         <v>28.6 ± 2.71</v>
       </c>
-      <c r="L6" s="5" t="str">
+      <c r="L6" t="str">
         <f t="shared" ref="L6:L9" si="2">G18</f>
         <v>21.2 ± 1.75</v>
       </c>
-      <c r="M6" s="5" t="str">
+      <c r="M6" t="str">
         <f t="shared" ref="M6:M9" si="3">G25</f>
         <v>13.4 ± 2.48</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6">
         <v>1114</v>
       </c>
-      <c r="O6" s="6" t="s">
+      <c r="O6" s="5" t="s">
         <v>21</v>
       </c>
     </row>
@@ -849,58 +1473,58 @@
         <f t="shared" si="0"/>
         <v>14.6 ± 3.15</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="5" t="str">
+      <c r="J7" t="str">
         <f t="shared" ref="J7:J9" si="4">G5</f>
         <v>13.5 ± 3.87</v>
       </c>
-      <c r="K7" s="5" t="str">
+      <c r="K7" t="str">
         <f t="shared" si="1"/>
         <v>24.1 ± 5.74</v>
       </c>
-      <c r="L7" s="5" t="str">
+      <c r="L7" t="str">
         <f t="shared" si="2"/>
         <v>17.8 ± 3.73</v>
       </c>
-      <c r="M7" s="5" t="str">
+      <c r="M7" t="str">
         <f t="shared" si="3"/>
         <v>10.6 ± 4.14</v>
       </c>
-      <c r="N7" s="5">
+      <c r="N7">
         <v>93216</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="O7" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D8" s="4"/>
       <c r="G8" s="3"/>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="J8" s="5" t="str">
+      <c r="J8" t="str">
         <f t="shared" si="4"/>
         <v>13.3 ± 2.79</v>
       </c>
-      <c r="K8" s="5" t="str">
+      <c r="K8" t="str">
         <f t="shared" si="1"/>
         <v>19.4 ± 3.38</v>
       </c>
-      <c r="L8" s="5" t="str">
+      <c r="L8" t="str">
         <f t="shared" si="2"/>
         <v>16.3 ± 2.6</v>
       </c>
-      <c r="M8" s="5" t="str">
+      <c r="M8" t="str">
         <f t="shared" si="3"/>
         <v>6.03 ± 1.8</v>
       </c>
-      <c r="N8" s="5">
+      <c r="N8">
         <v>19907</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -910,29 +1534,29 @@
       </c>
       <c r="D9" s="4"/>
       <c r="G9" s="3"/>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="J9" s="5" t="str">
+      <c r="J9" t="str">
         <f t="shared" si="4"/>
         <v>14.6 ± 3.15</v>
       </c>
-      <c r="K9" s="5" t="str">
+      <c r="K9" t="str">
         <f t="shared" si="1"/>
         <v>20.3 ± 4.28</v>
       </c>
-      <c r="L9" s="5" t="str">
+      <c r="L9" t="str">
         <f t="shared" si="2"/>
         <v>17.1 ± 3.15</v>
       </c>
-      <c r="M9" s="5" t="str">
+      <c r="M9" t="str">
         <f t="shared" si="3"/>
         <v>5.74 ± 2.05</v>
       </c>
-      <c r="N9" s="9">
+      <c r="N9" s="8">
         <v>30565</v>
       </c>
-      <c r="O9" s="10" t="s">
+      <c r="O9" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1331,29 +1955,6098 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1142CAA0-8D4A-9B4F-A595-47983E645F1F}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6B25FA-E12C-9342-968B-84F8C5E44A66}">
+  <dimension ref="B1:N48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="29"/>
+      <c r="H1" s="32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="31"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="H2" s="59"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="22">
+        <v>5</v>
+      </c>
+      <c r="E3" s="22">
+        <v>853.59640000000002</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J3" s="22">
+        <v>5</v>
+      </c>
+      <c r="K3" s="22">
+        <v>684.14800000000002</v>
+      </c>
+      <c r="L3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C4" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" s="22">
+        <v>5</v>
+      </c>
+      <c r="E4" s="22">
+        <v>854.67169999999999</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1.07531</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="22">
+        <v>5</v>
+      </c>
+      <c r="K4" s="22">
+        <v>685.57299999999998</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1.4249400000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C5" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="22">
+        <v>6</v>
+      </c>
+      <c r="E5" s="22">
+        <v>856.58479999999997</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2.9884300000000001</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="J5" s="22">
+        <v>4</v>
+      </c>
+      <c r="K5" s="22">
+        <v>686.48299999999995</v>
+      </c>
+      <c r="L5" s="5">
+        <v>2.33494</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C6" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="22">
+        <v>4</v>
+      </c>
+      <c r="E6" s="22">
+        <v>857.90020000000004</v>
+      </c>
+      <c r="F6" s="5">
+        <v>4.3038499999999997</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="J6" s="22">
+        <v>6</v>
+      </c>
+      <c r="K6" s="22">
+        <v>687.28589999999997</v>
+      </c>
+      <c r="L6" s="5">
+        <v>3.1378900000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C7" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="22">
+        <v>4</v>
+      </c>
+      <c r="E7" s="22">
+        <v>859.61059999999998</v>
+      </c>
+      <c r="F7" s="5">
+        <v>6.0141999999999998</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="J7" s="22">
+        <v>4</v>
+      </c>
+      <c r="K7" s="22">
+        <v>687.94320000000005</v>
+      </c>
+      <c r="L7" s="5">
+        <v>3.79514</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C8" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="22">
+        <v>5</v>
+      </c>
+      <c r="E8" s="22">
+        <v>860.47469999999998</v>
+      </c>
+      <c r="F8" s="5">
+        <v>6.8782899999999998</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="J8" s="22">
+        <v>6</v>
+      </c>
+      <c r="K8" s="22">
+        <v>688.64440000000002</v>
+      </c>
+      <c r="L8" s="5">
+        <v>4.4963800000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C9" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="22">
+        <v>5</v>
+      </c>
+      <c r="E9" s="22">
+        <v>861.18050000000005</v>
+      </c>
+      <c r="F9" s="5">
+        <v>7.5841399999999997</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="J9" s="22">
+        <v>5</v>
+      </c>
+      <c r="K9" s="22">
+        <v>690.04089999999997</v>
+      </c>
+      <c r="L9" s="5">
+        <v>5.8928500000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C10" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="22">
+        <v>7</v>
+      </c>
+      <c r="E10" s="22">
+        <v>861.48149999999998</v>
+      </c>
+      <c r="F10" s="5">
+        <v>7.8851500000000003</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="J10" s="22">
+        <v>5</v>
+      </c>
+      <c r="K10" s="22">
+        <v>692.72619999999995</v>
+      </c>
+      <c r="L10" s="5">
+        <v>8.5781500000000008</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="22">
+        <v>5</v>
+      </c>
+      <c r="E11" s="22">
+        <v>864.21889999999996</v>
+      </c>
+      <c r="F11" s="5">
+        <v>10.622540000000001</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J11" s="22">
+        <v>5</v>
+      </c>
+      <c r="K11" s="22">
+        <v>693.19100000000003</v>
+      </c>
+      <c r="L11" s="5">
+        <v>9.0429700000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C12" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="22">
+        <v>6</v>
+      </c>
+      <c r="E12" s="22">
+        <v>864.51239999999996</v>
+      </c>
+      <c r="F12" s="5">
+        <v>10.915990000000001</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" s="22">
+        <v>6</v>
+      </c>
+      <c r="K12" s="22">
+        <v>694.86369999999999</v>
+      </c>
+      <c r="L12" s="5">
+        <v>10.715619999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C13" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="22">
+        <v>5</v>
+      </c>
+      <c r="E13" s="22">
+        <v>865.1635</v>
+      </c>
+      <c r="F13" s="5">
+        <v>11.56715</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J13" s="22">
+        <v>4</v>
+      </c>
+      <c r="K13" s="22">
+        <v>694.97029999999995</v>
+      </c>
+      <c r="L13" s="5">
+        <v>10.82226</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C14" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="22">
+        <v>6</v>
+      </c>
+      <c r="E14" s="22">
+        <v>865.27369999999996</v>
+      </c>
+      <c r="F14" s="5">
+        <v>11.677350000000001</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="J14" s="22">
+        <v>6</v>
+      </c>
+      <c r="K14" s="22">
+        <v>695.18230000000005</v>
+      </c>
+      <c r="L14" s="5">
+        <v>11.03426</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D15" s="22">
+        <v>6</v>
+      </c>
+      <c r="E15" s="22">
+        <v>865.94050000000004</v>
+      </c>
+      <c r="F15" s="5">
+        <v>12.34408</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J15" s="22">
+        <v>5</v>
+      </c>
+      <c r="K15" s="22">
+        <v>695.34550000000002</v>
+      </c>
+      <c r="L15" s="5">
+        <v>11.197509999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="C16" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D16" s="22">
+        <v>5</v>
+      </c>
+      <c r="E16" s="22">
+        <v>866.17960000000005</v>
+      </c>
+      <c r="F16" s="5">
+        <v>12.58323</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J16" s="22">
+        <v>4</v>
+      </c>
+      <c r="K16" s="22">
+        <v>697.54819999999995</v>
+      </c>
+      <c r="L16" s="5">
+        <v>13.40015</v>
+      </c>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C17" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D17" s="22">
+        <v>4</v>
+      </c>
+      <c r="E17" s="22">
+        <v>868.66800000000001</v>
+      </c>
+      <c r="F17" s="5">
+        <v>15.071619999999999</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J17" s="22">
+        <v>5</v>
+      </c>
+      <c r="K17" s="22">
+        <v>698.75720000000001</v>
+      </c>
+      <c r="L17" s="5">
+        <v>14.60913</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C18" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D18" s="22">
+        <v>4</v>
+      </c>
+      <c r="E18" s="22">
+        <v>869.9538</v>
+      </c>
+      <c r="F18" s="5">
+        <v>16.35744</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="J18" s="22">
+        <v>5</v>
+      </c>
+      <c r="K18" s="22">
+        <v>751.76959999999997</v>
+      </c>
+      <c r="L18" s="5">
+        <v>67.621530000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D19" s="22">
+        <v>5</v>
+      </c>
+      <c r="E19" s="22">
+        <v>889.40049999999997</v>
+      </c>
+      <c r="F19" s="5">
+        <v>35.804070000000003</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J19" s="22">
+        <v>3</v>
+      </c>
+      <c r="K19" s="22">
+        <v>752.29369999999994</v>
+      </c>
+      <c r="L19" s="5">
+        <v>68.145650000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C20" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="22">
+        <v>4</v>
+      </c>
+      <c r="E20" s="22">
+        <v>893.20600000000002</v>
+      </c>
+      <c r="F20" s="5">
+        <v>39.6096</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" s="22">
+        <v>4</v>
+      </c>
+      <c r="K20" s="22">
+        <v>753.529</v>
+      </c>
+      <c r="L20" s="5">
+        <v>69.380939999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C21" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="D21" s="22">
+        <v>3</v>
+      </c>
+      <c r="E21" s="22">
+        <v>900.2971</v>
+      </c>
+      <c r="F21" s="5">
+        <v>46.700749999999999</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" s="22">
+        <v>5</v>
+      </c>
+      <c r="K21" s="22">
+        <v>755.31709999999998</v>
+      </c>
+      <c r="L21" s="5">
+        <v>71.169049999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="22">
+        <v>5</v>
+      </c>
+      <c r="E22" s="22">
+        <v>900.31380000000001</v>
+      </c>
+      <c r="F22" s="5">
+        <v>46.717379999999999</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="J22" s="8">
+        <v>4</v>
+      </c>
+      <c r="K22" s="8">
+        <v>757.08540000000005</v>
+      </c>
+      <c r="L22" s="9">
+        <v>72.937359999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C23" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" s="8">
+        <v>4</v>
+      </c>
+      <c r="E23" s="8">
+        <v>905.66790000000003</v>
+      </c>
+      <c r="F23" s="9">
+        <v>52.071570000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>116</v>
+      </c>
+      <c r="I25" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>117</v>
+      </c>
+      <c r="I26" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>118</v>
+      </c>
+      <c r="I27" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="I31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>123</v>
+      </c>
+      <c r="I32" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>124</v>
+      </c>
+      <c r="I33" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>126</v>
+      </c>
+      <c r="I35" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>127</v>
+      </c>
+      <c r="I36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>128</v>
+      </c>
+      <c r="I37" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I38" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>130</v>
+      </c>
+      <c r="I40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>132</v>
+      </c>
+      <c r="I42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I43" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>134</v>
+      </c>
+      <c r="I45" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
+      <c r="I46" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>136</v>
+      </c>
+      <c r="I47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I48" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6B25FA-E12C-9342-968B-84F8C5E44A66}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255BB1AB-E722-C344-8E9D-48658E19A72C}">
+  <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D44" activeCellId="3" sqref="B37 D37 B44 D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" customWidth="1"/>
+    <col min="11" max="11" width="4.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.5" customWidth="1"/>
+    <col min="23" max="23" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="38" customFormat="1" ht="26" x14ac:dyDescent="0.2">
+      <c r="A2" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="38" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="6"/>
+      <c r="B5" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="25">
+        <v>188.87270000000001</v>
+      </c>
+      <c r="C6" s="25">
+        <v>1</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="25">
+        <v>2.2311999999999999</v>
+      </c>
+      <c r="C7" s="25">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.13519999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:5" s="38" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="38" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="31"/>
+      <c r="B10" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="6"/>
+      <c r="B12" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="22">
+        <v>639.07910000000004</v>
+      </c>
+      <c r="C13" s="22">
+        <v>1</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="8">
+        <v>5.9499999999999997E-2</v>
+      </c>
+      <c r="C14" s="8">
+        <v>1</v>
+      </c>
+      <c r="D14" s="8">
+        <v>0.80720000000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="38" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="47"/>
+      <c r="B20" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="38">
+        <v>4.08</v>
+      </c>
+      <c r="C21" s="38">
+        <v>1</v>
+      </c>
+      <c r="D21" s="48">
+        <v>3.84</v>
+      </c>
+      <c r="E21" s="38">
+        <v>5.108E-2</v>
+      </c>
+      <c r="F21" s="25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="50" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="51">
+        <v>778.12</v>
+      </c>
+      <c r="C22" s="51">
+        <v>13</v>
+      </c>
+      <c r="D22" s="51">
+        <v>56.267000000000003</v>
+      </c>
+      <c r="E22" s="52">
+        <v>2E-16</v>
+      </c>
+      <c r="F22" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="25">
+        <v>285.08999999999997</v>
+      </c>
+      <c r="C23" s="25">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="37" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+    </row>
+    <row r="25" spans="1:7" s="38" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="38" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="22">
+        <v>0.01</v>
+      </c>
+      <c r="C28" s="22">
+        <v>1</v>
+      </c>
+      <c r="D28" s="22">
+        <v>6.6E-3</v>
+      </c>
+      <c r="E28" s="22">
+        <v>0.93520000000000003</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="51">
+        <v>514.04999999999995</v>
+      </c>
+      <c r="C29" s="51">
+        <v>13</v>
+      </c>
+      <c r="D29" s="52">
+        <v>27.022300000000001</v>
+      </c>
+      <c r="E29" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="G29" s="53" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="8">
+        <v>289.74</v>
+      </c>
+      <c r="C30" s="8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" s="58" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" s="37"/>
+    </row>
+    <row r="34" spans="1:5" s="38" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
+      <c r="B34" s="37"/>
+    </row>
+    <row r="35" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="6"/>
+      <c r="B36" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="39" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B37" s="25">
+        <v>0.31469999999999998</v>
+      </c>
+      <c r="C37" s="25">
+        <v>1</v>
+      </c>
+      <c r="D37" s="25">
+        <v>0.57483899999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" s="25">
+        <v>9.1181999999999999</v>
+      </c>
+      <c r="C38" s="25">
+        <v>1</v>
+      </c>
+      <c r="D38" s="25">
+        <v>2.5309999999999998E-3</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="37"/>
+    </row>
+    <row r="41" spans="1:5" s="38" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="33"/>
+      <c r="B41" s="37"/>
+    </row>
+    <row r="42" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="6"/>
+      <c r="B43" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D43" s="22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B44" s="22">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="C44" s="22">
+        <v>1</v>
+      </c>
+      <c r="D44" s="42">
+        <v>0.80769999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="8">
+        <v>0.1769</v>
+      </c>
+      <c r="C45" s="8">
+        <v>1</v>
+      </c>
+      <c r="D45" s="8">
+        <v>0.67410000000000003</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:5" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" s="34" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" s="38" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="31"/>
+      <c r="B49" s="37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" s="40"/>
+    </row>
+    <row r="51" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="6"/>
+      <c r="B51" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D51" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="40"/>
+    </row>
+    <row r="52" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="25">
+        <v>25.178599999999999</v>
+      </c>
+      <c r="C52" s="25">
+        <v>1</v>
+      </c>
+      <c r="D52" s="39">
+        <v>5.2259999999999998E-7</v>
+      </c>
+      <c r="E52" s="43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B53" s="25">
+        <v>5.1265000000000001</v>
+      </c>
+      <c r="C53" s="25">
+        <v>1</v>
+      </c>
+      <c r="D53" s="25">
+        <v>2.3560000000000001E-2</v>
+      </c>
+      <c r="E53" s="40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="6"/>
+      <c r="E54" s="40"/>
+    </row>
+    <row r="55" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E55" s="41"/>
+    </row>
+    <row r="56" spans="1:5" s="38" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="33"/>
+      <c r="B56" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E56" s="41"/>
+    </row>
+    <row r="57" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E57" s="40"/>
+    </row>
+    <row r="58" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="6"/>
+      <c r="B58" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="C58" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" s="40"/>
+    </row>
+    <row r="59" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="22">
+        <v>21.923400000000001</v>
+      </c>
+      <c r="C59" s="22">
+        <v>1</v>
+      </c>
+      <c r="D59" s="23">
+        <v>2.8380000000000002E-6</v>
+      </c>
+      <c r="E59" s="44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B60" s="22">
+        <v>0.1134</v>
+      </c>
+      <c r="C60" s="22">
+        <v>1</v>
+      </c>
+      <c r="D60" s="22">
+        <v>0.73629999999999995</v>
+      </c>
+      <c r="E60" s="42"/>
+    </row>
+    <row r="61" spans="1:5" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="7"/>
+      <c r="E61" s="46"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A24:A25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98569322-74B1-BD4E-B2E9-7D0205056BE0}">
+  <dimension ref="A1:T93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H29" workbookViewId="0">
+      <selection activeCell="O36" sqref="O36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="10.83203125" style="61"/>
+    <col min="9" max="10" width="10.83203125" style="1"/>
+    <col min="17" max="17" width="10.83203125" style="1"/>
+    <col min="19" max="20" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B1" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" t="s">
+        <v>179</v>
+      </c>
+      <c r="L1" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" t="s">
+        <v>186</v>
+      </c>
+      <c r="N1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O1" t="s">
+        <v>178</v>
+      </c>
+      <c r="P1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="33"/>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="L2" s="31"/>
+      <c r="M2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3">
+        <v>-3.4842599999999999</v>
+      </c>
+      <c r="G3" s="61">
+        <v>0.442</v>
+      </c>
+      <c r="H3">
+        <v>198</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-7.8789999999999996</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" t="s">
+        <v>180</v>
+      </c>
+      <c r="N3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O3" t="s">
+        <v>74</v>
+      </c>
+      <c r="P3">
+        <v>-5.7443200000000001</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="R3">
+        <v>268</v>
+      </c>
+      <c r="S3" s="1">
+        <v>-15.989000000000001</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4">
+        <v>-4.10684</v>
+      </c>
+      <c r="G4" s="61">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="H4">
+        <v>198</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-8.5449999999999999</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>180</v>
+      </c>
+      <c r="N4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4">
+        <v>-2.6084399999999999</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="R4">
+        <v>268</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-8.5350000000000001</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5">
+        <v>-4.3776599999999997</v>
+      </c>
+      <c r="G5" s="61">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="H5">
+        <v>198</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-9.08</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
+        <v>180</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" t="s">
+        <v>76</v>
+      </c>
+      <c r="P5">
+        <v>-4.8287399999999998</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="R5">
+        <v>268</v>
+      </c>
+      <c r="S5" s="1">
+        <v>-14.811</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6">
+        <v>-2.5275300000000001</v>
+      </c>
+      <c r="G6" s="61">
+        <v>0.47</v>
+      </c>
+      <c r="H6">
+        <v>198</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-5.3760000000000003</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M6" t="s">
+        <v>180</v>
+      </c>
+      <c r="N6" t="s">
+        <v>35</v>
+      </c>
+      <c r="O6" t="s">
+        <v>77</v>
+      </c>
+      <c r="P6">
+        <v>-2.9150399999999999</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>0.32200000000000001</v>
+      </c>
+      <c r="R6">
+        <v>268</v>
+      </c>
+      <c r="S6" s="1">
+        <v>-9.048</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7">
+        <v>-5.7222099999999996</v>
+      </c>
+      <c r="G7" s="61">
+        <v>0.438</v>
+      </c>
+      <c r="H7">
+        <v>198</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-13.076000000000001</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M7" t="s">
+        <v>180</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7">
+        <v>-6.1876199999999999</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>0.34699999999999998</v>
+      </c>
+      <c r="R7">
+        <v>268</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-17.852</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8">
+        <v>-2.00095</v>
+      </c>
+      <c r="G8" s="61">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="H8">
+        <v>198</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-3.891</v>
+      </c>
+      <c r="J8" s="1">
+        <v>9.9000000000000008E-3</v>
+      </c>
+      <c r="M8" t="s">
+        <v>180</v>
+      </c>
+      <c r="N8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P8">
+        <v>-3.6246999999999998</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0.371</v>
+      </c>
+      <c r="R8">
+        <v>268</v>
+      </c>
+      <c r="S8" s="1">
+        <v>-9.7750000000000004</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>180</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9">
+        <v>-4.9565000000000001</v>
+      </c>
+      <c r="G9" s="61">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H9">
+        <v>198</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-10.029999999999999</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M9" t="s">
+        <v>180</v>
+      </c>
+      <c r="N9" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9">
+        <v>-4.0065799999999996</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="R9">
+        <v>268</v>
+      </c>
+      <c r="S9" s="1">
+        <v>-11.711</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10">
+        <v>-4.8045600000000004</v>
+      </c>
+      <c r="G10" s="61">
+        <v>0.48199999999999998</v>
+      </c>
+      <c r="H10">
+        <v>198</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-9.9659999999999993</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M10" t="s">
+        <v>180</v>
+      </c>
+      <c r="N10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O10" t="s">
+        <v>81</v>
+      </c>
+      <c r="P10">
+        <v>-2.9115799999999998</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>0.317</v>
+      </c>
+      <c r="R10">
+        <v>268</v>
+      </c>
+      <c r="S10" s="1">
+        <v>-9.19</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" t="s">
+        <v>181</v>
+      </c>
+      <c r="F11">
+        <v>-4.9622200000000003</v>
+      </c>
+      <c r="G11" s="61">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="H11">
+        <v>198</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-10.54</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M11" t="s">
+        <v>180</v>
+      </c>
+      <c r="N11" t="s">
+        <v>35</v>
+      </c>
+      <c r="O11" t="s">
+        <v>181</v>
+      </c>
+      <c r="P11">
+        <v>-4.8936099999999998</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="R11">
+        <v>268</v>
+      </c>
+      <c r="S11" s="1">
+        <v>-14.702</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" t="s">
+        <v>182</v>
+      </c>
+      <c r="F12">
+        <v>-1.12653</v>
+      </c>
+      <c r="G12" s="61">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="H12">
+        <v>198</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-2.4889999999999999</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0.42080000000000001</v>
+      </c>
+      <c r="M12" t="s">
+        <v>180</v>
+      </c>
+      <c r="N12" t="s">
+        <v>35</v>
+      </c>
+      <c r="O12" t="s">
+        <v>182</v>
+      </c>
+      <c r="P12">
+        <v>-1.3373600000000001</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="R12">
+        <v>268</v>
+      </c>
+      <c r="S12" s="1">
+        <v>-4.3659999999999997</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1.5E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>180</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F13">
+        <v>-3.1104599999999998</v>
+      </c>
+      <c r="G13" s="61">
+        <v>0.46</v>
+      </c>
+      <c r="H13">
+        <v>198</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-6.7560000000000002</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M13" t="s">
+        <v>180</v>
+      </c>
+      <c r="N13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" t="s">
+        <v>183</v>
+      </c>
+      <c r="P13">
+        <v>-3.0958700000000001</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>0.24299999999999999</v>
+      </c>
+      <c r="R13">
+        <v>268</v>
+      </c>
+      <c r="S13" s="1">
+        <v>-12.763</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14">
+        <v>-3.9931800000000002</v>
+      </c>
+      <c r="G14" s="61">
+        <v>0.502</v>
+      </c>
+      <c r="H14">
+        <v>198</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-7.9610000000000003</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M14" t="s">
+        <v>180</v>
+      </c>
+      <c r="N14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" t="s">
+        <v>184</v>
+      </c>
+      <c r="P14">
+        <v>-4.43546</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="R14">
+        <v>268</v>
+      </c>
+      <c r="S14" s="1">
+        <v>-12.368</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>185</v>
+      </c>
+      <c r="F15">
+        <v>-3.7491500000000002</v>
+      </c>
+      <c r="G15" s="61">
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="H15">
+        <v>198</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-8.4309999999999992</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" t="s">
+        <v>180</v>
+      </c>
+      <c r="N15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" t="s">
+        <v>185</v>
+      </c>
+      <c r="P15">
+        <v>-4.1046699999999996</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.23899999999999999</v>
+      </c>
+      <c r="R15">
+        <v>268</v>
+      </c>
+      <c r="S15" s="1">
+        <v>-17.143000000000001</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A16" s="49">
+        <v>45128</v>
+      </c>
+      <c r="B16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="21">
+        <v>-0.62258000000000002</v>
+      </c>
+      <c r="G16" s="64">
+        <v>0.48</v>
+      </c>
+      <c r="H16" s="21">
+        <v>198</v>
+      </c>
+      <c r="I16" s="18">
+        <v>-1.2969999999999999</v>
+      </c>
+      <c r="J16" s="18">
+        <v>0.99039999999999995</v>
+      </c>
+      <c r="M16" t="s">
+        <v>74</v>
+      </c>
+      <c r="N16" t="s">
+        <v>35</v>
+      </c>
+      <c r="O16" t="s">
+        <v>75</v>
+      </c>
+      <c r="P16">
+        <v>3.1358799999999998</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.41099999999999998</v>
+      </c>
+      <c r="R16">
+        <v>268</v>
+      </c>
+      <c r="S16" s="1">
+        <v>7.625</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17">
+        <v>-0.89341000000000004</v>
+      </c>
+      <c r="G17" s="61">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="H17">
+        <v>198</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-1.859</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0.8458</v>
+      </c>
+      <c r="M17" t="s">
+        <v>74</v>
+      </c>
+      <c r="N17" t="s">
+        <v>35</v>
+      </c>
+      <c r="O17" t="s">
+        <v>76</v>
+      </c>
+      <c r="P17">
+        <v>0.91557999999999995</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="R17">
+        <v>268</v>
+      </c>
+      <c r="S17" s="1">
+        <v>2.1989999999999998</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0.63060000000000005</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18">
+        <v>0.95672999999999997</v>
+      </c>
+      <c r="G18" s="61">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="H18">
+        <v>198</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2.0249999999999999</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="M18" t="s">
+        <v>74</v>
+      </c>
+      <c r="N18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18">
+        <v>2.8292799999999998</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="R18">
+        <v>268</v>
+      </c>
+      <c r="S18" s="1">
+        <v>6.601</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19">
+        <v>-2.2379500000000001</v>
+      </c>
+      <c r="G19" s="61">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="H19">
+        <v>198</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-5.0119999999999996</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1E-4</v>
+      </c>
+      <c r="M19" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" t="s">
+        <v>78</v>
+      </c>
+      <c r="P19">
+        <v>-0.44330000000000003</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="R19">
+        <v>268</v>
+      </c>
+      <c r="S19" s="1">
+        <v>-1.2549999999999999</v>
+      </c>
+      <c r="T19" s="1">
+        <v>0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20">
+        <v>1.4833099999999999</v>
+      </c>
+      <c r="G20" s="61">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="H20">
+        <v>198</v>
+      </c>
+      <c r="I20" s="1">
+        <v>2.8159999999999998</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0.22539999999999999</v>
+      </c>
+      <c r="M20" t="s">
+        <v>74</v>
+      </c>
+      <c r="N20" t="s">
+        <v>35</v>
+      </c>
+      <c r="O20" t="s">
+        <v>79</v>
+      </c>
+      <c r="P20">
+        <v>2.1196199999999998</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>0.36199999999999999</v>
+      </c>
+      <c r="R20">
+        <v>268</v>
+      </c>
+      <c r="S20" s="1">
+        <v>5.8529999999999998</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21">
+        <v>-1.4722500000000001</v>
+      </c>
+      <c r="G21" s="61">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="H21">
+        <v>198</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-2.903</v>
+      </c>
+      <c r="J21" s="1">
+        <v>0.18529999999999999</v>
+      </c>
+      <c r="M21" t="s">
+        <v>74</v>
+      </c>
+      <c r="N21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21">
+        <v>1.7377400000000001</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="R21">
+        <v>268</v>
+      </c>
+      <c r="S21" s="1">
+        <v>4.9610000000000003</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22">
+        <v>-1.3203100000000001</v>
+      </c>
+      <c r="G22" s="61">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="H22">
+        <v>198</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-2.6749999999999998</v>
+      </c>
+      <c r="J22" s="1">
+        <v>0.30109999999999998</v>
+      </c>
+      <c r="M22" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O22" t="s">
+        <v>81</v>
+      </c>
+      <c r="P22">
+        <v>2.8327399999999998</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>0.41</v>
+      </c>
+      <c r="R22">
+        <v>268</v>
+      </c>
+      <c r="S22" s="1">
+        <v>6.9169999999999998</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F23">
+        <v>-1.4779599999999999</v>
+      </c>
+      <c r="G23" s="61">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="H23">
+        <v>198</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-3.15</v>
+      </c>
+      <c r="J23" s="1">
+        <v>0.1002</v>
+      </c>
+      <c r="M23" t="s">
+        <v>74</v>
+      </c>
+      <c r="N23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" t="s">
+        <v>181</v>
+      </c>
+      <c r="P23">
+        <v>0.85070999999999997</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>0.435</v>
+      </c>
+      <c r="R23">
+        <v>268</v>
+      </c>
+      <c r="S23" s="1">
+        <v>1.956</v>
+      </c>
+      <c r="T23" s="1">
+        <v>0.79300000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>182</v>
+      </c>
+      <c r="F24">
+        <v>2.3577300000000001</v>
+      </c>
+      <c r="G24" s="61">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H24">
+        <v>198</v>
+      </c>
+      <c r="I24" s="1">
+        <v>5.2329999999999997</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" t="s">
+        <v>74</v>
+      </c>
+      <c r="N24" t="s">
+        <v>35</v>
+      </c>
+      <c r="O24" t="s">
+        <v>182</v>
+      </c>
+      <c r="P24">
+        <v>4.4069599999999998</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>0.438</v>
+      </c>
+      <c r="R24">
+        <v>268</v>
+      </c>
+      <c r="S24" s="1">
+        <v>10.063000000000001</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>66</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>183</v>
+      </c>
+      <c r="F25">
+        <v>0.37379000000000001</v>
+      </c>
+      <c r="G25" s="61">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="H25">
+        <v>198</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="J25" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="M25" t="s">
+        <v>74</v>
+      </c>
+      <c r="N25" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" t="s">
+        <v>183</v>
+      </c>
+      <c r="P25">
+        <v>2.64845</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>0.39</v>
+      </c>
+      <c r="R25">
+        <v>268</v>
+      </c>
+      <c r="S25" s="1">
+        <v>6.7939999999999996</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26">
+        <v>-0.50892999999999999</v>
+      </c>
+      <c r="G26" s="61">
+        <v>0.498</v>
+      </c>
+      <c r="H26">
+        <v>198</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-1.0209999999999999</v>
+      </c>
+      <c r="J26" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="M26" t="s">
+        <v>74</v>
+      </c>
+      <c r="N26" t="s">
+        <v>35</v>
+      </c>
+      <c r="O26" t="s">
+        <v>184</v>
+      </c>
+      <c r="P26">
+        <v>1.3088599999999999</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="R26">
+        <v>268</v>
+      </c>
+      <c r="S26" s="1">
+        <v>2.7759999999999998</v>
+      </c>
+      <c r="T26" s="1">
+        <v>0.2432</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>66</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s">
+        <v>185</v>
+      </c>
+      <c r="F27">
+        <v>-0.26489000000000001</v>
+      </c>
+      <c r="G27" s="61">
+        <v>0.443</v>
+      </c>
+      <c r="H27">
+        <v>198</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-0.59799999999999998</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" t="s">
+        <v>74</v>
+      </c>
+      <c r="N27" t="s">
+        <v>35</v>
+      </c>
+      <c r="O27" t="s">
+        <v>185</v>
+      </c>
+      <c r="P27">
+        <v>1.6396500000000001</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="R27">
+        <v>268</v>
+      </c>
+      <c r="S27" s="1">
+        <v>4.2690000000000001</v>
+      </c>
+      <c r="T27" s="1">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>67</v>
+      </c>
+      <c r="D28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28">
+        <v>-0.27082000000000001</v>
+      </c>
+      <c r="G28" s="61">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="H28">
+        <v>198</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-0.52500000000000002</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="M28" t="s">
+        <v>75</v>
+      </c>
+      <c r="N28" t="s">
+        <v>35</v>
+      </c>
+      <c r="O28" t="s">
+        <v>76</v>
+      </c>
+      <c r="P28">
+        <v>-2.2202999999999999</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="R28">
+        <v>268</v>
+      </c>
+      <c r="S28" s="1">
+        <v>-5.67</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29">
+        <v>1.57931</v>
+      </c>
+      <c r="G29" s="61">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H29">
+        <v>198</v>
+      </c>
+      <c r="I29" s="1">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="J29" s="1">
+        <v>0.1124</v>
+      </c>
+      <c r="M29" t="s">
+        <v>75</v>
+      </c>
+      <c r="N29" t="s">
+        <v>35</v>
+      </c>
+      <c r="O29" t="s">
+        <v>77</v>
+      </c>
+      <c r="P29">
+        <v>-0.30659999999999998</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="R29">
+        <v>268</v>
+      </c>
+      <c r="S29" s="1">
+        <v>-0.78400000000000003</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D30" t="s">
+        <v>35</v>
+      </c>
+      <c r="E30" t="s">
+        <v>70</v>
+      </c>
+      <c r="F30">
+        <v>-1.61537</v>
+      </c>
+      <c r="G30" s="61">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="H30">
+        <v>198</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-3.3380000000000001</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5.9200000000000003E-2</v>
+      </c>
+      <c r="M30" t="s">
+        <v>75</v>
+      </c>
+      <c r="N30" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30" t="s">
+        <v>78</v>
+      </c>
+      <c r="P30">
+        <v>-3.57918</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="R30">
+        <v>268</v>
+      </c>
+      <c r="S30" s="1">
+        <v>-9.0239999999999991</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31">
+        <v>2.10589</v>
+      </c>
+      <c r="G31" s="61">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="H31">
+        <v>198</v>
+      </c>
+      <c r="I31" s="1">
+        <v>3.7719999999999998</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="M31" t="s">
+        <v>75</v>
+      </c>
+      <c r="N31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O31" t="s">
+        <v>79</v>
+      </c>
+      <c r="P31">
+        <v>-1.0162599999999999</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="R31">
+        <v>268</v>
+      </c>
+      <c r="S31" s="1">
+        <v>-2.444</v>
+      </c>
+      <c r="T31" s="1">
+        <v>0.4516</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32">
+        <v>-0.84965999999999997</v>
+      </c>
+      <c r="G32" s="61">
+        <v>0.54</v>
+      </c>
+      <c r="H32">
+        <v>198</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-1.5740000000000001</v>
+      </c>
+      <c r="J32" s="1">
+        <v>0.95079999999999998</v>
+      </c>
+      <c r="M32" t="s">
+        <v>75</v>
+      </c>
+      <c r="N32" t="s">
+        <v>35</v>
+      </c>
+      <c r="O32" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32">
+        <v>-1.3981399999999999</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="R32">
+        <v>268</v>
+      </c>
+      <c r="S32" s="1">
+        <v>-3.5579999999999998</v>
+      </c>
+      <c r="T32" s="1">
+        <v>2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" t="s">
+        <v>73</v>
+      </c>
+      <c r="F33">
+        <v>-0.69772999999999996</v>
+      </c>
+      <c r="G33" s="61">
+        <v>0.52700000000000002</v>
+      </c>
+      <c r="H33">
+        <v>198</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-1.323</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0.98839999999999995</v>
+      </c>
+      <c r="K33" s="49">
+        <v>45128</v>
+      </c>
+      <c r="L33" t="s">
+        <v>188</v>
+      </c>
+      <c r="M33" s="65" t="s">
+        <v>75</v>
+      </c>
+      <c r="N33" s="65" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" s="65" t="s">
+        <v>81</v>
+      </c>
+      <c r="P33" s="65">
+        <v>-0.30314000000000002</v>
+      </c>
+      <c r="Q33" s="66">
+        <v>0.38400000000000001</v>
+      </c>
+      <c r="R33" s="65">
+        <v>268</v>
+      </c>
+      <c r="S33" s="66">
+        <v>-0.78900000000000003</v>
+      </c>
+      <c r="T33" s="66">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" t="s">
+        <v>181</v>
+      </c>
+      <c r="F34">
+        <v>-0.85538000000000003</v>
+      </c>
+      <c r="G34" s="61">
+        <v>0.50600000000000001</v>
+      </c>
+      <c r="H34">
+        <v>198</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-1.6919999999999999</v>
+      </c>
+      <c r="J34" s="1">
+        <v>0.91669999999999996</v>
+      </c>
+      <c r="M34" t="s">
+        <v>75</v>
+      </c>
+      <c r="N34" t="s">
+        <v>35</v>
+      </c>
+      <c r="O34" t="s">
+        <v>181</v>
+      </c>
+      <c r="P34">
+        <v>-2.2851699999999999</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="R34">
+        <v>268</v>
+      </c>
+      <c r="S34" s="1">
+        <v>-5.72</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>67</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>182</v>
+      </c>
+      <c r="F35">
+        <v>2.9803099999999998</v>
+      </c>
+      <c r="G35" s="61">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="H35">
+        <v>198</v>
+      </c>
+      <c r="I35" s="1">
+        <v>6.101</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M35" t="s">
+        <v>75</v>
+      </c>
+      <c r="N35" t="s">
+        <v>35</v>
+      </c>
+      <c r="O35" t="s">
+        <v>182</v>
+      </c>
+      <c r="P35">
+        <v>1.2710900000000001</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="R35">
+        <v>268</v>
+      </c>
+      <c r="S35" s="1">
+        <v>3.3290000000000002</v>
+      </c>
+      <c r="T35" s="1">
+        <v>5.91E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>183</v>
+      </c>
+      <c r="F36">
+        <v>0.99638000000000004</v>
+      </c>
+      <c r="G36" s="61">
+        <v>0.496</v>
+      </c>
+      <c r="H36">
+        <v>198</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2.008</v>
+      </c>
+      <c r="J36" s="1">
+        <v>0.76070000000000004</v>
+      </c>
+      <c r="M36" t="s">
+        <v>75</v>
+      </c>
+      <c r="N36" t="s">
+        <v>35</v>
+      </c>
+      <c r="O36" t="s">
+        <v>183</v>
+      </c>
+      <c r="P36">
+        <v>-0.48742999999999997</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>0.33200000000000002</v>
+      </c>
+      <c r="R36">
+        <v>268</v>
+      </c>
+      <c r="S36" s="1">
+        <v>-1.47</v>
+      </c>
+      <c r="T36" s="1">
+        <v>0.9718</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>184</v>
+      </c>
+      <c r="F37">
+        <v>0.11366</v>
+      </c>
+      <c r="G37" s="61">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="H37">
+        <v>198</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0.21299999999999999</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1</v>
+      </c>
+      <c r="M37" t="s">
+        <v>75</v>
+      </c>
+      <c r="N37" t="s">
+        <v>35</v>
+      </c>
+      <c r="O37" t="s">
+        <v>184</v>
+      </c>
+      <c r="P37">
+        <v>-1.8270200000000001</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="R37">
+        <v>268</v>
+      </c>
+      <c r="S37" s="1">
+        <v>-4.3079999999999998</v>
+      </c>
+      <c r="T37" s="1">
+        <v>1.9E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>67</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>185</v>
+      </c>
+      <c r="F38">
+        <v>0.35769000000000001</v>
+      </c>
+      <c r="G38" s="61">
+        <v>0.48099999999999998</v>
+      </c>
+      <c r="H38">
+        <v>198</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0.74299999999999999</v>
+      </c>
+      <c r="J38" s="1">
+        <v>1</v>
+      </c>
+      <c r="M38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N38" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" t="s">
+        <v>185</v>
+      </c>
+      <c r="P38">
+        <v>-1.4962299999999999</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>0.32900000000000001</v>
+      </c>
+      <c r="R38">
+        <v>268</v>
+      </c>
+      <c r="S38" s="1">
+        <v>-4.5519999999999996</v>
+      </c>
+      <c r="T38" s="1">
+        <v>6.9999999999999999E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A39" s="49">
+        <v>45129</v>
+      </c>
+      <c r="B39" t="s">
+        <v>188</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F39" s="18">
+        <v>1.8501300000000001</v>
+      </c>
+      <c r="G39" s="18">
+        <v>0.51200000000000001</v>
+      </c>
+      <c r="H39" s="18">
+        <v>198</v>
+      </c>
+      <c r="I39" s="18">
+        <v>3.617</v>
+      </c>
+      <c r="J39" s="18">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="K39" s="49">
+        <v>45129</v>
+      </c>
+      <c r="L39" t="s">
+        <v>188</v>
+      </c>
+      <c r="M39" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="N39" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="P39" s="19">
+        <v>1.9137</v>
+      </c>
+      <c r="Q39" s="20">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="R39" s="19">
+        <v>268</v>
+      </c>
+      <c r="S39" s="20">
+        <v>4.7119999999999997</v>
+      </c>
+      <c r="T39" s="20">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40">
+        <v>-1.3445499999999999</v>
+      </c>
+      <c r="G40" s="61">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="H40">
+        <v>198</v>
+      </c>
+      <c r="I40" s="1">
+        <v>-2.7240000000000002</v>
+      </c>
+      <c r="J40" s="1">
+        <v>0.2737</v>
+      </c>
+      <c r="M40" t="s">
+        <v>76</v>
+      </c>
+      <c r="N40" t="s">
+        <v>35</v>
+      </c>
+      <c r="O40" t="s">
+        <v>78</v>
+      </c>
+      <c r="P40">
+        <v>-1.3588800000000001</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="R40">
+        <v>268</v>
+      </c>
+      <c r="S40" s="1">
+        <v>-3.407</v>
+      </c>
+      <c r="T40" s="1">
+        <v>4.6699999999999998E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" t="s">
+        <v>71</v>
+      </c>
+      <c r="F41">
+        <v>2.3767200000000002</v>
+      </c>
+      <c r="G41" s="61">
+        <v>0.57199999999999995</v>
+      </c>
+      <c r="H41">
+        <v>198</v>
+      </c>
+      <c r="I41" s="1">
+        <v>4.157</v>
+      </c>
+      <c r="J41" s="1">
+        <v>3.7000000000000002E-3</v>
+      </c>
+      <c r="M41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N41" t="s">
+        <v>35</v>
+      </c>
+      <c r="O41" t="s">
+        <v>79</v>
+      </c>
+      <c r="P41">
+        <v>1.20404</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="R41">
+        <v>268</v>
+      </c>
+      <c r="S41" s="1">
+        <v>2.8940000000000001</v>
+      </c>
+      <c r="T41" s="1">
+        <v>0.187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" t="s">
+        <v>72</v>
+      </c>
+      <c r="F42">
+        <v>-0.57884000000000002</v>
+      </c>
+      <c r="G42" s="61">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="H42">
+        <v>198</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-1.0449999999999999</v>
+      </c>
+      <c r="J42" s="1">
+        <v>0.99880000000000002</v>
+      </c>
+      <c r="M42" t="s">
+        <v>76</v>
+      </c>
+      <c r="N42" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" t="s">
+        <v>80</v>
+      </c>
+      <c r="P42">
+        <v>0.82216</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="R42">
+        <v>268</v>
+      </c>
+      <c r="S42" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="T42" s="1">
+        <v>0.71430000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43">
+        <v>-0.4269</v>
+      </c>
+      <c r="G43" s="61">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="H43">
+        <v>198</v>
+      </c>
+      <c r="I43" s="1">
+        <v>-0.79100000000000004</v>
+      </c>
+      <c r="J43" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="M43" t="s">
+        <v>76</v>
+      </c>
+      <c r="N43" t="s">
+        <v>35</v>
+      </c>
+      <c r="O43" t="s">
+        <v>81</v>
+      </c>
+      <c r="P43">
+        <v>1.91716</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="R43">
+        <v>268</v>
+      </c>
+      <c r="S43" s="1">
+        <v>4.8259999999999996</v>
+      </c>
+      <c r="T43" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" t="s">
+        <v>181</v>
+      </c>
+      <c r="F44">
+        <v>-0.58455999999999997</v>
+      </c>
+      <c r="G44" s="61">
+        <v>0.505</v>
+      </c>
+      <c r="H44">
+        <v>198</v>
+      </c>
+      <c r="I44" s="1">
+        <v>-1.1579999999999999</v>
+      </c>
+      <c r="J44" s="1">
+        <v>0.99670000000000003</v>
+      </c>
+      <c r="M44" t="s">
+        <v>76</v>
+      </c>
+      <c r="N44" t="s">
+        <v>35</v>
+      </c>
+      <c r="O44" t="s">
+        <v>181</v>
+      </c>
+      <c r="P44">
+        <v>-6.4869999999999997E-2</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>0.41399999999999998</v>
+      </c>
+      <c r="R44">
+        <v>268</v>
+      </c>
+      <c r="S44" s="1">
+        <v>-0.157</v>
+      </c>
+      <c r="T44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" t="s">
+        <v>182</v>
+      </c>
+      <c r="F45">
+        <v>3.2511399999999999</v>
+      </c>
+      <c r="G45" s="61">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="H45">
+        <v>198</v>
+      </c>
+      <c r="I45" s="1">
+        <v>6.6689999999999996</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M45" t="s">
+        <v>76</v>
+      </c>
+      <c r="N45" t="s">
+        <v>35</v>
+      </c>
+      <c r="O45" t="s">
+        <v>182</v>
+      </c>
+      <c r="P45">
+        <v>3.49139</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="R45">
+        <v>268</v>
+      </c>
+      <c r="S45" s="1">
+        <v>8.7189999999999994</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" t="s">
+        <v>183</v>
+      </c>
+      <c r="F46">
+        <v>1.2672000000000001</v>
+      </c>
+      <c r="G46" s="61">
+        <v>0.496</v>
+      </c>
+      <c r="H46">
+        <v>198</v>
+      </c>
+      <c r="I46" s="1">
+        <v>2.5569999999999999</v>
+      </c>
+      <c r="J46" s="1">
+        <v>0.37509999999999999</v>
+      </c>
+      <c r="M46" t="s">
+        <v>76</v>
+      </c>
+      <c r="N46" t="s">
+        <v>35</v>
+      </c>
+      <c r="O46" t="s">
+        <v>183</v>
+      </c>
+      <c r="P46">
+        <v>1.7328699999999999</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>0.35199999999999998</v>
+      </c>
+      <c r="R46">
+        <v>268</v>
+      </c>
+      <c r="S46" s="1">
+        <v>4.923</v>
+      </c>
+      <c r="T46" s="1">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>35</v>
+      </c>
+      <c r="E47" t="s">
+        <v>184</v>
+      </c>
+      <c r="F47">
+        <v>0.38447999999999999</v>
+      </c>
+      <c r="G47" s="61">
+        <v>0.53</v>
+      </c>
+      <c r="H47">
+        <v>198</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" t="s">
+        <v>76</v>
+      </c>
+      <c r="N47" t="s">
+        <v>35</v>
+      </c>
+      <c r="O47" t="s">
+        <v>184</v>
+      </c>
+      <c r="P47">
+        <v>0.39328000000000002</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>0.44</v>
+      </c>
+      <c r="R47">
+        <v>268</v>
+      </c>
+      <c r="S47" s="1">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="T47" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>35</v>
+      </c>
+      <c r="E48" t="s">
+        <v>185</v>
+      </c>
+      <c r="F48">
+        <v>0.62851999999999997</v>
+      </c>
+      <c r="G48" s="61">
+        <v>0.48</v>
+      </c>
+      <c r="H48">
+        <v>198</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="J48" s="1">
+        <v>0.98950000000000005</v>
+      </c>
+      <c r="M48" t="s">
+        <v>76</v>
+      </c>
+      <c r="N48" t="s">
+        <v>35</v>
+      </c>
+      <c r="O48" t="s">
+        <v>185</v>
+      </c>
+      <c r="P48">
+        <v>0.72406999999999999</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>0.34899999999999998</v>
+      </c>
+      <c r="R48">
+        <v>268</v>
+      </c>
+      <c r="S48" s="1">
+        <v>2.077</v>
+      </c>
+      <c r="T48" s="1">
+        <v>0.71650000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" t="s">
+        <v>70</v>
+      </c>
+      <c r="F49">
+        <v>-3.19468</v>
+      </c>
+      <c r="G49" s="61">
+        <v>0.45100000000000001</v>
+      </c>
+      <c r="H49">
+        <v>198</v>
+      </c>
+      <c r="I49" s="1">
+        <v>-7.077</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M49" t="s">
+        <v>77</v>
+      </c>
+      <c r="N49" t="s">
+        <v>35</v>
+      </c>
+      <c r="O49" t="s">
+        <v>78</v>
+      </c>
+      <c r="P49">
+        <v>-3.27258</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>0.41599999999999998</v>
+      </c>
+      <c r="R49">
+        <v>268</v>
+      </c>
+      <c r="S49" s="1">
+        <v>-7.8659999999999997</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" t="s">
+        <v>71</v>
+      </c>
+      <c r="F50">
+        <v>0.52658000000000005</v>
+      </c>
+      <c r="G50" s="61">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="H50">
+        <v>198</v>
+      </c>
+      <c r="I50" s="1">
+        <v>1.018</v>
+      </c>
+      <c r="J50" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="M50" t="s">
+        <v>77</v>
+      </c>
+      <c r="N50" t="s">
+        <v>35</v>
+      </c>
+      <c r="O50" t="s">
+        <v>79</v>
+      </c>
+      <c r="P50">
+        <v>-0.70965999999999996</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>0.435</v>
+      </c>
+      <c r="R50">
+        <v>268</v>
+      </c>
+      <c r="S50" s="1">
+        <v>-1.63</v>
+      </c>
+      <c r="T50" s="1">
+        <v>0.93659999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C51" t="s">
+        <v>69</v>
+      </c>
+      <c r="D51" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" t="s">
+        <v>72</v>
+      </c>
+      <c r="F51">
+        <v>-2.4289700000000001</v>
+      </c>
+      <c r="G51" s="61">
+        <v>0.497</v>
+      </c>
+      <c r="H51">
+        <v>198</v>
+      </c>
+      <c r="I51" s="1">
+        <v>-4.8860000000000001</v>
+      </c>
+      <c r="J51" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M51" t="s">
+        <v>77</v>
+      </c>
+      <c r="N51" t="s">
+        <v>35</v>
+      </c>
+      <c r="O51" t="s">
+        <v>80</v>
+      </c>
+      <c r="P51">
+        <v>-1.09154</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="R51">
+        <v>268</v>
+      </c>
+      <c r="S51" s="1">
+        <v>-2.6469999999999998</v>
+      </c>
+      <c r="T51" s="1">
+        <v>0.31630000000000003</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C52" t="s">
+        <v>69</v>
+      </c>
+      <c r="D52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" t="s">
+        <v>73</v>
+      </c>
+      <c r="F52">
+        <v>-2.2770299999999999</v>
+      </c>
+      <c r="G52" s="61">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="H52">
+        <v>198</v>
+      </c>
+      <c r="I52" s="1">
+        <v>-4.6589999999999998</v>
+      </c>
+      <c r="J52" s="1">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="M52" t="s">
+        <v>77</v>
+      </c>
+      <c r="N52" t="s">
+        <v>35</v>
+      </c>
+      <c r="O52" t="s">
+        <v>81</v>
+      </c>
+      <c r="P52">
+        <v>3.46E-3</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="R52">
+        <v>268</v>
+      </c>
+      <c r="S52" s="1">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C53" t="s">
+        <v>69</v>
+      </c>
+      <c r="D53" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" t="s">
+        <v>181</v>
+      </c>
+      <c r="F53">
+        <v>-2.4346899999999998</v>
+      </c>
+      <c r="G53" s="61">
+        <v>0.501</v>
+      </c>
+      <c r="H53">
+        <v>198</v>
+      </c>
+      <c r="I53" s="1">
+        <v>-4.8579999999999997</v>
+      </c>
+      <c r="J53" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="M53" t="s">
+        <v>77</v>
+      </c>
+      <c r="N53" t="s">
+        <v>35</v>
+      </c>
+      <c r="O53" t="s">
+        <v>181</v>
+      </c>
+      <c r="P53">
+        <v>-1.97858</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="R53">
+        <v>268</v>
+      </c>
+      <c r="S53" s="1">
+        <v>-4.7919999999999998</v>
+      </c>
+      <c r="T53" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C54" t="s">
+        <v>69</v>
+      </c>
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" t="s">
+        <v>182</v>
+      </c>
+      <c r="F54">
+        <v>1.401</v>
+      </c>
+      <c r="G54" s="61">
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="H54">
+        <v>198</v>
+      </c>
+      <c r="I54" s="1">
+        <v>2.891</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0.19040000000000001</v>
+      </c>
+      <c r="M54" t="s">
+        <v>77</v>
+      </c>
+      <c r="N54" t="s">
+        <v>35</v>
+      </c>
+      <c r="O54" t="s">
+        <v>182</v>
+      </c>
+      <c r="P54">
+        <v>1.57768</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="R54">
+        <v>268</v>
+      </c>
+      <c r="S54" s="1">
+        <v>4.0030000000000001</v>
+      </c>
+      <c r="T54" s="1">
+        <v>6.1000000000000004E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C55" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" t="s">
+        <v>183</v>
+      </c>
+      <c r="F55">
+        <v>-0.58292999999999995</v>
+      </c>
+      <c r="G55" s="61">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="H55">
+        <v>198</v>
+      </c>
+      <c r="I55" s="1">
+        <v>-1.1870000000000001</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0.99580000000000002</v>
+      </c>
+      <c r="M55" t="s">
+        <v>77</v>
+      </c>
+      <c r="N55" t="s">
+        <v>35</v>
+      </c>
+      <c r="O55" t="s">
+        <v>183</v>
+      </c>
+      <c r="P55">
+        <v>-0.18084</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="R55">
+        <v>268</v>
+      </c>
+      <c r="S55" s="1">
+        <v>-0.52200000000000002</v>
+      </c>
+      <c r="T55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C56" t="s">
+        <v>69</v>
+      </c>
+      <c r="D56" t="s">
+        <v>35</v>
+      </c>
+      <c r="E56" t="s">
+        <v>184</v>
+      </c>
+      <c r="F56">
+        <v>-1.4656499999999999</v>
+      </c>
+      <c r="G56" s="61">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="H56">
+        <v>198</v>
+      </c>
+      <c r="I56" s="1">
+        <v>-2.7480000000000002</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0.26019999999999999</v>
+      </c>
+      <c r="M56" t="s">
+        <v>77</v>
+      </c>
+      <c r="N56" t="s">
+        <v>35</v>
+      </c>
+      <c r="O56" t="s">
+        <v>184</v>
+      </c>
+      <c r="P56">
+        <v>-1.5204299999999999</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>0.436</v>
+      </c>
+      <c r="R56">
+        <v>268</v>
+      </c>
+      <c r="S56" s="1">
+        <v>-3.4910000000000001</v>
+      </c>
+      <c r="T56" s="1">
+        <v>3.5999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C57" t="s">
+        <v>69</v>
+      </c>
+      <c r="D57" t="s">
+        <v>35</v>
+      </c>
+      <c r="E57" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57">
+        <v>-1.2216199999999999</v>
+      </c>
+      <c r="G57" s="61">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="H57">
+        <v>198</v>
+      </c>
+      <c r="I57" s="1">
+        <v>-2.56</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0.37319999999999998</v>
+      </c>
+      <c r="M57" t="s">
+        <v>77</v>
+      </c>
+      <c r="N57" t="s">
+        <v>35</v>
+      </c>
+      <c r="O57" t="s">
+        <v>185</v>
+      </c>
+      <c r="P57">
+        <v>-1.18963</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="R57">
+        <v>268</v>
+      </c>
+      <c r="S57" s="1">
+        <v>-3.4609999999999999</v>
+      </c>
+      <c r="T57" s="1">
+        <v>3.95E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C58" t="s">
+        <v>70</v>
+      </c>
+      <c r="D58" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" t="s">
+        <v>71</v>
+      </c>
+      <c r="F58">
+        <v>3.72126</v>
+      </c>
+      <c r="G58" s="61">
+        <v>0.39900000000000002</v>
+      </c>
+      <c r="H58">
+        <v>198</v>
+      </c>
+      <c r="I58" s="1">
+        <v>9.3330000000000002</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M58" t="s">
+        <v>78</v>
+      </c>
+      <c r="N58" t="s">
+        <v>35</v>
+      </c>
+      <c r="O58" t="s">
+        <v>79</v>
+      </c>
+      <c r="P58">
+        <v>2.5629200000000001</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>0.309</v>
+      </c>
+      <c r="R58">
+        <v>268</v>
+      </c>
+      <c r="S58" s="1">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="T58" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C59" t="s">
+        <v>70</v>
+      </c>
+      <c r="D59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E59" t="s">
+        <v>72</v>
+      </c>
+      <c r="F59">
+        <v>0.76571</v>
+      </c>
+      <c r="G59" s="61">
+        <v>0.372</v>
+      </c>
+      <c r="H59">
+        <v>198</v>
+      </c>
+      <c r="I59" s="1">
+        <v>2.056</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0.7298</v>
+      </c>
+      <c r="M59" t="s">
+        <v>78</v>
+      </c>
+      <c r="N59" t="s">
+        <v>35</v>
+      </c>
+      <c r="O59" t="s">
+        <v>80</v>
+      </c>
+      <c r="P59">
+        <v>2.1810399999999999</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="R59">
+        <v>268</v>
+      </c>
+      <c r="S59" s="1">
+        <v>7.2469999999999999</v>
+      </c>
+      <c r="T59" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C60" t="s">
+        <v>70</v>
+      </c>
+      <c r="D60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E60" t="s">
+        <v>73</v>
+      </c>
+      <c r="F60">
+        <v>0.91764999999999997</v>
+      </c>
+      <c r="G60" s="61">
+        <v>0.377</v>
+      </c>
+      <c r="H60">
+        <v>198</v>
+      </c>
+      <c r="I60" s="1">
+        <v>2.4329999999999998</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0.4607</v>
+      </c>
+      <c r="M60" t="s">
+        <v>78</v>
+      </c>
+      <c r="N60" t="s">
+        <v>35</v>
+      </c>
+      <c r="O60" t="s">
+        <v>81</v>
+      </c>
+      <c r="P60">
+        <v>3.2760400000000001</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="R60">
+        <v>268</v>
+      </c>
+      <c r="S60" s="1">
+        <v>8.3629999999999995</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D61" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" t="s">
+        <v>181</v>
+      </c>
+      <c r="F61">
+        <v>0.75999000000000005</v>
+      </c>
+      <c r="G61" s="61">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="H61">
+        <v>198</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1.57</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0.9516</v>
+      </c>
+      <c r="M61" t="s">
+        <v>78</v>
+      </c>
+      <c r="N61" t="s">
+        <v>35</v>
+      </c>
+      <c r="O61" t="s">
+        <v>181</v>
+      </c>
+      <c r="P61">
+        <v>1.2940100000000001</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="R61">
+        <v>268</v>
+      </c>
+      <c r="S61" s="1">
+        <v>3.0670000000000002</v>
+      </c>
+      <c r="T61" s="1">
+        <v>0.12230000000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C62" t="s">
+        <v>70</v>
+      </c>
+      <c r="D62" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" t="s">
+        <v>182</v>
+      </c>
+      <c r="F62">
+        <v>4.5956799999999998</v>
+      </c>
+      <c r="G62" s="61">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="H62">
+        <v>198</v>
+      </c>
+      <c r="I62" s="1">
+        <v>9.8140000000000001</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M62" t="s">
+        <v>78</v>
+      </c>
+      <c r="N62" t="s">
+        <v>35</v>
+      </c>
+      <c r="O62" t="s">
+        <v>182</v>
+      </c>
+      <c r="P62">
+        <v>4.8502599999999996</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>0.432</v>
+      </c>
+      <c r="R62">
+        <v>268</v>
+      </c>
+      <c r="S62" s="1">
+        <v>11.234</v>
+      </c>
+      <c r="T62" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C63" t="s">
+        <v>70</v>
+      </c>
+      <c r="D63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" t="s">
+        <v>183</v>
+      </c>
+      <c r="F63">
+        <v>2.6117499999999998</v>
+      </c>
+      <c r="G63" s="61">
+        <v>0.47199999999999998</v>
+      </c>
+      <c r="H63">
+        <v>198</v>
+      </c>
+      <c r="I63" s="1">
+        <v>5.5279999999999996</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M63" t="s">
+        <v>78</v>
+      </c>
+      <c r="N63" t="s">
+        <v>35</v>
+      </c>
+      <c r="O63" t="s">
+        <v>183</v>
+      </c>
+      <c r="P63">
+        <v>3.0917500000000002</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="R63">
+        <v>268</v>
+      </c>
+      <c r="S63" s="1">
+        <v>8.1140000000000008</v>
+      </c>
+      <c r="T63" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C64" t="s">
+        <v>70</v>
+      </c>
+      <c r="D64" t="s">
+        <v>35</v>
+      </c>
+      <c r="E64" t="s">
+        <v>184</v>
+      </c>
+      <c r="F64">
+        <v>1.7290300000000001</v>
+      </c>
+      <c r="G64" s="61">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="H64">
+        <v>198</v>
+      </c>
+      <c r="I64" s="1">
+        <v>3.2759999999999998</v>
+      </c>
+      <c r="J64" s="1">
+        <v>7.0900000000000005E-2</v>
+      </c>
+      <c r="M64" t="s">
+        <v>78</v>
+      </c>
+      <c r="N64" t="s">
+        <v>35</v>
+      </c>
+      <c r="O64" t="s">
+        <v>184</v>
+      </c>
+      <c r="P64">
+        <v>1.7521599999999999</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="R64">
+        <v>268</v>
+      </c>
+      <c r="S64" s="1">
+        <v>3.7730000000000001</v>
+      </c>
+      <c r="T64" s="1">
+        <v>1.41E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C65" t="s">
+        <v>70</v>
+      </c>
+      <c r="D65" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" t="s">
+        <v>185</v>
+      </c>
+      <c r="F65">
+        <v>1.97306</v>
+      </c>
+      <c r="G65" s="61">
+        <v>0.46</v>
+      </c>
+      <c r="H65">
+        <v>198</v>
+      </c>
+      <c r="I65" s="1">
+        <v>4.2850000000000001</v>
+      </c>
+      <c r="J65" s="1">
+        <v>2.3E-3</v>
+      </c>
+      <c r="M65" t="s">
+        <v>78</v>
+      </c>
+      <c r="N65" t="s">
+        <v>35</v>
+      </c>
+      <c r="O65" t="s">
+        <v>185</v>
+      </c>
+      <c r="P65">
+        <v>2.0829499999999999</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>0.374</v>
+      </c>
+      <c r="R65">
+        <v>268</v>
+      </c>
+      <c r="S65" s="1">
+        <v>5.569</v>
+      </c>
+      <c r="T65" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C66" t="s">
+        <v>71</v>
+      </c>
+      <c r="D66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" t="s">
+        <v>72</v>
+      </c>
+      <c r="F66">
+        <v>-2.9555600000000002</v>
+      </c>
+      <c r="G66" s="61">
+        <v>0.377</v>
+      </c>
+      <c r="H66">
+        <v>198</v>
+      </c>
+      <c r="I66" s="1">
+        <v>-7.8360000000000003</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M66" t="s">
+        <v>79</v>
+      </c>
+      <c r="N66" t="s">
+        <v>35</v>
+      </c>
+      <c r="O66" t="s">
+        <v>80</v>
+      </c>
+      <c r="P66">
+        <v>-0.38188</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>0.30599999999999999</v>
+      </c>
+      <c r="R66">
+        <v>268</v>
+      </c>
+      <c r="S66" s="1">
+        <v>-1.2470000000000001</v>
+      </c>
+      <c r="T66" s="1">
+        <v>0.99339999999999995</v>
+      </c>
+    </row>
+    <row r="67" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67">
+        <v>-2.80362</v>
+      </c>
+      <c r="G67" s="61">
+        <v>0.39600000000000002</v>
+      </c>
+      <c r="H67">
+        <v>198</v>
+      </c>
+      <c r="I67" s="1">
+        <v>-7.0890000000000004</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M67" t="s">
+        <v>79</v>
+      </c>
+      <c r="N67" t="s">
+        <v>35</v>
+      </c>
+      <c r="O67" t="s">
+        <v>81</v>
+      </c>
+      <c r="P67">
+        <v>0.71311999999999998</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="R67">
+        <v>268</v>
+      </c>
+      <c r="S67" s="1">
+        <v>1.742</v>
+      </c>
+      <c r="T67" s="1">
+        <v>0.89890000000000003</v>
+      </c>
+    </row>
+    <row r="68" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C68" t="s">
+        <v>71</v>
+      </c>
+      <c r="D68" t="s">
+        <v>35</v>
+      </c>
+      <c r="E68" t="s">
+        <v>181</v>
+      </c>
+      <c r="F68">
+        <v>-2.9612799999999999</v>
+      </c>
+      <c r="G68" s="61">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="H68">
+        <v>198</v>
+      </c>
+      <c r="I68" s="1">
+        <v>-5.25</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M68" t="s">
+        <v>79</v>
+      </c>
+      <c r="N68" t="s">
+        <v>35</v>
+      </c>
+      <c r="O68" t="s">
+        <v>181</v>
+      </c>
+      <c r="P68">
+        <v>-1.26891</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>0.441</v>
+      </c>
+      <c r="R68">
+        <v>268</v>
+      </c>
+      <c r="S68" s="1">
+        <v>-2.88</v>
+      </c>
+      <c r="T68" s="1">
+        <v>0.19309999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C69" t="s">
+        <v>71</v>
+      </c>
+      <c r="D69" t="s">
+        <v>35</v>
+      </c>
+      <c r="E69" t="s">
+        <v>182</v>
+      </c>
+      <c r="F69">
+        <v>0.87441999999999998</v>
+      </c>
+      <c r="G69" s="61">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="H69">
+        <v>198</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0.94830000000000003</v>
+      </c>
+      <c r="M69" t="s">
+        <v>79</v>
+      </c>
+      <c r="N69" t="s">
+        <v>35</v>
+      </c>
+      <c r="O69" t="s">
+        <v>182</v>
+      </c>
+      <c r="P69">
+        <v>2.28735</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>0.45400000000000001</v>
+      </c>
+      <c r="R69">
+        <v>268</v>
+      </c>
+      <c r="S69" s="1">
+        <v>5.04</v>
+      </c>
+      <c r="T69" s="1">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="70" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" t="s">
+        <v>183</v>
+      </c>
+      <c r="F70">
+        <v>-1.1095200000000001</v>
+      </c>
+      <c r="G70" s="61">
+        <v>0.55400000000000005</v>
+      </c>
+      <c r="H70">
+        <v>198</v>
+      </c>
+      <c r="I70" s="1">
+        <v>-2.004</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0.76319999999999999</v>
+      </c>
+      <c r="M70" t="s">
+        <v>79</v>
+      </c>
+      <c r="N70" t="s">
+        <v>35</v>
+      </c>
+      <c r="O70" t="s">
+        <v>183</v>
+      </c>
+      <c r="P70">
+        <v>0.52883000000000002</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="R70">
+        <v>268</v>
+      </c>
+      <c r="S70" s="1">
+        <v>1.306</v>
+      </c>
+      <c r="T70" s="1">
+        <v>0.9899</v>
+      </c>
+    </row>
+    <row r="71" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C71" t="s">
+        <v>71</v>
+      </c>
+      <c r="D71" t="s">
+        <v>35</v>
+      </c>
+      <c r="E71" t="s">
+        <v>184</v>
+      </c>
+      <c r="F71">
+        <v>-1.99224</v>
+      </c>
+      <c r="G71" s="61">
+        <v>0.61</v>
+      </c>
+      <c r="H71">
+        <v>198</v>
+      </c>
+      <c r="I71" s="1">
+        <v>-3.2650000000000001</v>
+      </c>
+      <c r="J71" s="1">
+        <v>7.3200000000000001E-2</v>
+      </c>
+      <c r="M71" t="s">
+        <v>79</v>
+      </c>
+      <c r="N71" t="s">
+        <v>35</v>
+      </c>
+      <c r="O71" t="s">
+        <v>184</v>
+      </c>
+      <c r="P71">
+        <v>-0.81076000000000004</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="R71">
+        <v>268</v>
+      </c>
+      <c r="S71" s="1">
+        <v>-1.6739999999999999</v>
+      </c>
+      <c r="T71" s="1">
+        <v>0.92320000000000002</v>
+      </c>
+    </row>
+    <row r="72" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C72" t="s">
+        <v>71</v>
+      </c>
+      <c r="D72" t="s">
+        <v>35</v>
+      </c>
+      <c r="E72" t="s">
+        <v>185</v>
+      </c>
+      <c r="F72">
+        <v>-1.7482</v>
+      </c>
+      <c r="G72" s="61">
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="H72">
+        <v>198</v>
+      </c>
+      <c r="I72" s="1">
+        <v>-3.2069999999999999</v>
+      </c>
+      <c r="J72" s="1">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="M72" t="s">
+        <v>79</v>
+      </c>
+      <c r="N72" t="s">
+        <v>35</v>
+      </c>
+      <c r="O72" t="s">
+        <v>185</v>
+      </c>
+      <c r="P72">
+        <v>-0.47997000000000001</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="R72">
+        <v>268</v>
+      </c>
+      <c r="S72" s="1">
+        <v>-1.2070000000000001</v>
+      </c>
+      <c r="T72" s="1">
+        <v>0.99519999999999997</v>
+      </c>
+    </row>
+    <row r="73" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C73" t="s">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>35</v>
+      </c>
+      <c r="E73" t="s">
+        <v>73</v>
+      </c>
+      <c r="F73">
+        <v>0.15193999999999999</v>
+      </c>
+      <c r="G73" s="61">
+        <v>0.36899999999999999</v>
+      </c>
+      <c r="H73">
+        <v>198</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0.41199999999999998</v>
+      </c>
+      <c r="J73" s="1">
+        <v>1</v>
+      </c>
+      <c r="M73" t="s">
+        <v>80</v>
+      </c>
+      <c r="N73" t="s">
+        <v>35</v>
+      </c>
+      <c r="O73" t="s">
+        <v>81</v>
+      </c>
+      <c r="P73">
+        <v>1.095</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>0.38800000000000001</v>
+      </c>
+      <c r="R73">
+        <v>268</v>
+      </c>
+      <c r="S73" s="1">
+        <v>2.8210000000000002</v>
+      </c>
+      <c r="T73" s="1">
+        <v>0.22040000000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C74" t="s">
+        <v>72</v>
+      </c>
+      <c r="D74" t="s">
+        <v>35</v>
+      </c>
+      <c r="E74" t="s">
+        <v>181</v>
+      </c>
+      <c r="F74">
+        <v>-5.7200000000000003E-3</v>
+      </c>
+      <c r="G74" s="61">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="H74">
+        <v>198</v>
+      </c>
+      <c r="I74" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="J74" s="1">
+        <v>1</v>
+      </c>
+      <c r="M74" t="s">
+        <v>80</v>
+      </c>
+      <c r="N74" t="s">
+        <v>35</v>
+      </c>
+      <c r="O74" t="s">
+        <v>181</v>
+      </c>
+      <c r="P74">
+        <v>-0.88704000000000005</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>0.41799999999999998</v>
+      </c>
+      <c r="R74">
+        <v>268</v>
+      </c>
+      <c r="S74" s="1">
+        <v>-2.12</v>
+      </c>
+      <c r="T74" s="1">
+        <v>0.68689999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C75" t="s">
+        <v>72</v>
+      </c>
+      <c r="D75" t="s">
+        <v>35</v>
+      </c>
+      <c r="E75" t="s">
+        <v>182</v>
+      </c>
+      <c r="F75">
+        <v>3.8299799999999999</v>
+      </c>
+      <c r="G75" s="61">
+        <v>0.53300000000000003</v>
+      </c>
+      <c r="H75">
+        <v>198</v>
+      </c>
+      <c r="I75" s="1">
+        <v>7.1829999999999998</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M75" t="s">
+        <v>80</v>
+      </c>
+      <c r="N75" t="s">
+        <v>35</v>
+      </c>
+      <c r="O75" t="s">
+        <v>182</v>
+      </c>
+      <c r="P75">
+        <v>2.6692200000000001</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>0.42799999999999999</v>
+      </c>
+      <c r="R75">
+        <v>268</v>
+      </c>
+      <c r="S75" s="1">
+        <v>6.2370000000000001</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="76" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C76" t="s">
+        <v>72</v>
+      </c>
+      <c r="D76" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" t="s">
+        <v>183</v>
+      </c>
+      <c r="F76">
+        <v>1.8460399999999999</v>
+      </c>
+      <c r="G76" s="61">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="H76">
+        <v>198</v>
+      </c>
+      <c r="I76" s="1">
+        <v>3.4510000000000001</v>
+      </c>
+      <c r="J76" s="1">
+        <v>4.2299999999999997E-2</v>
+      </c>
+      <c r="M76" t="s">
+        <v>80</v>
+      </c>
+      <c r="N76" t="s">
+        <v>35</v>
+      </c>
+      <c r="O76" t="s">
+        <v>183</v>
+      </c>
+      <c r="P76">
+        <v>0.91071000000000002</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>0.377</v>
+      </c>
+      <c r="R76">
+        <v>268</v>
+      </c>
+      <c r="S76" s="1">
+        <v>2.4169999999999998</v>
+      </c>
+      <c r="T76" s="1">
+        <v>0.47089999999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C77" t="s">
+        <v>72</v>
+      </c>
+      <c r="D77" t="s">
+        <v>35</v>
+      </c>
+      <c r="E77" t="s">
+        <v>184</v>
+      </c>
+      <c r="F77">
+        <v>0.96331999999999995</v>
+      </c>
+      <c r="G77" s="61">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="H77">
+        <v>198</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1.6240000000000001</v>
+      </c>
+      <c r="J77" s="1">
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="M77" t="s">
+        <v>80</v>
+      </c>
+      <c r="N77" t="s">
+        <v>35</v>
+      </c>
+      <c r="O77" t="s">
+        <v>184</v>
+      </c>
+      <c r="P77">
+        <v>-0.42887999999999998</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="R77">
+        <v>268</v>
+      </c>
+      <c r="S77" s="1">
+        <v>-0.93</v>
+      </c>
+      <c r="T77" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="78" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C78" t="s">
+        <v>72</v>
+      </c>
+      <c r="D78" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" t="s">
+        <v>185</v>
+      </c>
+      <c r="F78">
+        <v>1.2073499999999999</v>
+      </c>
+      <c r="G78" s="61">
+        <v>0.52600000000000002</v>
+      </c>
+      <c r="H78">
+        <v>198</v>
+      </c>
+      <c r="I78" s="1">
+        <v>2.294</v>
+      </c>
+      <c r="J78" s="1">
+        <v>0.56110000000000004</v>
+      </c>
+      <c r="M78" t="s">
+        <v>80</v>
+      </c>
+      <c r="N78" t="s">
+        <v>35</v>
+      </c>
+      <c r="O78" t="s">
+        <v>185</v>
+      </c>
+      <c r="P78">
+        <v>-9.8089999999999997E-2</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="R78">
+        <v>268</v>
+      </c>
+      <c r="S78" s="1">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="T78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C79" t="s">
+        <v>73</v>
+      </c>
+      <c r="D79" t="s">
+        <v>35</v>
+      </c>
+      <c r="E79" t="s">
+        <v>181</v>
+      </c>
+      <c r="F79">
+        <v>-0.15765999999999999</v>
+      </c>
+      <c r="G79" s="61">
+        <v>0.53100000000000003</v>
+      </c>
+      <c r="H79">
+        <v>198</v>
+      </c>
+      <c r="I79" s="1">
+        <v>-0.29699999999999999</v>
+      </c>
+      <c r="J79" s="1">
+        <v>1</v>
+      </c>
+      <c r="M79" t="s">
+        <v>81</v>
+      </c>
+      <c r="N79" t="s">
+        <v>35</v>
+      </c>
+      <c r="O79" t="s">
+        <v>181</v>
+      </c>
+      <c r="P79">
+        <v>-1.98203</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="R79">
+        <v>268</v>
+      </c>
+      <c r="S79" s="1">
+        <v>-4.8710000000000004</v>
+      </c>
+      <c r="T79" s="1">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="80" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="C80" t="s">
+        <v>73</v>
+      </c>
+      <c r="D80" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" t="s">
+        <v>182</v>
+      </c>
+      <c r="F80">
+        <v>3.6780400000000002</v>
+      </c>
+      <c r="G80" s="61">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="H80">
+        <v>198</v>
+      </c>
+      <c r="I80" s="1">
+        <v>7.1059999999999999</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M80" t="s">
+        <v>81</v>
+      </c>
+      <c r="N80" t="s">
+        <v>35</v>
+      </c>
+      <c r="O80" t="s">
+        <v>182</v>
+      </c>
+      <c r="P80">
+        <v>1.57422</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="R80">
+        <v>268</v>
+      </c>
+      <c r="S80" s="1">
+        <v>4.0069999999999997</v>
+      </c>
+      <c r="T80" s="1">
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C81" t="s">
+        <v>73</v>
+      </c>
+      <c r="D81" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" t="s">
+        <v>183</v>
+      </c>
+      <c r="F81">
+        <v>1.6940999999999999</v>
+      </c>
+      <c r="G81" s="61">
+        <v>0.52</v>
+      </c>
+      <c r="H81">
+        <v>198</v>
+      </c>
+      <c r="I81" s="1">
+        <v>3.2570000000000001</v>
+      </c>
+      <c r="J81" s="1">
+        <v>7.4800000000000005E-2</v>
+      </c>
+      <c r="M81" t="s">
+        <v>81</v>
+      </c>
+      <c r="N81" t="s">
+        <v>35</v>
+      </c>
+      <c r="O81" t="s">
+        <v>183</v>
+      </c>
+      <c r="P81">
+        <v>-0.18429000000000001</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="R81">
+        <v>268</v>
+      </c>
+      <c r="S81" s="1">
+        <v>-0.53700000000000003</v>
+      </c>
+      <c r="T81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C82" t="s">
+        <v>73</v>
+      </c>
+      <c r="D82" t="s">
+        <v>35</v>
+      </c>
+      <c r="E82" t="s">
+        <v>184</v>
+      </c>
+      <c r="F82">
+        <v>0.81137999999999999</v>
+      </c>
+      <c r="G82" s="61">
+        <v>0.57699999999999996</v>
+      </c>
+      <c r="H82">
+        <v>198</v>
+      </c>
+      <c r="I82" s="1">
+        <v>1.407</v>
+      </c>
+      <c r="J82" s="1">
+        <v>0.98019999999999996</v>
+      </c>
+      <c r="M82" t="s">
+        <v>81</v>
+      </c>
+      <c r="N82" t="s">
+        <v>35</v>
+      </c>
+      <c r="O82" t="s">
+        <v>184</v>
+      </c>
+      <c r="P82">
+        <v>-1.5238799999999999</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>0.433</v>
+      </c>
+      <c r="R82">
+        <v>268</v>
+      </c>
+      <c r="S82" s="1">
+        <v>-3.516</v>
+      </c>
+      <c r="T82" s="1">
+        <v>3.3300000000000003E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C83" t="s">
+        <v>73</v>
+      </c>
+      <c r="D83" t="s">
+        <v>35</v>
+      </c>
+      <c r="E83" t="s">
+        <v>185</v>
+      </c>
+      <c r="F83">
+        <v>1.05542</v>
+      </c>
+      <c r="G83" s="61">
+        <v>0.51</v>
+      </c>
+      <c r="H83">
+        <v>198</v>
+      </c>
+      <c r="I83" s="1">
+        <v>2.0670000000000002</v>
+      </c>
+      <c r="J83" s="1">
+        <v>0.72240000000000004</v>
+      </c>
+      <c r="M83" t="s">
+        <v>81</v>
+      </c>
+      <c r="N83" t="s">
+        <v>35</v>
+      </c>
+      <c r="O83" t="s">
+        <v>185</v>
+      </c>
+      <c r="P83">
+        <v>-1.19309</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="R83">
+        <v>268</v>
+      </c>
+      <c r="S83" s="1">
+        <v>-3.5089999999999999</v>
+      </c>
+      <c r="T83" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C84" t="s">
+        <v>181</v>
+      </c>
+      <c r="D84" t="s">
+        <v>35</v>
+      </c>
+      <c r="E84" t="s">
+        <v>182</v>
+      </c>
+      <c r="F84">
+        <v>3.83569</v>
+      </c>
+      <c r="G84" s="61">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="H84">
+        <v>198</v>
+      </c>
+      <c r="I84" s="1">
+        <v>8.06</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M84" t="s">
+        <v>181</v>
+      </c>
+      <c r="N84" t="s">
+        <v>35</v>
+      </c>
+      <c r="O84" t="s">
+        <v>182</v>
+      </c>
+      <c r="P84">
+        <v>3.55626</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>0.40300000000000002</v>
+      </c>
+      <c r="R84">
+        <v>268</v>
+      </c>
+      <c r="S84" s="1">
+        <v>8.8179999999999996</v>
+      </c>
+      <c r="T84" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>181</v>
+      </c>
+      <c r="D85" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" t="s">
+        <v>183</v>
+      </c>
+      <c r="F85">
+        <v>1.8517600000000001</v>
+      </c>
+      <c r="G85" s="61">
+        <v>0.48399999999999999</v>
+      </c>
+      <c r="H85">
+        <v>198</v>
+      </c>
+      <c r="I85" s="1">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="J85" s="1">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="M85" t="s">
+        <v>181</v>
+      </c>
+      <c r="N85" t="s">
+        <v>35</v>
+      </c>
+      <c r="O85" t="s">
+        <v>183</v>
+      </c>
+      <c r="P85">
+        <v>1.7977399999999999</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>0.35599999999999998</v>
+      </c>
+      <c r="R85">
+        <v>268</v>
+      </c>
+      <c r="S85" s="1">
+        <v>5.0430000000000001</v>
+      </c>
+      <c r="T85" s="1">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="86" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C86" t="s">
+        <v>181</v>
+      </c>
+      <c r="D86" t="s">
+        <v>35</v>
+      </c>
+      <c r="E86" t="s">
+        <v>184</v>
+      </c>
+      <c r="F86">
+        <v>0.96904000000000001</v>
+      </c>
+      <c r="G86" s="61">
+        <v>0.52</v>
+      </c>
+      <c r="H86">
+        <v>198</v>
+      </c>
+      <c r="I86" s="1">
+        <v>1.865</v>
+      </c>
+      <c r="J86" s="1">
+        <v>0.84260000000000002</v>
+      </c>
+      <c r="M86" t="s">
+        <v>181</v>
+      </c>
+      <c r="N86" t="s">
+        <v>35</v>
+      </c>
+      <c r="O86" t="s">
+        <v>184</v>
+      </c>
+      <c r="P86">
+        <v>0.45815</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="R86">
+        <v>268</v>
+      </c>
+      <c r="S86" s="1">
+        <v>1.032</v>
+      </c>
+      <c r="T86" s="1">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="87" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C87" t="s">
+        <v>181</v>
+      </c>
+      <c r="D87" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87" t="s">
+        <v>185</v>
+      </c>
+      <c r="F87">
+        <v>1.2130700000000001</v>
+      </c>
+      <c r="G87" s="61">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="H87">
+        <v>198</v>
+      </c>
+      <c r="I87" s="1">
+        <v>2.589</v>
+      </c>
+      <c r="J87" s="1">
+        <v>0.3543</v>
+      </c>
+      <c r="M87" t="s">
+        <v>181</v>
+      </c>
+      <c r="N87" t="s">
+        <v>35</v>
+      </c>
+      <c r="O87" t="s">
+        <v>185</v>
+      </c>
+      <c r="P87">
+        <v>0.78895000000000004</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="R87">
+        <v>268</v>
+      </c>
+      <c r="S87" s="1">
+        <v>2.2290000000000001</v>
+      </c>
+      <c r="T87" s="1">
+        <v>0.60840000000000005</v>
+      </c>
+    </row>
+    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>182</v>
+      </c>
+      <c r="D88" t="s">
+        <v>35</v>
+      </c>
+      <c r="E88" t="s">
+        <v>183</v>
+      </c>
+      <c r="F88">
+        <v>-1.98393</v>
+      </c>
+      <c r="G88" s="61">
+        <v>0.46600000000000003</v>
+      </c>
+      <c r="H88">
+        <v>198</v>
+      </c>
+      <c r="I88" s="1">
+        <v>-4.2569999999999997</v>
+      </c>
+      <c r="J88" s="1">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="M88" t="s">
+        <v>182</v>
+      </c>
+      <c r="N88" t="s">
+        <v>35</v>
+      </c>
+      <c r="O88" t="s">
+        <v>183</v>
+      </c>
+      <c r="P88">
+        <v>-1.7585200000000001</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="R88">
+        <v>268</v>
+      </c>
+      <c r="S88" s="1">
+        <v>-5.3559999999999999</v>
+      </c>
+      <c r="T88" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C89" t="s">
+        <v>182</v>
+      </c>
+      <c r="D89" t="s">
+        <v>35</v>
+      </c>
+      <c r="E89" t="s">
+        <v>184</v>
+      </c>
+      <c r="F89">
+        <v>-2.86666</v>
+      </c>
+      <c r="G89" s="61">
+        <v>0.502</v>
+      </c>
+      <c r="H89">
+        <v>198</v>
+      </c>
+      <c r="I89" s="1">
+        <v>-5.7089999999999996</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M89" t="s">
+        <v>182</v>
+      </c>
+      <c r="N89" t="s">
+        <v>35</v>
+      </c>
+      <c r="O89" t="s">
+        <v>184</v>
+      </c>
+      <c r="P89">
+        <v>-3.0981100000000001</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="R89">
+        <v>268</v>
+      </c>
+      <c r="S89" s="1">
+        <v>-7.3550000000000004</v>
+      </c>
+      <c r="T89" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="90" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C90" t="s">
+        <v>182</v>
+      </c>
+      <c r="D90" t="s">
+        <v>35</v>
+      </c>
+      <c r="E90" t="s">
+        <v>185</v>
+      </c>
+      <c r="F90">
+        <v>-2.62262</v>
+      </c>
+      <c r="G90" s="61">
+        <v>0.45</v>
+      </c>
+      <c r="H90">
+        <v>198</v>
+      </c>
+      <c r="I90" s="1">
+        <v>-5.8339999999999996</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M90" t="s">
+        <v>182</v>
+      </c>
+      <c r="N90" t="s">
+        <v>35</v>
+      </c>
+      <c r="O90" t="s">
+        <v>185</v>
+      </c>
+      <c r="P90">
+        <v>-2.7673100000000002</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>0.32700000000000001</v>
+      </c>
+      <c r="R90">
+        <v>268</v>
+      </c>
+      <c r="S90" s="1">
+        <v>-8.4659999999999993</v>
+      </c>
+      <c r="T90" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="91" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="D91" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="F91" s="63">
+        <v>-0.88271999999999995</v>
+      </c>
+      <c r="G91" s="62">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="H91" s="63">
+        <v>198</v>
+      </c>
+      <c r="I91" s="60">
+        <v>-1.728</v>
+      </c>
+      <c r="J91" s="60">
+        <v>0.90349999999999997</v>
+      </c>
+      <c r="M91" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="N91" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="O91" s="63" t="s">
+        <v>184</v>
+      </c>
+      <c r="P91" s="63">
+        <v>-1.3395900000000001</v>
+      </c>
+      <c r="Q91" s="60">
+        <v>0.378</v>
+      </c>
+      <c r="R91" s="63">
+        <v>268</v>
+      </c>
+      <c r="S91" s="60">
+        <v>-3.5419999999999998</v>
+      </c>
+      <c r="T91" s="60">
+        <v>3.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B92" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="D92" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="F92" s="63">
+        <v>-0.63868999999999998</v>
+      </c>
+      <c r="G92" s="62">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="H92" s="63">
+        <v>198</v>
+      </c>
+      <c r="I92" s="60">
+        <v>-1.393</v>
+      </c>
+      <c r="J92" s="60">
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="M92" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="N92" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="O92" s="63" t="s">
+        <v>185</v>
+      </c>
+      <c r="P92" s="63">
+        <v>-1.0087999999999999</v>
+      </c>
+      <c r="Q92" s="60">
+        <v>0.26900000000000002</v>
+      </c>
+      <c r="R92" s="63">
+        <v>268</v>
+      </c>
+      <c r="S92" s="60">
+        <v>-3.754</v>
+      </c>
+      <c r="T92" s="60">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="33"/>
+      <c r="C93" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="D93" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="F93" s="60">
+        <v>0.24404000000000001</v>
+      </c>
+      <c r="G93" s="62">
+        <v>0.495</v>
+      </c>
+      <c r="H93" s="60">
+        <v>198</v>
+      </c>
+      <c r="I93" s="60">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="J93" s="60">
+        <v>1</v>
+      </c>
+      <c r="M93" s="60" t="s">
+        <v>184</v>
+      </c>
+      <c r="N93" s="60" t="s">
+        <v>35</v>
+      </c>
+      <c r="O93" s="60" t="s">
+        <v>185</v>
+      </c>
+      <c r="P93" s="60">
+        <v>0.33079999999999998</v>
+      </c>
+      <c r="Q93" s="60">
+        <v>0.377</v>
+      </c>
+      <c r="R93" s="60">
+        <v>268</v>
+      </c>
+      <c r="S93" s="60">
+        <v>0.878</v>
+      </c>
+      <c r="T93" s="60">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="B92:B93"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/Datatables_ms.xlsx
+++ b/Data/Datatables_ms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristakraskura/Github_repositories/KK_etal_gobies_tempVar_tempTol/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BB509C-B146-544C-B8F7-AF71784E3448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF37ADEB-3078-7649-AD9C-AD442611C2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24880" yWindow="500" windowWidth="22780" windowHeight="13900" activeTab="3" xr2:uid="{C7FD16A5-6D6F-ED42-9CEB-C21D96802EB4}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="17500" activeTab="2" xr2:uid="{C7FD16A5-6D6F-ED42-9CEB-C21D96802EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1 C" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="192">
   <si>
     <t>SITE1</t>
   </si>
@@ -200,15 +200,6 @@
     <t>model.CTmax.3.b</t>
   </si>
   <si>
-    <t>&gt; car::Anova(model.CTmax.3.b, type = "II") #CTmax</t>
-  </si>
-  <si>
-    <t>&gt; car::Anova(model.CTmin.7.b, type = "II") #CTmax</t>
-  </si>
-  <si>
-    <t>Anova Table (Type II tests)</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -230,9 +221,6 @@
     <t>car::Anova(mod.CTmin.b, type = "II")</t>
   </si>
   <si>
-    <t>&gt; car::Anova(mod.CTmax.b, type = "II")</t>
-  </si>
-  <si>
     <t>CT min</t>
   </si>
   <si>
@@ -606,6 +594,27 @@
   </si>
   <si>
     <t>SAME DAY</t>
+  </si>
+  <si>
+    <t>DATA</t>
+  </si>
+  <si>
+    <t>&lt;&lt;&lt; SUPPLEMENTAL TABLE 1</t>
+  </si>
+  <si>
+    <t>car::Anova(model.CTmax.3.b, type = "II") #CTmax</t>
+  </si>
+  <si>
+    <t>car::Anova(model.CTmin.1.b, type = "II") #CTmax</t>
+  </si>
+  <si>
+    <t>car::Anova(mod.var.CTmin.b, type = "II")</t>
+  </si>
+  <si>
+    <t>car::Anova(mod.var.CTmax.b, type = "II")</t>
+  </si>
+  <si>
+    <t>car::Anova(mod.CTmax.b, type = "II")</t>
   </si>
 </sst>
 </file>
@@ -613,9 +622,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -650,6 +659,23 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -820,7 +846,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -843,6 +869,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -861,18 +918,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -882,44 +927,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1295,25 +1313,25 @@
         <f>CONCATENATE(C3, " ",D3," ", E3)</f>
         <v>11.1 ± 4.7</v>
       </c>
-      <c r="I3" s="12" t="s">
+      <c r="I3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="45" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="45" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="14" t="s">
+      <c r="N3" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="47" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1340,17 +1358,17 @@
         <f t="shared" ref="G4:G7" si="0">CONCATENATE(C4, " ",D4," ", E4)</f>
         <v>15.2 ± 1.54</v>
       </c>
-      <c r="I4" s="13"/>
-      <c r="J4" s="15"/>
+      <c r="I4" s="44"/>
+      <c r="J4" s="46"/>
       <c r="K4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="15"/>
+      <c r="L4" s="46"/>
       <c r="M4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="17"/>
+      <c r="N4" s="46"/>
+      <c r="O4" s="48"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -1956,10 +1974,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6B25FA-E12C-9342-968B-84F8C5E44A66}">
-  <dimension ref="B1:N48"/>
+  <dimension ref="B1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I5" sqref="I5:L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1968,753 +1986,759 @@
     <col min="9" max="9" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
-      <c r="H1" s="32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="31"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+    <row r="1" spans="2:14" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="20"/>
+      <c r="H3" s="51" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="50"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28" t="s">
+      <c r="E4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="L2" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="N2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C3" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="22">
-        <v>5</v>
-      </c>
-      <c r="E3" s="22">
-        <v>853.59640000000002</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J3" s="22">
-        <v>5</v>
-      </c>
-      <c r="K3" s="22">
-        <v>684.14800000000002</v>
-      </c>
-      <c r="L3" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C4" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D4" s="22">
-        <v>5</v>
-      </c>
-      <c r="E4" s="22">
-        <v>854.67169999999999</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1.07531</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="J4" s="22">
-        <v>5</v>
-      </c>
-      <c r="K4" s="22">
-        <v>685.57299999999998</v>
-      </c>
-      <c r="L4" s="5">
-        <v>1.4249400000000001</v>
+      <c r="K4" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="N4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C5" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="D5" s="22">
-        <v>6</v>
-      </c>
-      <c r="E5" s="22">
-        <v>856.58479999999997</v>
+        <v>91</v>
+      </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
+      <c r="E5">
+        <v>853.59640000000002</v>
       </c>
       <c r="F5" s="5">
-        <v>2.9884300000000001</v>
+        <v>0</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="J5" s="22">
-        <v>4</v>
-      </c>
-      <c r="K5" s="22">
-        <v>686.48299999999995</v>
+        <v>52</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>684.14800000000002</v>
       </c>
       <c r="L5" s="5">
-        <v>2.33494</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C6" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D6" s="22">
-        <v>4</v>
-      </c>
-      <c r="E6" s="22">
-        <v>857.90020000000004</v>
+        <v>92</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>854.67169999999999</v>
       </c>
       <c r="F6" s="5">
-        <v>4.3038499999999997</v>
+        <v>1.07531</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="J6" s="22">
-        <v>6</v>
-      </c>
-      <c r="K6" s="22">
-        <v>687.28589999999997</v>
+        <v>153</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>685.57299999999998</v>
       </c>
       <c r="L6" s="5">
-        <v>3.1378900000000001</v>
+        <v>1.4249400000000001</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C7" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="22">
+        <v>93</v>
+      </c>
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>856.58479999999997</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2.9884300000000001</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="J7">
         <v>4</v>
       </c>
-      <c r="E7" s="22">
-        <v>859.61059999999998</v>
-      </c>
-      <c r="F7" s="5">
-        <v>6.0141999999999998</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="J7" s="22">
-        <v>4</v>
-      </c>
-      <c r="K7" s="22">
-        <v>687.94320000000005</v>
+      <c r="K7">
+        <v>686.48299999999995</v>
       </c>
       <c r="L7" s="5">
-        <v>3.79514</v>
+        <v>2.33494</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C8" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="D8" s="22">
-        <v>5</v>
-      </c>
-      <c r="E8" s="22">
-        <v>860.47469999999998</v>
+        <v>94</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>857.90020000000004</v>
       </c>
       <c r="F8" s="5">
-        <v>6.8782899999999998</v>
+        <v>4.3038499999999997</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="J8" s="22">
+        <v>155</v>
+      </c>
+      <c r="J8">
         <v>6</v>
       </c>
-      <c r="K8" s="22">
-        <v>688.64440000000002</v>
+      <c r="K8">
+        <v>687.28589999999997</v>
       </c>
       <c r="L8" s="5">
-        <v>4.4963800000000003</v>
+        <v>3.1378900000000001</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C9" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D9" s="22">
-        <v>5</v>
-      </c>
-      <c r="E9" s="22">
-        <v>861.18050000000005</v>
+        <v>95</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>859.61059999999998</v>
       </c>
       <c r="F9" s="5">
-        <v>7.5841399999999997</v>
+        <v>6.0141999999999998</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="J9" s="22">
-        <v>5</v>
-      </c>
-      <c r="K9" s="22">
-        <v>690.04089999999997</v>
+        <v>156</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9">
+        <v>687.94320000000005</v>
       </c>
       <c r="L9" s="5">
-        <v>5.8928500000000001</v>
+        <v>3.79514</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C10" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D10" s="22">
-        <v>7</v>
-      </c>
-      <c r="E10" s="22">
-        <v>861.48149999999998</v>
+        <v>96</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>860.47469999999998</v>
       </c>
       <c r="F10" s="5">
-        <v>7.8851500000000003</v>
+        <v>6.8782899999999998</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="J10" s="22">
-        <v>5</v>
-      </c>
-      <c r="K10" s="22">
-        <v>692.72619999999995</v>
+        <v>157</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>688.64440000000002</v>
       </c>
       <c r="L10" s="5">
-        <v>8.5781500000000008</v>
+        <v>4.4963800000000003</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C11" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11" s="22">
+        <v>97</v>
+      </c>
+      <c r="D11">
         <v>5</v>
       </c>
-      <c r="E11" s="22">
-        <v>864.21889999999996</v>
+      <c r="E11">
+        <v>861.18050000000005</v>
       </c>
       <c r="F11" s="5">
-        <v>10.622540000000001</v>
+        <v>7.5841399999999997</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="J11" s="22">
+        <v>158</v>
+      </c>
+      <c r="J11">
         <v>5</v>
       </c>
-      <c r="K11" s="22">
-        <v>693.19100000000003</v>
+      <c r="K11">
+        <v>690.04089999999997</v>
       </c>
       <c r="L11" s="5">
-        <v>9.0429700000000004</v>
+        <v>5.8928500000000001</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C12" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D12" s="22">
-        <v>6</v>
-      </c>
-      <c r="E12" s="22">
-        <v>864.51239999999996</v>
+        <v>98</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12">
+        <v>861.48149999999998</v>
       </c>
       <c r="F12" s="5">
-        <v>10.915990000000001</v>
+        <v>7.8851500000000003</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="J12" s="22">
-        <v>6</v>
-      </c>
-      <c r="K12" s="22">
-        <v>694.86369999999999</v>
+        <v>159</v>
+      </c>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <v>692.72619999999995</v>
       </c>
       <c r="L12" s="5">
-        <v>10.715619999999999</v>
+        <v>8.5781500000000008</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C13" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="D13" s="22">
+        <v>99</v>
+      </c>
+      <c r="D13">
         <v>5</v>
       </c>
-      <c r="E13" s="22">
-        <v>865.1635</v>
+      <c r="E13">
+        <v>864.21889999999996</v>
       </c>
       <c r="F13" s="5">
-        <v>11.56715</v>
+        <v>10.622540000000001</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="J13" s="22">
-        <v>4</v>
-      </c>
-      <c r="K13" s="22">
-        <v>694.97029999999995</v>
+        <v>160</v>
+      </c>
+      <c r="J13">
+        <v>5</v>
+      </c>
+      <c r="K13">
+        <v>693.19100000000003</v>
       </c>
       <c r="L13" s="5">
-        <v>10.82226</v>
+        <v>9.0429700000000004</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C14" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="D14" s="22">
+        <v>100</v>
+      </c>
+      <c r="D14">
         <v>6</v>
       </c>
-      <c r="E14" s="22">
-        <v>865.27369999999996</v>
+      <c r="E14">
+        <v>864.51239999999996</v>
       </c>
       <c r="F14" s="5">
-        <v>11.677350000000001</v>
+        <v>10.915990000000001</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>167</v>
-      </c>
-      <c r="J14" s="22">
+        <v>161</v>
+      </c>
+      <c r="J14">
         <v>6</v>
       </c>
-      <c r="K14" s="22">
-        <v>695.18230000000005</v>
+      <c r="K14">
+        <v>694.86369999999999</v>
       </c>
       <c r="L14" s="5">
-        <v>11.03426</v>
+        <v>10.715619999999999</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C15" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="22">
-        <v>6</v>
-      </c>
-      <c r="E15" s="22">
-        <v>865.94050000000004</v>
+        <v>101</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>865.1635</v>
       </c>
       <c r="F15" s="5">
-        <v>12.34408</v>
+        <v>11.56715</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="J15" s="22">
-        <v>5</v>
-      </c>
-      <c r="K15" s="22">
-        <v>695.34550000000002</v>
+        <v>162</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>694.97029999999995</v>
       </c>
       <c r="L15" s="5">
-        <v>11.197509999999999</v>
+        <v>10.82226</v>
       </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C16" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D16" s="22">
-        <v>5</v>
-      </c>
-      <c r="E16" s="22">
-        <v>866.17960000000005</v>
+        <v>102</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>865.27369999999996</v>
       </c>
       <c r="F16" s="5">
-        <v>12.58323</v>
+        <v>11.677350000000001</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="J16" s="22">
-        <v>4</v>
-      </c>
-      <c r="K16" s="22">
-        <v>697.54819999999995</v>
+        <v>163</v>
+      </c>
+      <c r="J16">
+        <v>6</v>
+      </c>
+      <c r="K16">
+        <v>695.18230000000005</v>
       </c>
       <c r="L16" s="5">
-        <v>13.40015</v>
+        <v>11.03426</v>
       </c>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="D17" s="22">
-        <v>4</v>
-      </c>
-      <c r="E17" s="22">
-        <v>868.66800000000001</v>
+        <v>103</v>
+      </c>
+      <c r="D17">
+        <v>6</v>
+      </c>
+      <c r="E17">
+        <v>865.94050000000004</v>
       </c>
       <c r="F17" s="5">
-        <v>15.071619999999999</v>
+        <v>12.34408</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="J17" s="22">
+        <v>164</v>
+      </c>
+      <c r="J17">
         <v>5</v>
       </c>
-      <c r="K17" s="22">
-        <v>698.75720000000001</v>
+      <c r="K17">
+        <v>695.34550000000002</v>
       </c>
       <c r="L17" s="5">
-        <v>14.60913</v>
+        <v>11.197509999999999</v>
       </c>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="D18" s="22">
+        <v>104</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>866.17960000000005</v>
+      </c>
+      <c r="F18" s="5">
+        <v>12.58323</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J18">
         <v>4</v>
       </c>
-      <c r="E18" s="22">
-        <v>869.9538</v>
-      </c>
-      <c r="F18" s="5">
-        <v>16.35744</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="J18" s="22">
-        <v>5</v>
-      </c>
-      <c r="K18" s="22">
-        <v>751.76959999999997</v>
+      <c r="K18">
+        <v>697.54819999999995</v>
       </c>
       <c r="L18" s="5">
-        <v>67.621530000000007</v>
+        <v>13.40015</v>
       </c>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="D19" s="22">
+        <v>105</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19">
+        <v>868.66800000000001</v>
+      </c>
+      <c r="F19" s="5">
+        <v>15.071619999999999</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19">
         <v>5</v>
       </c>
-      <c r="E19" s="22">
-        <v>889.40049999999997</v>
-      </c>
-      <c r="F19" s="5">
-        <v>35.804070000000003</v>
-      </c>
-      <c r="I19" s="6" t="s">
-        <v>172</v>
-      </c>
-      <c r="J19" s="22">
-        <v>3</v>
-      </c>
-      <c r="K19" s="22">
-        <v>752.29369999999994</v>
+      <c r="K19">
+        <v>698.75720000000001</v>
       </c>
       <c r="L19" s="5">
-        <v>68.145650000000003</v>
+        <v>14.60913</v>
       </c>
     </row>
     <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="D20" s="22">
+        <v>106</v>
+      </c>
+      <c r="D20">
         <v>4</v>
       </c>
-      <c r="E20" s="22">
-        <v>893.20600000000002</v>
+      <c r="E20">
+        <v>869.9538</v>
       </c>
       <c r="F20" s="5">
-        <v>39.6096</v>
+        <v>16.35744</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="J20" s="22">
-        <v>4</v>
-      </c>
-      <c r="K20" s="22">
-        <v>753.529</v>
+        <v>167</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>751.76959999999997</v>
       </c>
       <c r="L20" s="5">
-        <v>69.380939999999995</v>
+        <v>67.621530000000007</v>
       </c>
     </row>
     <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D21" s="22">
+        <v>107</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>889.40049999999997</v>
+      </c>
+      <c r="F21" s="5">
+        <v>35.804070000000003</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21">
         <v>3</v>
       </c>
-      <c r="E21" s="22">
+      <c r="K21">
+        <v>752.29369999999994</v>
+      </c>
+      <c r="L21" s="5">
+        <v>68.145650000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C22" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>893.20600000000002</v>
+      </c>
+      <c r="F22" s="5">
+        <v>39.6096</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>169</v>
+      </c>
+      <c r="J22">
+        <v>4</v>
+      </c>
+      <c r="K22">
+        <v>753.529</v>
+      </c>
+      <c r="L22" s="5">
+        <v>69.380939999999995</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="C23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
         <v>900.2971</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F23" s="5">
         <v>46.700749999999999</v>
       </c>
-      <c r="I21" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="J21" s="22">
+      <c r="I23" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="J23">
         <v>5</v>
       </c>
-      <c r="K21" s="22">
+      <c r="K23">
         <v>755.31709999999998</v>
       </c>
-      <c r="L21" s="5">
+      <c r="L23" s="5">
         <v>71.169049999999999</v>
       </c>
     </row>
-    <row r="22" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="22">
+    <row r="24" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24">
         <v>5</v>
       </c>
-      <c r="E22" s="22">
+      <c r="E24">
         <v>900.31380000000001</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F24" s="5">
         <v>46.717379999999999</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="J22" s="8">
+      <c r="I24" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="J24" s="8">
         <v>4</v>
       </c>
-      <c r="K22" s="8">
+      <c r="K24" s="8">
         <v>757.08540000000005</v>
       </c>
-      <c r="L22" s="9">
+      <c r="L24" s="9">
         <v>72.937359999999998</v>
       </c>
     </row>
-    <row r="23" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="D23" s="8">
+    <row r="25" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D25" s="8">
         <v>4</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E25" s="8">
         <v>905.66790000000003</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F25" s="9">
         <v>52.071570000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C25" t="s">
-        <v>116</v>
-      </c>
-      <c r="I25" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C26" t="s">
-        <v>117</v>
-      </c>
-      <c r="I26" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="I27" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I28" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="I29" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>121</v>
+        <v>115</v>
+      </c>
+      <c r="I30" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I31" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>123</v>
-      </c>
-      <c r="I32" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="I33" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="34" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>125</v>
+        <v>119</v>
+      </c>
+      <c r="I34" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="35" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="I35" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>127</v>
-      </c>
-      <c r="I36" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="I37" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
       <c r="I38" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C39" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="I39" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="40" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C40" t="s">
-        <v>130</v>
-      </c>
       <c r="I40" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="41" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>131</v>
+        <v>125</v>
+      </c>
+      <c r="I41" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="42" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I42" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="I43" t="s">
-        <v>152</v>
+      <c r="C43" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>133</v>
+        <v>128</v>
+      </c>
+      <c r="I44" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="45" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>134</v>
-      </c>
       <c r="I45" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>135</v>
-      </c>
-      <c r="I46" t="s">
-        <v>154</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="3:9" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I47" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C48" t="s">
+        <v>131</v>
+      </c>
       <c r="I48" t="s">
-        <v>156</v>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="C49" t="s">
+        <v>132</v>
+      </c>
+      <c r="I49" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
+      <c r="I50" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="H3:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2724,8 +2748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255BB1AB-E722-C344-8E9D-48658E19A72C}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D44" activeCellId="3" sqref="B37 D37 B44 D44"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C44" sqref="C39:C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2739,135 +2763,135 @@
     <col min="23" max="23" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="B1" s="34" t="s">
+    <row r="1" spans="1:5" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="51" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="38" customFormat="1" ht="26" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="56" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="38" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
-      <c r="B3" s="37" t="s">
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="53"/>
+      <c r="B3" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="6"/>
-      <c r="B5" s="25" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="55"/>
+      <c r="B5" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="55" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="55">
         <v>188.87270000000001</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="55">
         <v>1</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="55">
         <v>2.2311999999999999</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="55">
         <v>1</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="55">
         <v>0.13519999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:5" s="38" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="37" t="s">
+    <row r="9" spans="1:5" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="56" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="38" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31"/>
-      <c r="B10" s="37" t="s">
+    <row r="10" spans="1:5" s="1" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="50"/>
+      <c r="B10" s="24" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="25" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="55"/>
+      <c r="B12" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="55" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="22">
+      <c r="B13" s="55">
         <v>639.07910000000004</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="55">
         <v>1</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="22" t="s">
+      <c r="E13" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B14" s="8">
@@ -2881,189 +2905,185 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" s="57" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="56" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="37" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="38" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="31"/>
-      <c r="B18" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" s="39" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="50"/>
+      <c r="B18" s="56" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="47"/>
-      <c r="B20" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="25" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="24"/>
+      <c r="B20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21" s="1">
         <v>4.08</v>
       </c>
-      <c r="C21" s="38">
+      <c r="C21" s="1">
         <v>1</v>
       </c>
-      <c r="D21" s="48">
+      <c r="D21" s="30">
         <v>3.84</v>
       </c>
-      <c r="E21" s="38">
+      <c r="E21" s="1">
         <v>5.108E-2</v>
       </c>
-      <c r="F21" s="25" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="50" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="51">
+      <c r="F21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="B22" s="33">
         <v>778.12</v>
       </c>
-      <c r="C22" s="51">
+      <c r="C22" s="33">
         <v>13</v>
       </c>
-      <c r="D22" s="51">
+      <c r="D22" s="33">
         <v>56.267000000000003</v>
       </c>
-      <c r="E22" s="52">
+      <c r="E22" s="34">
         <v>2E-16</v>
       </c>
-      <c r="F22" s="53" t="s">
+      <c r="F22" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="G22" s="53" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="25">
+        <v>56</v>
+      </c>
+      <c r="B23">
         <v>285.08999999999997</v>
       </c>
-      <c r="C23" s="25">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="25" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="37" t="s">
+      <c r="C23">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="53"/>
+      <c r="B25" s="57" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="58" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
         <v>53</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="38"/>
-      <c r="F24" s="38"/>
-    </row>
-    <row r="25" spans="1:7" s="38" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="33"/>
-      <c r="B25" s="37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="38" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="6"/>
-      <c r="B27" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28">
         <v>0.01</v>
       </c>
-      <c r="C28" s="22">
+      <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="22">
+      <c r="D28">
         <v>6.6E-3</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E28">
         <v>0.93520000000000003</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="53" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="54" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="51">
+    <row r="29" spans="1:7" s="35" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="33">
         <v>514.04999999999995</v>
       </c>
-      <c r="C29" s="51">
+      <c r="C29" s="33">
         <v>13</v>
       </c>
-      <c r="D29" s="52">
+      <c r="D29" s="34">
         <v>27.022300000000001</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="35" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="53" t="s">
+      <c r="F29" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="G29" s="53" t="s">
-        <v>86</v>
+      <c r="G29" s="35" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B30" s="8">
         <v>289.74</v>
@@ -3072,120 +3092,124 @@
         <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="26" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:7" s="58" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="37"/>
-    </row>
-    <row r="34" spans="1:5" s="38" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="31"/>
-      <c r="B34" s="37"/>
-    </row>
-    <row r="35" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" s="17" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" s="40" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33" s="24"/>
+    </row>
+    <row r="34" spans="1:5" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+      <c r="B34" s="57" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
-      <c r="B36" s="25" t="s">
+      <c r="B36" t="s">
         <v>40</v>
       </c>
-      <c r="C36" s="25" t="s">
+      <c r="C36" t="s">
         <v>41</v>
       </c>
-      <c r="D36" s="39" t="s">
+      <c r="D36" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B37" s="25">
+        <v>78</v>
+      </c>
+      <c r="B37">
         <v>0.31469999999999998</v>
       </c>
-      <c r="C37" s="25">
+      <c r="C37">
         <v>1</v>
       </c>
-      <c r="D37" s="25">
+      <c r="D37">
         <v>0.57483899999999999</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38">
         <v>9.1181999999999999</v>
       </c>
-      <c r="C38" s="25">
+      <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38" s="25">
+      <c r="D38">
         <v>2.5309999999999998E-3</v>
       </c>
-      <c r="E38" s="25" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
     </row>
-    <row r="40" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="37"/>
-    </row>
-    <row r="41" spans="1:5" s="38" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="33"/>
-      <c r="B41" s="37"/>
-    </row>
-    <row r="42" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B40" s="24"/>
+    </row>
+    <row r="41" spans="1:5" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="53"/>
+      <c r="B41" s="56" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
-      <c r="B43" s="22" t="s">
+      <c r="B43" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="22" t="s">
+      <c r="D43" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="B44" s="22">
+        <v>78</v>
+      </c>
+      <c r="B44">
         <v>5.9200000000000003E-2</v>
       </c>
-      <c r="C44" s="22">
+      <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D44" s="25">
         <v>0.80769999999999997</v>
       </c>
     </row>
@@ -3203,162 +3227,164 @@
         <v>0.67410000000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:5" s="24" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:5" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B48" s="37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" s="38" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="37" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:5" s="22" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="50"/>
+      <c r="B49" s="24"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B50" s="25" t="s">
+      <c r="B50" t="s">
         <v>39</v>
       </c>
-      <c r="E50" s="40"/>
-    </row>
-    <row r="51" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="25"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
-      <c r="B51" s="25" t="s">
+      <c r="B51" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="25" t="s">
+      <c r="C51" t="s">
         <v>41</v>
       </c>
-      <c r="D51" s="25" t="s">
+      <c r="D51" t="s">
         <v>42</v>
       </c>
-      <c r="E51" s="40"/>
-    </row>
-    <row r="52" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E51" s="25"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B52" s="25">
+      <c r="B52">
         <v>25.178599999999999</v>
       </c>
-      <c r="C52" s="25">
+      <c r="C52">
         <v>1</v>
       </c>
-      <c r="D52" s="39">
+      <c r="D52" s="16">
         <v>5.2259999999999998E-7</v>
       </c>
-      <c r="E52" s="43" t="s">
+      <c r="E52" s="27" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B53" s="25">
+      <c r="B53">
         <v>5.1265000000000001</v>
       </c>
-      <c r="C53" s="25">
+      <c r="C53">
         <v>1</v>
       </c>
-      <c r="D53" s="25">
+      <c r="D53">
         <v>2.3560000000000001E-2</v>
       </c>
-      <c r="E53" s="40" t="s">
+      <c r="E53" s="25" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="25" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6"/>
-      <c r="E54" s="40"/>
-    </row>
-    <row r="55" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E55" s="41"/>
-    </row>
-    <row r="56" spans="1:5" s="38" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="33"/>
-      <c r="B56" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="E56" s="41"/>
-    </row>
-    <row r="57" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="25"/>
+    </row>
+    <row r="55" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55" s="56" t="s">
+        <v>187</v>
+      </c>
+      <c r="E55" s="26"/>
+    </row>
+    <row r="56" spans="1:6" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="53"/>
+      <c r="B56" s="24"/>
+      <c r="E56" s="26"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B57" t="s">
         <v>39</v>
       </c>
-      <c r="E57" s="40"/>
-    </row>
-    <row r="58" spans="1:5" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E57" s="25"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="6"/>
-      <c r="B58" s="25" t="s">
+      <c r="B58" t="s">
         <v>40</v>
       </c>
-      <c r="C58" s="25" t="s">
+      <c r="C58" t="s">
         <v>41</v>
       </c>
-      <c r="D58" s="25" t="s">
+      <c r="D58" t="s">
         <v>42</v>
       </c>
-      <c r="E58" s="40"/>
-    </row>
-    <row r="59" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E58" s="25"/>
+      <c r="F58" s="54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B59" s="22">
+      <c r="B59">
         <v>21.923400000000001</v>
       </c>
-      <c r="C59" s="22">
+      <c r="C59">
         <v>1</v>
       </c>
-      <c r="D59" s="23">
+      <c r="D59" s="16">
         <v>2.8380000000000002E-6</v>
       </c>
-      <c r="E59" s="44" t="s">
+      <c r="E59" s="27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="22">
+      <c r="B60">
         <v>0.1134</v>
       </c>
-      <c r="C60" s="22">
+      <c r="C60">
         <v>1</v>
       </c>
-      <c r="D60" s="22">
+      <c r="D60">
         <v>0.73629999999999995</v>
       </c>
-      <c r="E60" s="42"/>
-    </row>
-    <row r="61" spans="1:5" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="E60" s="25"/>
+    </row>
+    <row r="61" spans="1:6" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7"/>
-      <c r="E61" s="46"/>
+      <c r="E61" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3379,59 +3405,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98569322-74B1-BD4E-B2E9-7D0205056BE0}">
   <dimension ref="A1:T93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H29" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="10.83203125" style="61"/>
     <col min="9" max="10" width="10.83203125" style="1"/>
     <col min="17" max="17" width="10.83203125" style="1"/>
     <col min="19" max="20" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="32" t="s">
-        <v>65</v>
+      <c r="B1" s="51" t="s">
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F1" t="s">
-        <v>179</v>
-      </c>
-      <c r="L1" s="30" t="s">
-        <v>64</v>
+        <v>175</v>
+      </c>
+      <c r="L1" s="49" t="s">
+        <v>60</v>
       </c>
       <c r="M1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="N1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="O1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="P1" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="33"/>
+      <c r="B2" s="53"/>
       <c r="C2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" t="s">
         <v>31</v>
       </c>
       <c r="H2" t="s">
@@ -3443,7 +3468,7 @@
       <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="31"/>
+      <c r="L2" s="50"/>
       <c r="M2" t="s">
         <v>29</v>
       </c>
@@ -3465,18 +3490,18 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>-3.4842599999999999</v>
       </c>
-      <c r="G3" s="61">
+      <c r="G3">
         <v>0.442</v>
       </c>
       <c r="H3">
@@ -3489,13 +3514,13 @@
         <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N3" t="s">
         <v>35</v>
       </c>
       <c r="O3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="P3">
         <v>-5.7443200000000001</v>
@@ -3515,18 +3540,18 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4">
         <v>-4.10684</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4">
         <v>0.48099999999999998</v>
       </c>
       <c r="H4">
@@ -3539,13 +3564,13 @@
         <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N4" t="s">
         <v>35</v>
       </c>
       <c r="O4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P4">
         <v>-2.6084399999999999</v>
@@ -3565,18 +3590,18 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F5">
         <v>-4.3776599999999997</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5">
         <v>0.48199999999999998</v>
       </c>
       <c r="H5">
@@ -3589,13 +3614,13 @@
         <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N5" t="s">
         <v>35</v>
       </c>
       <c r="O5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P5">
         <v>-4.8287399999999998</v>
@@ -3615,18 +3640,18 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D6" t="s">
         <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <v>-2.5275300000000001</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G6">
         <v>0.47</v>
       </c>
       <c r="H6">
@@ -3639,13 +3664,13 @@
         <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N6" t="s">
         <v>35</v>
       </c>
       <c r="O6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P6">
         <v>-2.9150399999999999</v>
@@ -3665,18 +3690,18 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F7">
         <v>-5.7222099999999996</v>
       </c>
-      <c r="G7" s="61">
+      <c r="G7">
         <v>0.438</v>
       </c>
       <c r="H7">
@@ -3689,13 +3714,13 @@
         <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N7" t="s">
         <v>35</v>
       </c>
       <c r="O7" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P7">
         <v>-6.1876199999999999</v>
@@ -3715,18 +3740,18 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>-2.00095</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8">
         <v>0.51400000000000001</v>
       </c>
       <c r="H8">
@@ -3739,13 +3764,13 @@
         <v>9.9000000000000008E-3</v>
       </c>
       <c r="M8" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N8" t="s">
         <v>35</v>
       </c>
       <c r="O8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P8">
         <v>-3.6246999999999998</v>
@@ -3765,18 +3790,18 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
       </c>
       <c r="E9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F9">
         <v>-4.9565000000000001</v>
       </c>
-      <c r="G9" s="61">
+      <c r="G9">
         <v>0.49399999999999999</v>
       </c>
       <c r="H9">
@@ -3789,13 +3814,13 @@
         <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N9" t="s">
         <v>35</v>
       </c>
       <c r="O9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P9">
         <v>-4.0065799999999996</v>
@@ -3815,18 +3840,18 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
       </c>
       <c r="E10" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F10">
         <v>-4.8045600000000004</v>
       </c>
-      <c r="G10" s="61">
+      <c r="G10">
         <v>0.48199999999999998</v>
       </c>
       <c r="H10">
@@ -3839,13 +3864,13 @@
         <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
       </c>
       <c r="O10" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P10">
         <v>-2.9115799999999998</v>
@@ -3865,18 +3890,18 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D11" t="s">
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F11">
         <v>-4.9622200000000003</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11">
         <v>0.47099999999999997</v>
       </c>
       <c r="H11">
@@ -3889,13 +3914,13 @@
         <v>36</v>
       </c>
       <c r="M11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N11" t="s">
         <v>35</v>
       </c>
       <c r="O11" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P11">
         <v>-4.8936099999999998</v>
@@ -3915,18 +3940,18 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F12">
         <v>-1.12653</v>
       </c>
-      <c r="G12" s="61">
+      <c r="G12">
         <v>0.45300000000000001</v>
       </c>
       <c r="H12">
@@ -3939,13 +3964,13 @@
         <v>0.42080000000000001</v>
       </c>
       <c r="M12" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N12" t="s">
         <v>35</v>
       </c>
       <c r="O12" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P12">
         <v>-1.3373600000000001</v>
@@ -3965,18 +3990,18 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F13">
         <v>-3.1104599999999998</v>
       </c>
-      <c r="G13" s="61">
+      <c r="G13">
         <v>0.46</v>
       </c>
       <c r="H13">
@@ -3989,13 +4014,13 @@
         <v>36</v>
       </c>
       <c r="M13" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N13" t="s">
         <v>35</v>
       </c>
       <c r="O13" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P13">
         <v>-3.0958700000000001</v>
@@ -4015,18 +4040,18 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
+        <v>176</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" t="s">
         <v>180</v>
-      </c>
-      <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>184</v>
       </c>
       <c r="F14">
         <v>-3.9931800000000002</v>
       </c>
-      <c r="G14" s="61">
+      <c r="G14">
         <v>0.502</v>
       </c>
       <c r="H14">
@@ -4039,13 +4064,13 @@
         <v>36</v>
       </c>
       <c r="M14" t="s">
+        <v>176</v>
+      </c>
+      <c r="N14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" t="s">
         <v>180</v>
-      </c>
-      <c r="N14" t="s">
-        <v>35</v>
-      </c>
-      <c r="O14" t="s">
-        <v>184</v>
       </c>
       <c r="P14">
         <v>-4.43546</v>
@@ -4065,18 +4090,18 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F15">
         <v>-3.7491500000000002</v>
       </c>
-      <c r="G15" s="61">
+      <c r="G15">
         <v>0.44500000000000001</v>
       </c>
       <c r="H15">
@@ -4089,13 +4114,13 @@
         <v>36</v>
       </c>
       <c r="M15" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="N15" t="s">
         <v>35</v>
       </c>
       <c r="O15" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P15">
         <v>-4.1046699999999996</v>
@@ -4114,44 +4139,44 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="49">
+      <c r="A16" s="31">
         <v>45128</v>
       </c>
       <c r="B16" t="s">
-        <v>188</v>
-      </c>
-      <c r="C16" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="21">
+        <v>184</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="15">
         <v>-0.62258000000000002</v>
       </c>
-      <c r="G16" s="64">
+      <c r="G16" s="15">
         <v>0.48</v>
       </c>
-      <c r="H16" s="21">
-        <v>198</v>
-      </c>
-      <c r="I16" s="18">
+      <c r="H16" s="15">
+        <v>198</v>
+      </c>
+      <c r="I16" s="12">
         <v>-1.2969999999999999</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="12">
         <v>0.99039999999999995</v>
       </c>
       <c r="M16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N16" t="s">
         <v>35</v>
       </c>
       <c r="O16" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="P16">
         <v>3.1358799999999998</v>
@@ -4171,18 +4196,18 @@
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D17" t="s">
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F17">
         <v>-0.89341000000000004</v>
       </c>
-      <c r="G17" s="61">
+      <c r="G17">
         <v>0.48099999999999998</v>
       </c>
       <c r="H17">
@@ -4195,13 +4220,13 @@
         <v>0.8458</v>
       </c>
       <c r="M17" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N17" t="s">
         <v>35</v>
       </c>
       <c r="O17" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P17">
         <v>0.91557999999999995</v>
@@ -4221,18 +4246,18 @@
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D18" t="s">
         <v>35</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F18">
         <v>0.95672999999999997</v>
       </c>
-      <c r="G18" s="61">
+      <c r="G18">
         <v>0.47199999999999998</v>
       </c>
       <c r="H18">
@@ -4245,13 +4270,13 @@
         <v>0.75</v>
       </c>
       <c r="M18" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N18" t="s">
         <v>35</v>
       </c>
       <c r="O18" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P18">
         <v>2.8292799999999998</v>
@@ -4271,18 +4296,18 @@
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" t="s">
         <v>66</v>
-      </c>
-      <c r="D19" t="s">
-        <v>35</v>
-      </c>
-      <c r="E19" t="s">
-        <v>70</v>
       </c>
       <c r="F19">
         <v>-2.2379500000000001</v>
       </c>
-      <c r="G19" s="61">
+      <c r="G19">
         <v>0.44700000000000001</v>
       </c>
       <c r="H19">
@@ -4295,13 +4320,13 @@
         <v>1E-4</v>
       </c>
       <c r="M19" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O19" t="s">
         <v>74</v>
-      </c>
-      <c r="N19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O19" t="s">
-        <v>78</v>
       </c>
       <c r="P19">
         <v>-0.44330000000000003</v>
@@ -4321,18 +4346,18 @@
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
         <v>35</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F20">
         <v>1.4833099999999999</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20">
         <v>0.52700000000000002</v>
       </c>
       <c r="H20">
@@ -4345,13 +4370,13 @@
         <v>0.22539999999999999</v>
       </c>
       <c r="M20" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N20" t="s">
         <v>35</v>
       </c>
       <c r="O20" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P20">
         <v>2.1196199999999998</v>
@@ -4371,18 +4396,18 @@
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
         <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F21">
         <v>-1.4722500000000001</v>
       </c>
-      <c r="G21" s="61">
+      <c r="G21">
         <v>0.50700000000000001</v>
       </c>
       <c r="H21">
@@ -4395,13 +4420,13 @@
         <v>0.18529999999999999</v>
       </c>
       <c r="M21" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N21" t="s">
         <v>35</v>
       </c>
       <c r="O21" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P21">
         <v>1.7377400000000001</v>
@@ -4421,18 +4446,18 @@
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
         <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F22">
         <v>-1.3203100000000001</v>
       </c>
-      <c r="G22" s="61">
+      <c r="G22">
         <v>0.49299999999999999</v>
       </c>
       <c r="H22">
@@ -4445,13 +4470,13 @@
         <v>0.30109999999999998</v>
       </c>
       <c r="M22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N22" t="s">
         <v>35</v>
       </c>
       <c r="O22" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P22">
         <v>2.8327399999999998</v>
@@ -4471,18 +4496,18 @@
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D23" t="s">
         <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F23">
         <v>-1.4779599999999999</v>
       </c>
-      <c r="G23" s="61">
+      <c r="G23">
         <v>0.46899999999999997</v>
       </c>
       <c r="H23">
@@ -4495,13 +4520,13 @@
         <v>0.1002</v>
       </c>
       <c r="M23" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N23" t="s">
         <v>35</v>
       </c>
       <c r="O23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P23">
         <v>0.85070999999999997</v>
@@ -4521,18 +4546,18 @@
     </row>
     <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D24" t="s">
         <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F24">
         <v>2.3577300000000001</v>
       </c>
-      <c r="G24" s="61">
+      <c r="G24">
         <v>0.45100000000000001</v>
       </c>
       <c r="H24">
@@ -4545,13 +4570,13 @@
         <v>36</v>
       </c>
       <c r="M24" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N24" t="s">
         <v>35</v>
       </c>
       <c r="O24" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P24">
         <v>4.4069599999999998</v>
@@ -4571,18 +4596,18 @@
     </row>
     <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F25">
         <v>0.37379000000000001</v>
       </c>
-      <c r="G25" s="61">
+      <c r="G25">
         <v>0.45900000000000002</v>
       </c>
       <c r="H25">
@@ -4595,13 +4620,13 @@
         <v>0.99990000000000001</v>
       </c>
       <c r="M25" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N25" t="s">
         <v>35</v>
       </c>
       <c r="O25" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P25">
         <v>2.64845</v>
@@ -4621,18 +4646,18 @@
     </row>
     <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D26" t="s">
         <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F26">
         <v>-0.50892999999999999</v>
       </c>
-      <c r="G26" s="61">
+      <c r="G26">
         <v>0.498</v>
       </c>
       <c r="H26">
@@ -4645,13 +4670,13 @@
         <v>0.99909999999999999</v>
       </c>
       <c r="M26" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N26" t="s">
         <v>35</v>
       </c>
       <c r="O26" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P26">
         <v>1.3088599999999999</v>
@@ -4671,18 +4696,18 @@
     </row>
     <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D27" t="s">
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F27">
         <v>-0.26489000000000001</v>
       </c>
-      <c r="G27" s="61">
+      <c r="G27">
         <v>0.443</v>
       </c>
       <c r="H27">
@@ -4695,13 +4720,13 @@
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="N27" t="s">
         <v>35</v>
       </c>
       <c r="O27" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P27">
         <v>1.6396500000000001</v>
@@ -4721,18 +4746,18 @@
     </row>
     <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D28" t="s">
         <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F28">
         <v>-0.27082000000000001</v>
       </c>
-      <c r="G28" s="61">
+      <c r="G28">
         <v>0.51600000000000001</v>
       </c>
       <c r="H28">
@@ -4745,13 +4770,13 @@
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N28" t="s">
         <v>35</v>
       </c>
       <c r="O28" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="P28">
         <v>-2.2202999999999999</v>
@@ -4771,18 +4796,18 @@
     </row>
     <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D29" t="s">
         <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F29">
         <v>1.57931</v>
       </c>
-      <c r="G29" s="61">
+      <c r="G29">
         <v>0.50800000000000001</v>
       </c>
       <c r="H29">
@@ -4795,13 +4820,13 @@
         <v>0.1124</v>
       </c>
       <c r="M29" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N29" t="s">
         <v>35</v>
       </c>
       <c r="O29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="P29">
         <v>-0.30659999999999998</v>
@@ -4821,18 +4846,18 @@
     </row>
     <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D30" t="s">
         <v>35</v>
       </c>
       <c r="E30" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F30">
         <v>-1.61537</v>
       </c>
-      <c r="G30" s="61">
+      <c r="G30">
         <v>0.48399999999999999</v>
       </c>
       <c r="H30">
@@ -4845,13 +4870,13 @@
         <v>5.9200000000000003E-2</v>
       </c>
       <c r="M30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N30" t="s">
         <v>35</v>
       </c>
       <c r="O30" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P30">
         <v>-3.57918</v>
@@ -4871,18 +4896,18 @@
     </row>
     <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
         <v>67</v>
-      </c>
-      <c r="D31" t="s">
-        <v>35</v>
-      </c>
-      <c r="E31" t="s">
-        <v>71</v>
       </c>
       <c r="F31">
         <v>2.10589</v>
       </c>
-      <c r="G31" s="61">
+      <c r="G31">
         <v>0.55800000000000005</v>
       </c>
       <c r="H31">
@@ -4895,13 +4920,13 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="M31" t="s">
+        <v>71</v>
+      </c>
+      <c r="N31" t="s">
+        <v>35</v>
+      </c>
+      <c r="O31" t="s">
         <v>75</v>
-      </c>
-      <c r="N31" t="s">
-        <v>35</v>
-      </c>
-      <c r="O31" t="s">
-        <v>79</v>
       </c>
       <c r="P31">
         <v>-1.0162599999999999</v>
@@ -4921,18 +4946,18 @@
     </row>
     <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
         <v>35</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F32">
         <v>-0.84965999999999997</v>
       </c>
-      <c r="G32" s="61">
+      <c r="G32">
         <v>0.54</v>
       </c>
       <c r="H32">
@@ -4945,13 +4970,13 @@
         <v>0.95079999999999998</v>
       </c>
       <c r="M32" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N32" t="s">
         <v>35</v>
       </c>
       <c r="O32" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P32">
         <v>-1.3981399999999999</v>
@@ -4971,18 +4996,18 @@
     </row>
     <row r="33" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C33" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
         <v>35</v>
       </c>
       <c r="E33" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F33">
         <v>-0.69772999999999996</v>
       </c>
-      <c r="G33" s="61">
+      <c r="G33">
         <v>0.52700000000000002</v>
       </c>
       <c r="H33">
@@ -4994,51 +5019,51 @@
       <c r="J33" s="1">
         <v>0.98839999999999995</v>
       </c>
-      <c r="K33" s="49">
+      <c r="K33" s="31">
         <v>45128</v>
       </c>
       <c r="L33" t="s">
-        <v>188</v>
-      </c>
-      <c r="M33" s="65" t="s">
-        <v>75</v>
-      </c>
-      <c r="N33" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="O33" s="65" t="s">
-        <v>81</v>
-      </c>
-      <c r="P33" s="65">
+        <v>184</v>
+      </c>
+      <c r="M33" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="N33" s="41" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="P33" s="41">
         <v>-0.30314000000000002</v>
       </c>
-      <c r="Q33" s="66">
+      <c r="Q33" s="42">
         <v>0.38400000000000001</v>
       </c>
-      <c r="R33" s="65">
-        <v>268</v>
-      </c>
-      <c r="S33" s="66">
+      <c r="R33" s="41">
+        <v>268</v>
+      </c>
+      <c r="S33" s="42">
         <v>-0.78900000000000003</v>
       </c>
-      <c r="T33" s="66">
+      <c r="T33" s="42">
         <v>0.99990000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D34" t="s">
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F34">
         <v>-0.85538000000000003</v>
       </c>
-      <c r="G34" s="61">
+      <c r="G34">
         <v>0.50600000000000001</v>
       </c>
       <c r="H34">
@@ -5051,13 +5076,13 @@
         <v>0.91669999999999996</v>
       </c>
       <c r="M34" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N34" t="s">
         <v>35</v>
       </c>
       <c r="O34" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P34">
         <v>-2.2851699999999999</v>
@@ -5077,18 +5102,18 @@
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C35" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D35" t="s">
         <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F35">
         <v>2.9803099999999998</v>
       </c>
-      <c r="G35" s="61">
+      <c r="G35">
         <v>0.48799999999999999</v>
       </c>
       <c r="H35">
@@ -5101,13 +5126,13 @@
         <v>36</v>
       </c>
       <c r="M35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N35" t="s">
         <v>35</v>
       </c>
       <c r="O35" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P35">
         <v>1.2710900000000001</v>
@@ -5127,18 +5152,18 @@
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D36" t="s">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F36">
         <v>0.99638000000000004</v>
       </c>
-      <c r="G36" s="61">
+      <c r="G36">
         <v>0.496</v>
       </c>
       <c r="H36">
@@ -5151,13 +5176,13 @@
         <v>0.76070000000000004</v>
       </c>
       <c r="M36" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N36" t="s">
         <v>35</v>
       </c>
       <c r="O36" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P36">
         <v>-0.48742999999999997</v>
@@ -5177,18 +5202,18 @@
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C37" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
         <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F37">
         <v>0.11366</v>
       </c>
-      <c r="G37" s="61">
+      <c r="G37">
         <v>0.53300000000000003</v>
       </c>
       <c r="H37">
@@ -5201,13 +5226,13 @@
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N37" t="s">
         <v>35</v>
       </c>
       <c r="O37" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P37">
         <v>-1.8270200000000001</v>
@@ -5227,18 +5252,18 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C38" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
         <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F38">
         <v>0.35769000000000001</v>
       </c>
-      <c r="G38" s="61">
+      <c r="G38">
         <v>0.48099999999999998</v>
       </c>
       <c r="H38">
@@ -5251,13 +5276,13 @@
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="N38" t="s">
         <v>35</v>
       </c>
       <c r="O38" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P38">
         <v>-1.4962299999999999</v>
@@ -5276,81 +5301,81 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" s="49">
+      <c r="A39" s="31">
         <v>45129</v>
       </c>
       <c r="B39" t="s">
-        <v>188</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="F39" s="18">
+        <v>184</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F39" s="12">
         <v>1.8501300000000001</v>
       </c>
-      <c r="G39" s="18">
+      <c r="G39" s="12">
         <v>0.51200000000000001</v>
       </c>
-      <c r="H39" s="18">
-        <v>198</v>
-      </c>
-      <c r="I39" s="18">
+      <c r="H39" s="12">
+        <v>198</v>
+      </c>
+      <c r="I39" s="12">
         <v>3.617</v>
       </c>
-      <c r="J39" s="18">
+      <c r="J39" s="12">
         <v>2.5100000000000001E-2</v>
       </c>
-      <c r="K39" s="49">
+      <c r="K39" s="31">
         <v>45129</v>
       </c>
       <c r="L39" t="s">
-        <v>188</v>
-      </c>
-      <c r="M39" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="N39" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="O39" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="P39" s="19">
+        <v>184</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="P39" s="13">
         <v>1.9137</v>
       </c>
-      <c r="Q39" s="20">
+      <c r="Q39" s="14">
         <v>0.40600000000000003</v>
       </c>
-      <c r="R39" s="19">
-        <v>268</v>
-      </c>
-      <c r="S39" s="20">
+      <c r="R39" s="13">
+        <v>268</v>
+      </c>
+      <c r="S39" s="14">
         <v>4.7119999999999997</v>
       </c>
-      <c r="T39" s="20">
+      <c r="T39" s="14">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C40" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D40" t="s">
         <v>35</v>
       </c>
       <c r="E40" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F40">
         <v>-1.3445499999999999</v>
       </c>
-      <c r="G40" s="61">
+      <c r="G40">
         <v>0.49399999999999999</v>
       </c>
       <c r="H40">
@@ -5363,13 +5388,13 @@
         <v>0.2737</v>
       </c>
       <c r="M40" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N40" t="s">
         <v>35</v>
       </c>
       <c r="O40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P40">
         <v>-1.3588800000000001</v>
@@ -5389,18 +5414,18 @@
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C41" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D41" t="s">
         <v>35</v>
       </c>
       <c r="E41" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F41">
         <v>2.3767200000000002</v>
       </c>
-      <c r="G41" s="61">
+      <c r="G41">
         <v>0.57199999999999995</v>
       </c>
       <c r="H41">
@@ -5413,13 +5438,13 @@
         <v>3.7000000000000002E-3</v>
       </c>
       <c r="M41" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N41" t="s">
         <v>35</v>
       </c>
       <c r="O41" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P41">
         <v>1.20404</v>
@@ -5439,18 +5464,18 @@
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C42" t="s">
+        <v>64</v>
+      </c>
+      <c r="D42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" t="s">
         <v>68</v>
-      </c>
-      <c r="D42" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" t="s">
-        <v>72</v>
       </c>
       <c r="F42">
         <v>-0.57884000000000002</v>
       </c>
-      <c r="G42" s="61">
+      <c r="G42">
         <v>0.55400000000000005</v>
       </c>
       <c r="H42">
@@ -5463,13 +5488,13 @@
         <v>0.99880000000000002</v>
       </c>
       <c r="M42" t="s">
+        <v>72</v>
+      </c>
+      <c r="N42" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" t="s">
         <v>76</v>
-      </c>
-      <c r="N42" t="s">
-        <v>35</v>
-      </c>
-      <c r="O42" t="s">
-        <v>80</v>
       </c>
       <c r="P42">
         <v>0.82216</v>
@@ -5489,18 +5514,18 @@
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C43" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D43" t="s">
         <v>35</v>
       </c>
       <c r="E43" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F43">
         <v>-0.4269</v>
       </c>
-      <c r="G43" s="61">
+      <c r="G43">
         <v>0.53900000000000003</v>
       </c>
       <c r="H43">
@@ -5513,13 +5538,13 @@
         <v>0.99990000000000001</v>
       </c>
       <c r="M43" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N43" t="s">
         <v>35</v>
       </c>
       <c r="O43" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P43">
         <v>1.91716</v>
@@ -5539,18 +5564,18 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C44" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
         <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F44">
         <v>-0.58455999999999997</v>
       </c>
-      <c r="G44" s="61">
+      <c r="G44">
         <v>0.505</v>
       </c>
       <c r="H44">
@@ -5563,13 +5588,13 @@
         <v>0.99670000000000003</v>
       </c>
       <c r="M44" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N44" t="s">
         <v>35</v>
       </c>
       <c r="O44" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P44">
         <v>-6.4869999999999997E-2</v>
@@ -5589,18 +5614,18 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C45" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D45" t="s">
         <v>35</v>
       </c>
       <c r="E45" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F45">
         <v>3.2511399999999999</v>
       </c>
-      <c r="G45" s="61">
+      <c r="G45">
         <v>0.48699999999999999</v>
       </c>
       <c r="H45">
@@ -5613,13 +5638,13 @@
         <v>36</v>
       </c>
       <c r="M45" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N45" t="s">
         <v>35</v>
       </c>
       <c r="O45" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P45">
         <v>3.49139</v>
@@ -5639,18 +5664,18 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C46" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D46" t="s">
         <v>35</v>
       </c>
       <c r="E46" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F46">
         <v>1.2672000000000001</v>
       </c>
-      <c r="G46" s="61">
+      <c r="G46">
         <v>0.496</v>
       </c>
       <c r="H46">
@@ -5663,13 +5688,13 @@
         <v>0.37509999999999999</v>
       </c>
       <c r="M46" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N46" t="s">
         <v>35</v>
       </c>
       <c r="O46" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P46">
         <v>1.7328699999999999</v>
@@ -5689,18 +5714,18 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C47" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
         <v>35</v>
       </c>
       <c r="E47" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F47">
         <v>0.38447999999999999</v>
       </c>
-      <c r="G47" s="61">
+      <c r="G47">
         <v>0.53</v>
       </c>
       <c r="H47">
@@ -5713,13 +5738,13 @@
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N47" t="s">
         <v>35</v>
       </c>
       <c r="O47" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P47">
         <v>0.39328000000000002</v>
@@ -5739,18 +5764,18 @@
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C48" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D48" t="s">
         <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F48">
         <v>0.62851999999999997</v>
       </c>
-      <c r="G48" s="61">
+      <c r="G48">
         <v>0.48</v>
       </c>
       <c r="H48">
@@ -5763,13 +5788,13 @@
         <v>0.98950000000000005</v>
       </c>
       <c r="M48" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N48" t="s">
         <v>35</v>
       </c>
       <c r="O48" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P48">
         <v>0.72406999999999999</v>
@@ -5789,18 +5814,18 @@
     </row>
     <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D49" t="s">
         <v>35</v>
       </c>
       <c r="E49" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F49">
         <v>-3.19468</v>
       </c>
-      <c r="G49" s="61">
+      <c r="G49">
         <v>0.45100000000000001</v>
       </c>
       <c r="H49">
@@ -5813,13 +5838,13 @@
         <v>36</v>
       </c>
       <c r="M49" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N49" t="s">
         <v>35</v>
       </c>
       <c r="O49" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="P49">
         <v>-3.27258</v>
@@ -5839,18 +5864,18 @@
     </row>
     <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D50" t="s">
         <v>35</v>
       </c>
       <c r="E50" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F50">
         <v>0.52658000000000005</v>
       </c>
-      <c r="G50" s="61">
+      <c r="G50">
         <v>0.51700000000000002</v>
       </c>
       <c r="H50">
@@ -5863,13 +5888,13 @@
         <v>0.99909999999999999</v>
       </c>
       <c r="M50" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N50" t="s">
         <v>35</v>
       </c>
       <c r="O50" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P50">
         <v>-0.70965999999999996</v>
@@ -5889,18 +5914,18 @@
     </row>
     <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D51" t="s">
         <v>35</v>
       </c>
       <c r="E51" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F51">
         <v>-2.4289700000000001</v>
       </c>
-      <c r="G51" s="61">
+      <c r="G51">
         <v>0.497</v>
       </c>
       <c r="H51">
@@ -5913,13 +5938,13 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="M51" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N51" t="s">
         <v>35</v>
       </c>
       <c r="O51" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P51">
         <v>-1.09154</v>
@@ -5939,18 +5964,18 @@
     </row>
     <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" t="s">
+        <v>65</v>
+      </c>
+      <c r="D52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" t="s">
         <v>69</v>
-      </c>
-      <c r="D52" t="s">
-        <v>35</v>
-      </c>
-      <c r="E52" t="s">
-        <v>73</v>
       </c>
       <c r="F52">
         <v>-2.2770299999999999</v>
       </c>
-      <c r="G52" s="61">
+      <c r="G52">
         <v>0.48899999999999999</v>
       </c>
       <c r="H52">
@@ -5963,13 +5988,13 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="M52" t="s">
+        <v>73</v>
+      </c>
+      <c r="N52" t="s">
+        <v>35</v>
+      </c>
+      <c r="O52" t="s">
         <v>77</v>
-      </c>
-      <c r="N52" t="s">
-        <v>35</v>
-      </c>
-      <c r="O52" t="s">
-        <v>81</v>
       </c>
       <c r="P52">
         <v>3.46E-3</v>
@@ -5989,18 +6014,18 @@
     </row>
     <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D53" t="s">
         <v>35</v>
       </c>
       <c r="E53" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F53">
         <v>-2.4346899999999998</v>
       </c>
-      <c r="G53" s="61">
+      <c r="G53">
         <v>0.501</v>
       </c>
       <c r="H53">
@@ -6013,13 +6038,13 @@
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="M53" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N53" t="s">
         <v>35</v>
       </c>
       <c r="O53" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P53">
         <v>-1.97858</v>
@@ -6039,18 +6064,18 @@
     </row>
     <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D54" t="s">
         <v>35</v>
       </c>
       <c r="E54" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F54">
         <v>1.401</v>
       </c>
-      <c r="G54" s="61">
+      <c r="G54">
         <v>0.48499999999999999</v>
       </c>
       <c r="H54">
@@ -6063,13 +6088,13 @@
         <v>0.19040000000000001</v>
       </c>
       <c r="M54" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N54" t="s">
         <v>35</v>
       </c>
       <c r="O54" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P54">
         <v>1.57768</v>
@@ -6089,18 +6114,18 @@
     </row>
     <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D55" t="s">
         <v>35</v>
       </c>
       <c r="E55" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F55">
         <v>-0.58292999999999995</v>
       </c>
-      <c r="G55" s="61">
+      <c r="G55">
         <v>0.49099999999999999</v>
       </c>
       <c r="H55">
@@ -6113,13 +6138,13 @@
         <v>0.99580000000000002</v>
       </c>
       <c r="M55" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N55" t="s">
         <v>35</v>
       </c>
       <c r="O55" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P55">
         <v>-0.18084</v>
@@ -6139,18 +6164,18 @@
     </row>
     <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
         <v>35</v>
       </c>
       <c r="E56" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F56">
         <v>-1.4656499999999999</v>
       </c>
-      <c r="G56" s="61">
+      <c r="G56">
         <v>0.53300000000000003</v>
       </c>
       <c r="H56">
@@ -6163,13 +6188,13 @@
         <v>0.26019999999999999</v>
       </c>
       <c r="M56" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N56" t="s">
         <v>35</v>
       </c>
       <c r="O56" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P56">
         <v>-1.5204299999999999</v>
@@ -6189,18 +6214,18 @@
     </row>
     <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D57" t="s">
         <v>35</v>
       </c>
       <c r="E57" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F57">
         <v>-1.2216199999999999</v>
       </c>
-      <c r="G57" s="61">
+      <c r="G57">
         <v>0.47699999999999998</v>
       </c>
       <c r="H57">
@@ -6213,13 +6238,13 @@
         <v>0.37319999999999998</v>
       </c>
       <c r="M57" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="N57" t="s">
         <v>35</v>
       </c>
       <c r="O57" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P57">
         <v>-1.18963</v>
@@ -6239,18 +6264,18 @@
     </row>
     <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D58" t="s">
         <v>35</v>
       </c>
       <c r="E58" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F58">
         <v>3.72126</v>
       </c>
-      <c r="G58" s="61">
+      <c r="G58">
         <v>0.39900000000000002</v>
       </c>
       <c r="H58">
@@ -6263,13 +6288,13 @@
         <v>36</v>
       </c>
       <c r="M58" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N58" t="s">
         <v>35</v>
       </c>
       <c r="O58" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P58">
         <v>2.5629200000000001</v>
@@ -6289,18 +6314,18 @@
     </row>
     <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D59" t="s">
         <v>35</v>
       </c>
       <c r="E59" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F59">
         <v>0.76571</v>
       </c>
-      <c r="G59" s="61">
+      <c r="G59">
         <v>0.372</v>
       </c>
       <c r="H59">
@@ -6313,13 +6338,13 @@
         <v>0.7298</v>
       </c>
       <c r="M59" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N59" t="s">
         <v>35</v>
       </c>
       <c r="O59" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P59">
         <v>2.1810399999999999</v>
@@ -6339,18 +6364,18 @@
     </row>
     <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
         <v>35</v>
       </c>
       <c r="E60" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F60">
         <v>0.91764999999999997</v>
       </c>
-      <c r="G60" s="61">
+      <c r="G60">
         <v>0.377</v>
       </c>
       <c r="H60">
@@ -6363,13 +6388,13 @@
         <v>0.4607</v>
       </c>
       <c r="M60" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N60" t="s">
         <v>35</v>
       </c>
       <c r="O60" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P60">
         <v>3.2760400000000001</v>
@@ -6389,18 +6414,18 @@
     </row>
     <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D61" t="s">
         <v>35</v>
       </c>
       <c r="E61" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F61">
         <v>0.75999000000000005</v>
       </c>
-      <c r="G61" s="61">
+      <c r="G61">
         <v>0.48399999999999999</v>
       </c>
       <c r="H61">
@@ -6413,13 +6438,13 @@
         <v>0.9516</v>
       </c>
       <c r="M61" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N61" t="s">
         <v>35</v>
       </c>
       <c r="O61" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P61">
         <v>1.2940100000000001</v>
@@ -6439,18 +6464,18 @@
     </row>
     <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D62" t="s">
         <v>35</v>
       </c>
       <c r="E62" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F62">
         <v>4.5956799999999998</v>
       </c>
-      <c r="G62" s="61">
+      <c r="G62">
         <v>0.46800000000000003</v>
       </c>
       <c r="H62">
@@ -6463,13 +6488,13 @@
         <v>36</v>
       </c>
       <c r="M62" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N62" t="s">
         <v>35</v>
       </c>
       <c r="O62" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P62">
         <v>4.8502599999999996</v>
@@ -6489,18 +6514,18 @@
     </row>
     <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D63" t="s">
         <v>35</v>
       </c>
       <c r="E63" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F63">
         <v>2.6117499999999998</v>
       </c>
-      <c r="G63" s="61">
+      <c r="G63">
         <v>0.47199999999999998</v>
       </c>
       <c r="H63">
@@ -6513,13 +6538,13 @@
         <v>36</v>
       </c>
       <c r="M63" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N63" t="s">
         <v>35</v>
       </c>
       <c r="O63" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P63">
         <v>3.0917500000000002</v>
@@ -6539,18 +6564,18 @@
     </row>
     <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D64" t="s">
         <v>35</v>
       </c>
       <c r="E64" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F64">
         <v>1.7290300000000001</v>
       </c>
-      <c r="G64" s="61">
+      <c r="G64">
         <v>0.52800000000000002</v>
       </c>
       <c r="H64">
@@ -6563,13 +6588,13 @@
         <v>7.0900000000000005E-2</v>
       </c>
       <c r="M64" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N64" t="s">
         <v>35</v>
       </c>
       <c r="O64" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P64">
         <v>1.7521599999999999</v>
@@ -6589,18 +6614,18 @@
     </row>
     <row r="65" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C65" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D65" t="s">
         <v>35</v>
       </c>
       <c r="E65" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F65">
         <v>1.97306</v>
       </c>
-      <c r="G65" s="61">
+      <c r="G65">
         <v>0.46</v>
       </c>
       <c r="H65">
@@ -6613,13 +6638,13 @@
         <v>2.3E-3</v>
       </c>
       <c r="M65" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="N65" t="s">
         <v>35</v>
       </c>
       <c r="O65" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P65">
         <v>2.0829499999999999</v>
@@ -6639,18 +6664,18 @@
     </row>
     <row r="66" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C66" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D66" t="s">
         <v>35</v>
       </c>
       <c r="E66" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F66">
         <v>-2.9555600000000002</v>
       </c>
-      <c r="G66" s="61">
+      <c r="G66">
         <v>0.377</v>
       </c>
       <c r="H66">
@@ -6663,13 +6688,13 @@
         <v>36</v>
       </c>
       <c r="M66" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N66" t="s">
         <v>35</v>
       </c>
       <c r="O66" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="P66">
         <v>-0.38188</v>
@@ -6689,18 +6714,18 @@
     </row>
     <row r="67" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C67" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D67" t="s">
         <v>35</v>
       </c>
       <c r="E67" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F67">
         <v>-2.80362</v>
       </c>
-      <c r="G67" s="61">
+      <c r="G67">
         <v>0.39600000000000002</v>
       </c>
       <c r="H67">
@@ -6713,13 +6738,13 @@
         <v>36</v>
       </c>
       <c r="M67" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N67" t="s">
         <v>35</v>
       </c>
       <c r="O67" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P67">
         <v>0.71311999999999998</v>
@@ -6739,18 +6764,18 @@
     </row>
     <row r="68" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C68" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D68" t="s">
         <v>35</v>
       </c>
       <c r="E68" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F68">
         <v>-2.9612799999999999</v>
       </c>
-      <c r="G68" s="61">
+      <c r="G68">
         <v>0.56399999999999995</v>
       </c>
       <c r="H68">
@@ -6763,13 +6788,13 @@
         <v>36</v>
       </c>
       <c r="M68" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N68" t="s">
         <v>35</v>
       </c>
       <c r="O68" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P68">
         <v>-1.26891</v>
@@ -6789,18 +6814,18 @@
     </row>
     <row r="69" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C69" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D69" t="s">
         <v>35</v>
       </c>
       <c r="E69" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F69">
         <v>0.87441999999999998</v>
       </c>
-      <c r="G69" s="61">
+      <c r="G69">
         <v>0.55200000000000005</v>
       </c>
       <c r="H69">
@@ -6813,13 +6838,13 @@
         <v>0.94830000000000003</v>
       </c>
       <c r="M69" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N69" t="s">
         <v>35</v>
       </c>
       <c r="O69" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P69">
         <v>2.28735</v>
@@ -6839,18 +6864,18 @@
     </row>
     <row r="70" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C70" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D70" t="s">
         <v>35</v>
       </c>
       <c r="E70" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F70">
         <v>-1.1095200000000001</v>
       </c>
-      <c r="G70" s="61">
+      <c r="G70">
         <v>0.55400000000000005</v>
       </c>
       <c r="H70">
@@ -6863,13 +6888,13 @@
         <v>0.76319999999999999</v>
       </c>
       <c r="M70" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N70" t="s">
         <v>35</v>
       </c>
       <c r="O70" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P70">
         <v>0.52883000000000002</v>
@@ -6889,18 +6914,18 @@
     </row>
     <row r="71" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C71" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D71" t="s">
         <v>35</v>
       </c>
       <c r="E71" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F71">
         <v>-1.99224</v>
       </c>
-      <c r="G71" s="61">
+      <c r="G71">
         <v>0.61</v>
       </c>
       <c r="H71">
@@ -6913,13 +6938,13 @@
         <v>7.3200000000000001E-2</v>
       </c>
       <c r="M71" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N71" t="s">
         <v>35</v>
       </c>
       <c r="O71" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P71">
         <v>-0.81076000000000004</v>
@@ -6939,18 +6964,18 @@
     </row>
     <row r="72" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C72" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D72" t="s">
         <v>35</v>
       </c>
       <c r="E72" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F72">
         <v>-1.7482</v>
       </c>
-      <c r="G72" s="61">
+      <c r="G72">
         <v>0.54500000000000004</v>
       </c>
       <c r="H72">
@@ -6963,13 +6988,13 @@
         <v>8.5999999999999993E-2</v>
       </c>
       <c r="M72" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N72" t="s">
         <v>35</v>
       </c>
       <c r="O72" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P72">
         <v>-0.47997000000000001</v>
@@ -6989,18 +7014,18 @@
     </row>
     <row r="73" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C73" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D73" t="s">
         <v>35</v>
       </c>
       <c r="E73" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F73">
         <v>0.15193999999999999</v>
       </c>
-      <c r="G73" s="61">
+      <c r="G73">
         <v>0.36899999999999999</v>
       </c>
       <c r="H73">
@@ -7013,13 +7038,13 @@
         <v>1</v>
       </c>
       <c r="M73" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N73" t="s">
         <v>35</v>
       </c>
       <c r="O73" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="P73">
         <v>1.095</v>
@@ -7039,18 +7064,18 @@
     </row>
     <row r="74" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C74" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D74" t="s">
         <v>35</v>
       </c>
       <c r="E74" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F74">
         <v>-5.7200000000000003E-3</v>
       </c>
-      <c r="G74" s="61">
+      <c r="G74">
         <v>0.54600000000000004</v>
       </c>
       <c r="H74">
@@ -7063,13 +7088,13 @@
         <v>1</v>
       </c>
       <c r="M74" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N74" t="s">
         <v>35</v>
       </c>
       <c r="O74" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P74">
         <v>-0.88704000000000005</v>
@@ -7089,18 +7114,18 @@
     </row>
     <row r="75" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C75" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D75" t="s">
         <v>35</v>
       </c>
       <c r="E75" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F75">
         <v>3.8299799999999999</v>
       </c>
-      <c r="G75" s="61">
+      <c r="G75">
         <v>0.53300000000000003</v>
       </c>
       <c r="H75">
@@ -7113,13 +7138,13 @@
         <v>36</v>
       </c>
       <c r="M75" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N75" t="s">
         <v>35</v>
       </c>
       <c r="O75" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P75">
         <v>2.6692200000000001</v>
@@ -7139,18 +7164,18 @@
     </row>
     <row r="76" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C76" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D76" t="s">
         <v>35</v>
       </c>
       <c r="E76" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F76">
         <v>1.8460399999999999</v>
       </c>
-      <c r="G76" s="61">
+      <c r="G76">
         <v>0.53500000000000003</v>
       </c>
       <c r="H76">
@@ -7163,13 +7188,13 @@
         <v>4.2299999999999997E-2</v>
       </c>
       <c r="M76" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N76" t="s">
         <v>35</v>
       </c>
       <c r="O76" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P76">
         <v>0.91071000000000002</v>
@@ -7189,18 +7214,18 @@
     </row>
     <row r="77" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C77" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D77" t="s">
         <v>35</v>
       </c>
       <c r="E77" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F77">
         <v>0.96331999999999995</v>
       </c>
-      <c r="G77" s="61">
+      <c r="G77">
         <v>0.59299999999999997</v>
       </c>
       <c r="H77">
@@ -7213,13 +7238,13 @@
         <v>0.93789999999999996</v>
       </c>
       <c r="M77" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N77" t="s">
         <v>35</v>
       </c>
       <c r="O77" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P77">
         <v>-0.42887999999999998</v>
@@ -7239,18 +7264,18 @@
     </row>
     <row r="78" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C78" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D78" t="s">
         <v>35</v>
       </c>
       <c r="E78" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F78">
         <v>1.2073499999999999</v>
       </c>
-      <c r="G78" s="61">
+      <c r="G78">
         <v>0.52600000000000002</v>
       </c>
       <c r="H78">
@@ -7263,13 +7288,13 @@
         <v>0.56110000000000004</v>
       </c>
       <c r="M78" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="N78" t="s">
         <v>35</v>
       </c>
       <c r="O78" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P78">
         <v>-9.8089999999999997E-2</v>
@@ -7289,18 +7314,18 @@
     </row>
     <row r="79" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C79" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D79" t="s">
         <v>35</v>
       </c>
       <c r="E79" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F79">
         <v>-0.15765999999999999</v>
       </c>
-      <c r="G79" s="61">
+      <c r="G79">
         <v>0.53100000000000003</v>
       </c>
       <c r="H79">
@@ -7313,13 +7338,13 @@
         <v>1</v>
       </c>
       <c r="M79" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N79" t="s">
         <v>35</v>
       </c>
       <c r="O79" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="P79">
         <v>-1.98203</v>
@@ -7339,18 +7364,18 @@
     </row>
     <row r="80" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C80" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D80" t="s">
         <v>35</v>
       </c>
       <c r="E80" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F80">
         <v>3.6780400000000002</v>
       </c>
-      <c r="G80" s="61">
+      <c r="G80">
         <v>0.51800000000000002</v>
       </c>
       <c r="H80">
@@ -7363,13 +7388,13 @@
         <v>36</v>
       </c>
       <c r="M80" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N80" t="s">
         <v>35</v>
       </c>
       <c r="O80" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P80">
         <v>1.57422</v>
@@ -7389,18 +7414,18 @@
     </row>
     <row r="81" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C81" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D81" t="s">
         <v>35</v>
       </c>
       <c r="E81" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F81">
         <v>1.6940999999999999</v>
       </c>
-      <c r="G81" s="61">
+      <c r="G81">
         <v>0.52</v>
       </c>
       <c r="H81">
@@ -7413,13 +7438,13 @@
         <v>7.4800000000000005E-2</v>
       </c>
       <c r="M81" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N81" t="s">
         <v>35</v>
       </c>
       <c r="O81" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P81">
         <v>-0.18429000000000001</v>
@@ -7439,18 +7464,18 @@
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C82" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D82" t="s">
         <v>35</v>
       </c>
       <c r="E82" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F82">
         <v>0.81137999999999999</v>
       </c>
-      <c r="G82" s="61">
+      <c r="G82">
         <v>0.57699999999999996</v>
       </c>
       <c r="H82">
@@ -7463,13 +7488,13 @@
         <v>0.98019999999999996</v>
       </c>
       <c r="M82" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N82" t="s">
         <v>35</v>
       </c>
       <c r="O82" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P82">
         <v>-1.5238799999999999</v>
@@ -7489,18 +7514,18 @@
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C83" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D83" t="s">
         <v>35</v>
       </c>
       <c r="E83" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F83">
         <v>1.05542</v>
       </c>
-      <c r="G83" s="61">
+      <c r="G83">
         <v>0.51</v>
       </c>
       <c r="H83">
@@ -7513,13 +7538,13 @@
         <v>0.72240000000000004</v>
       </c>
       <c r="M83" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="N83" t="s">
         <v>35</v>
       </c>
       <c r="O83" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P83">
         <v>-1.19309</v>
@@ -7539,18 +7564,18 @@
     </row>
     <row r="84" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D84" t="s">
         <v>35</v>
       </c>
       <c r="E84" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F84">
         <v>3.83569</v>
       </c>
-      <c r="G84" s="61">
+      <c r="G84">
         <v>0.47599999999999998</v>
       </c>
       <c r="H84">
@@ -7563,13 +7588,13 @@
         <v>36</v>
       </c>
       <c r="M84" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N84" t="s">
         <v>35</v>
       </c>
       <c r="O84" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="P84">
         <v>3.55626</v>
@@ -7589,18 +7614,18 @@
     </row>
     <row r="85" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C85" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D85" t="s">
         <v>35</v>
       </c>
       <c r="E85" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F85">
         <v>1.8517600000000001</v>
       </c>
-      <c r="G85" s="61">
+      <c r="G85">
         <v>0.48399999999999999</v>
       </c>
       <c r="H85">
@@ -7613,13 +7638,13 @@
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="M85" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N85" t="s">
         <v>35</v>
       </c>
       <c r="O85" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P85">
         <v>1.7977399999999999</v>
@@ -7639,18 +7664,18 @@
     </row>
     <row r="86" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D86" t="s">
         <v>35</v>
       </c>
       <c r="E86" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F86">
         <v>0.96904000000000001</v>
       </c>
-      <c r="G86" s="61">
+      <c r="G86">
         <v>0.52</v>
       </c>
       <c r="H86">
@@ -7663,13 +7688,13 @@
         <v>0.84260000000000002</v>
       </c>
       <c r="M86" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="N86" t="s">
         <v>35</v>
       </c>
       <c r="O86" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P86">
         <v>0.45815</v>
@@ -7689,18 +7714,18 @@
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" t="s">
+        <v>35</v>
+      </c>
+      <c r="E87" t="s">
         <v>181</v>
-      </c>
-      <c r="D87" t="s">
-        <v>35</v>
-      </c>
-      <c r="E87" t="s">
-        <v>185</v>
       </c>
       <c r="F87">
         <v>1.2130700000000001</v>
       </c>
-      <c r="G87" s="61">
+      <c r="G87">
         <v>0.46899999999999997</v>
       </c>
       <c r="H87">
@@ -7713,13 +7738,13 @@
         <v>0.3543</v>
       </c>
       <c r="M87" t="s">
+        <v>177</v>
+      </c>
+      <c r="N87" t="s">
+        <v>35</v>
+      </c>
+      <c r="O87" t="s">
         <v>181</v>
-      </c>
-      <c r="N87" t="s">
-        <v>35</v>
-      </c>
-      <c r="O87" t="s">
-        <v>185</v>
       </c>
       <c r="P87">
         <v>0.78895000000000004</v>
@@ -7739,18 +7764,18 @@
     </row>
     <row r="88" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C88" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D88" t="s">
         <v>35</v>
       </c>
       <c r="E88" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="F88">
         <v>-1.98393</v>
       </c>
-      <c r="G88" s="61">
+      <c r="G88">
         <v>0.46600000000000003</v>
       </c>
       <c r="H88">
@@ -7763,13 +7788,13 @@
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="M88" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N88" t="s">
         <v>35</v>
       </c>
       <c r="O88" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="P88">
         <v>-1.7585200000000001</v>
@@ -7789,18 +7814,18 @@
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D89" t="s">
         <v>35</v>
       </c>
       <c r="E89" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F89">
         <v>-2.86666</v>
       </c>
-      <c r="G89" s="61">
+      <c r="G89">
         <v>0.502</v>
       </c>
       <c r="H89">
@@ -7813,13 +7838,13 @@
         <v>36</v>
       </c>
       <c r="M89" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N89" t="s">
         <v>35</v>
       </c>
       <c r="O89" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="P89">
         <v>-3.0981100000000001</v>
@@ -7839,18 +7864,18 @@
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D90" t="s">
         <v>35</v>
       </c>
       <c r="E90" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="F90">
         <v>-2.62262</v>
       </c>
-      <c r="G90" s="61">
+      <c r="G90">
         <v>0.45</v>
       </c>
       <c r="H90">
@@ -7863,13 +7888,13 @@
         <v>36</v>
       </c>
       <c r="M90" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N90" t="s">
         <v>35</v>
       </c>
       <c r="O90" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P90">
         <v>-2.7673100000000002</v>
@@ -7888,156 +7913,156 @@
       </c>
     </row>
     <row r="91" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="D91" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="E91" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="F91" s="63">
+      <c r="C91" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D91" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" s="22">
         <v>-0.88271999999999995</v>
       </c>
-      <c r="G91" s="62">
+      <c r="G91" s="22">
         <v>0.51100000000000001</v>
       </c>
-      <c r="H91" s="63">
-        <v>198</v>
-      </c>
-      <c r="I91" s="60">
+      <c r="H91" s="22">
+        <v>198</v>
+      </c>
+      <c r="I91" s="23">
         <v>-1.728</v>
       </c>
-      <c r="J91" s="60">
+      <c r="J91" s="23">
         <v>0.90349999999999997</v>
       </c>
-      <c r="M91" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="N91" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="O91" s="63" t="s">
-        <v>184</v>
-      </c>
-      <c r="P91" s="63">
+      <c r="M91" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="N91" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O91" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="P91" s="22">
         <v>-1.3395900000000001</v>
       </c>
-      <c r="Q91" s="60">
+      <c r="Q91" s="23">
         <v>0.378</v>
       </c>
-      <c r="R91" s="63">
-        <v>268</v>
-      </c>
-      <c r="S91" s="60">
+      <c r="R91" s="22">
+        <v>268</v>
+      </c>
+      <c r="S91" s="23">
         <v>-3.5419999999999998</v>
       </c>
-      <c r="T91" s="60">
+      <c r="T91" s="23">
         <v>3.0599999999999999E-2</v>
       </c>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B92" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C92" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="D92" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="E92" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="F92" s="63">
+      <c r="B92" s="51" t="s">
+        <v>61</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="D92" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="F92" s="22">
         <v>-0.63868999999999998</v>
       </c>
-      <c r="G92" s="62">
+      <c r="G92" s="22">
         <v>0.45800000000000002</v>
       </c>
-      <c r="H92" s="63">
-        <v>198</v>
-      </c>
-      <c r="I92" s="60">
+      <c r="H92" s="22">
+        <v>198</v>
+      </c>
+      <c r="I92" s="23">
         <v>-1.393</v>
       </c>
-      <c r="J92" s="60">
+      <c r="J92" s="23">
         <v>0.98180000000000001</v>
       </c>
-      <c r="M92" s="63" t="s">
-        <v>183</v>
-      </c>
-      <c r="N92" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="O92" s="63" t="s">
-        <v>185</v>
-      </c>
-      <c r="P92" s="63">
+      <c r="M92" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="N92" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="O92" s="22" t="s">
+        <v>181</v>
+      </c>
+      <c r="P92" s="22">
         <v>-1.0087999999999999</v>
       </c>
-      <c r="Q92" s="60">
+      <c r="Q92" s="23">
         <v>0.26900000000000002</v>
       </c>
-      <c r="R92" s="63">
-        <v>268</v>
-      </c>
-      <c r="S92" s="60">
+      <c r="R92" s="22">
+        <v>268</v>
+      </c>
+      <c r="S92" s="23">
         <v>-3.754</v>
       </c>
-      <c r="T92" s="60">
+      <c r="T92" s="23">
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
     <row r="93" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="33"/>
-      <c r="C93" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="D93" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="E93" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="F93" s="60">
+      <c r="B93" s="53"/>
+      <c r="C93" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D93" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="F93" s="23">
         <v>0.24404000000000001</v>
       </c>
-      <c r="G93" s="62">
+      <c r="G93" s="22">
         <v>0.495</v>
       </c>
-      <c r="H93" s="60">
-        <v>198</v>
-      </c>
-      <c r="I93" s="60">
+      <c r="H93" s="23">
+        <v>198</v>
+      </c>
+      <c r="I93" s="23">
         <v>0.49299999999999999</v>
       </c>
-      <c r="J93" s="60">
+      <c r="J93" s="23">
         <v>1</v>
       </c>
-      <c r="M93" s="60" t="s">
-        <v>184</v>
-      </c>
-      <c r="N93" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="O93" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="P93" s="60">
+      <c r="M93" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="N93" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="O93" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="P93" s="23">
         <v>0.33079999999999998</v>
       </c>
-      <c r="Q93" s="60">
+      <c r="Q93" s="23">
         <v>0.377</v>
       </c>
-      <c r="R93" s="60">
-        <v>268</v>
-      </c>
-      <c r="S93" s="60">
+      <c r="R93" s="23">
+        <v>268</v>
+      </c>
+      <c r="S93" s="23">
         <v>0.878</v>
       </c>
-      <c r="T93" s="60">
+      <c r="T93" s="23">
         <v>0.99980000000000002</v>
       </c>
     </row>

--- a/Data/Datatables_ms.xlsx
+++ b/Data/Datatables_ms.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristakraskura/Github_repositories/KK_etal_gobies_tempVar_tempTol/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF37ADEB-3078-7649-AD9C-AD442611C2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{155D76DB-6C02-B343-800E-DFF5A194F466}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="17500" activeTab="2" xr2:uid="{C7FD16A5-6D6F-ED42-9CEB-C21D96802EB4}"/>
   </bookViews>
@@ -2748,8 +2748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255BB1AB-E722-C344-8E9D-48658E19A72C}">
   <dimension ref="A1:G61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C44" sqref="C39:C44"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Data/Datatables_ms.xlsx
+++ b/Data/Datatables_ms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristakraskura/Github_repositories/KK_etal_gobies_tempVar_tempTol/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3AFBE93-F5F9-394F-A438-78FC13CF6543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48412AA5-4907-3C48-8BD1-D3C9FF92B264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="3" xr2:uid="{C7FD16A5-6D6F-ED42-9CEB-C21D96802EB4}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{C7FD16A5-6D6F-ED42-9CEB-C21D96802EB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure 1 C" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="988" uniqueCount="247">
   <si>
     <t>SITE1</t>
   </si>
@@ -282,129 +282,6 @@
     <t xml:space="preserve">HYPOTHESIS 4. </t>
   </si>
   <si>
-    <t>model.CTmin.0&lt;-lmer(temp_tolerance ~ 1  + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmin.1&lt;-lmer(temp_tolerance ~ max.Env.Temp + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmin.1.b&lt;-lmer(temp_tolerance ~ max.Env.Temp + TL_mm + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmin.2&lt;-lmer(temp_tolerance ~ min.Env.Temp + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmin.2.b&lt;-lmer(temp_tolerance ~ min.Env.Temp + TL_mm + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmin.3&lt;-lmer(temp_tolerance ~ mean.Env.Temp + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmin.3.b&lt;-lmer(temp_tolerance ~ mean.Env.Temp +TL_mm +  (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmin.4&lt;-lmer(temp_tolerance ~ Temp_test_start + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmin.4.b&lt;-lmer(temp_tolerance ~ Temp_test_start + TL_mm + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmin.5&lt;-lmer(temp_tolerance ~ delta.T + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmin.5.b&lt;-lmer(temp_tolerance ~ delta.T + TL_mm + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmin.6&lt;-lmer(temp_tolerance ~ TimeDay2 + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmin.6.b&lt;-lmer(temp_tolerance ~ TimeDay2 + TL_mm + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmin.7&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmin.7.c&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + Stat_Var + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmin.7.b&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + TL_mm + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) # best </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmin.7.d&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + TL_mm + Stat_Var + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) # best </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmin.8&lt;-lmer(temp_tolerance ~ max.Env.Temp + Temp_test_start + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmin.9&lt;-lmer(temp_tolerance ~ delta.T + Temp_test_start + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmin.10&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + TimeDay2 + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t>model.CTmin.11&lt;-lmer(temp_tolerance ~ max.Env.Temp + Temp_test_start + delta.T + (1|treatment), data = data[data$Test== "CTmin", ], REML = FALSE)</t>
-  </si>
-  <si>
-    <t>model.CTmax.0&lt;-lmer(temp_tolerance ~ 1  + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmax.1&lt;-lmer(temp_tolerance ~ max.Env.Temp + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmax.1.b&lt;-lmer(temp_tolerance ~ max.Env.Temp + TL_mm + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmax.2&lt;-lmer(temp_tolerance ~ min.Env.Temp + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmax.2.b&lt;-lmer(temp_tolerance ~ min.Env.Temp + TL_mm + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmax.3&lt;-lmer(temp_tolerance ~ mean.Env.Temp + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t>model.CTmax.3.b&lt;-lmer(temp_tolerance ~ mean.Env.Temp + TL_mm + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) # &lt;&lt;&lt; BEST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmax.3.c&lt;-lmer(temp_tolerance ~ mean.Env.Temp + TL_mm + delta.T + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmax.4&lt;-lmer(temp_tolerance ~ Temp_test_start + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmax.4.b&lt;-lmer(temp_tolerance ~ Temp_test_start + TL_mm + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmax.5&lt;-lmer(temp_tolerance ~ delta.T + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmax.5.b&lt;-lmer(temp_tolerance ~ delta.T + TL_mm + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmax.6&lt;-lmer(temp_tolerance ~ TimeDay2 + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmax.6.b&lt;-lmer(temp_tolerance ~ TimeDay2 + TL_mm + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmax.7&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmax.7.b&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + TL_mm + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmax.8&lt;-lmer(temp_tolerance ~ max.Env.Temp + Temp_test_start + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmax.9&lt;-lmer(temp_tolerance ~ delta.T + Temp_test_start + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">model.CTmax.10&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + TimeDay2 + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
-  </si>
-  <si>
-    <t>model.CTmax.11&lt;-lmer(temp_tolerance ~ max.Env.Temp + Temp_test_start + delta.T + (1|treatment), data = data[data$Test== "CTmax", ], REML = FALSE)</t>
-  </si>
-  <si>
     <t>contrast(emmeans(mod.CTmax.b,</t>
   </si>
   <si>
@@ -436,9 +313,6 @@
   </si>
   <si>
     <t>contrast(emmeans(mod.CTmin.b,</t>
-  </si>
-  <si>
-    <t xml:space="preserve">** mark fed and unfed models </t>
   </si>
   <si>
     <t>SAME DAY</t>
@@ -593,6 +467,342 @@
   <si>
     <t>&lt;&lt;&lt;</t>
   </si>
+  <si>
+    <t>model.CTmin.7.b</t>
+  </si>
+  <si>
+    <t>model.CTmin.b</t>
+  </si>
+  <si>
+    <t>model.CTmin.3.b</t>
+  </si>
+  <si>
+    <t>model.CTmin.7.d</t>
+  </si>
+  <si>
+    <t>model.CTmin.7</t>
+  </si>
+  <si>
+    <t>model.CTmin.8</t>
+  </si>
+  <si>
+    <t>model.CTmin.7.c</t>
+  </si>
+  <si>
+    <t>model.CTmin.1</t>
+  </si>
+  <si>
+    <t>model.CTmin.11</t>
+  </si>
+  <si>
+    <t>model.CTmin.10</t>
+  </si>
+  <si>
+    <t>model.CTmin.3</t>
+  </si>
+  <si>
+    <t>model.CTmin.9</t>
+  </si>
+  <si>
+    <t>model.CTmin.2.b</t>
+  </si>
+  <si>
+    <t>model.CTmin.5.b</t>
+  </si>
+  <si>
+    <t>model.CTmin.2</t>
+  </si>
+  <si>
+    <t>model.CTmin.5</t>
+  </si>
+  <si>
+    <t>model.CTmin.4.b</t>
+  </si>
+  <si>
+    <t>model.CTmin.4</t>
+  </si>
+  <si>
+    <t>model.CTmin.6.b</t>
+  </si>
+  <si>
+    <t>model.CTmin.0</t>
+  </si>
+  <si>
+    <t>model.CTmin.6</t>
+  </si>
+  <si>
+    <t>model.CTmax.3.b</t>
+  </si>
+  <si>
+    <t>model.CTmax.7.b</t>
+  </si>
+  <si>
+    <t>model.CTmax.3</t>
+  </si>
+  <si>
+    <t>model.CTmax.3.c</t>
+  </si>
+  <si>
+    <t>model.CTmax.7</t>
+  </si>
+  <si>
+    <t>model.CTmax.1.b</t>
+  </si>
+  <si>
+    <t>model.CTmax.1</t>
+  </si>
+  <si>
+    <t>model.CTmax.11</t>
+  </si>
+  <si>
+    <t>model.CTmax.10</t>
+  </si>
+  <si>
+    <t>model.CTmax.8</t>
+  </si>
+  <si>
+    <t>model.CTmax.9</t>
+  </si>
+  <si>
+    <t>model.CTmax.2.b</t>
+  </si>
+  <si>
+    <t>model.CTmax.2</t>
+  </si>
+  <si>
+    <t>model.CTmax.5.b</t>
+  </si>
+  <si>
+    <t>model.CTmax.5</t>
+  </si>
+  <si>
+    <t>model.CTmax.4.b</t>
+  </si>
+  <si>
+    <t>model.CTmax.4</t>
+  </si>
+  <si>
+    <t>model.CTmax.0</t>
+  </si>
+  <si>
+    <t>model.CTmax.6.b</t>
+  </si>
+  <si>
+    <t>model.CTmax.6</t>
+  </si>
+  <si>
+    <t>model.CTmax.0&lt;-lmer(temp_tolerance ~ 1  + (1|treatment:tank), data = data[data$Test== "CTmax", ], REML = FALSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.1&lt;-lmer(temp_tolerance ~ max.Env.Temp + (1|treatment:tank), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.1.b&lt;-lmer(temp_tolerance ~ max.Env.Temp + TL_mm + (1|treatment:tank), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.2&lt;-lmer(temp_tolerance ~ min.Env.Temp + (1|treatment:tank), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.2.b&lt;-lmer(temp_tolerance ~ min.Env.Temp + TL_mm + (1|treatment:tank), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.3&lt;-lmer(temp_tolerance ~ mean.Env.Temp + (1|treatment:tank), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  model.CTmax.3.b&lt;-lmer(temp_tolerance ~ mean.Env.Temp + TL_mm + (1|treatment:tank), data = data[data$Test== "CTmax", ], REML = FALSE) # best model revisions oct 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.3.c&lt;-lmer(temp_tolerance ~ mean.Env.Temp + TL_mm + delta.T + (1|treatment:tank), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.4&lt;-lmer(temp_tolerance ~ Temp_test_start + (1|treatment:tank), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.4.b&lt;-lmer(temp_tolerance ~ Temp_test_start + TL_mm + (1|treatment:tank), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.5&lt;-lmer(temp_tolerance ~ delta.T + (1|treatment:tank), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.5.b&lt;-lmer(temp_tolerance ~ delta.T + TL_mm + (1|treatment:tank), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.6&lt;-lmer(temp_tolerance ~ TimeDay2 + (1|treatment:tank), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.6.b&lt;-lmer(temp_tolerance ~ TimeDay2 + TL_mm + (1|treatment:tank), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.7&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + (1|treatment:tank), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.7.b&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + TL_mm + (1|treatment:tank), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.8&lt;-lmer(temp_tolerance ~ max.Env.Temp + Temp_test_start + (1|treatment:tank), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.9&lt;-lmer(temp_tolerance ~ delta.T + Temp_test_start + (1|treatment:tank), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmax.10&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + TimeDay2 + (1|treatment:tank), data = data[data$Test== "CTmax", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t>model.CTmax.11&lt;-lmer(temp_tolerance ~ max.Env.Temp + Temp_test_start + delta.T + (1|treatment:tank), data = data[data$Test== "CTmax", ], REML = FALSE)</t>
+  </si>
+  <si>
+    <t>model.CTmin.0&lt;-lmer(temp_tolerance ~ 1  +(1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.1&lt;-lmer(temp_tolerance ~ max.Env.Temp +(1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.b&lt;-lmer(temp_tolerance ~ max.Env.Temp + TL_mm +(1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.2&lt;-lmer(temp_tolerance ~ min.Env.Temp +(1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.2.b&lt;-lmer(temp_tolerance ~ min.Env.Temp + TL_mm +(1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.3&lt;-lmer(temp_tolerance ~ mean.Env.Temp +(1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.3.b&lt;-lmer(temp_tolerance ~ mean.Env.Temp +TL_mm + (1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.4&lt;-lmer(temp_tolerance ~ Temp_test_start +(1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.4.b&lt;-lmer(temp_tolerance ~ Temp_test_start + TL_mm +(1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.5&lt;-lmer(temp_tolerance ~ delta.T +(1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.5.b&lt;-lmer(temp_tolerance ~ delta.T + TL_mm +(1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.6&lt;-lmer(temp_tolerance ~ TimeDay2 +(1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.6.b&lt;-lmer(temp_tolerance ~ TimeDay2 + TL_mm +(1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.7&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + (1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.7.c&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + Stat_Var + (1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  model.CTmin.7.b&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + TL_mm + (1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE) # BEST final ms revisions oct 23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.7.d&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + TL_mm + Stat_Var + (1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.8&lt;-lmer(temp_tolerance ~ max.Env.Temp + Temp_test_start + (1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.9&lt;-lmer(temp_tolerance ~ delta.T + Temp_test_start + (1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model.CTmin.10&lt;-lmer(temp_tolerance ~ max.Env.Temp + delta.T + TimeDay2 + (1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE) </t>
+  </si>
+  <si>
+    <t>model.CTmin.11&lt;-lmer(temp_tolerance ~ max.Env.Temp + Temp_test_start + delta.T + (1|treatment:tank), data = data[data$Test== "CTmin", ], REML = FALSE)</t>
+  </si>
+  <si>
+    <t>Model name</t>
+  </si>
+  <si>
+    <t>k</t>
+  </si>
+  <si>
+    <t>BIC score</t>
+  </si>
+  <si>
+    <t>∆BIC</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>fixed effect</t>
+  </si>
+  <si>
+    <t>Chi square</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>P value</t>
+  </si>
+  <si>
+    <t>&lt; 2.20E-16</t>
+  </si>
+  <si>
+    <t>daily ∆T</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>daily max T</t>
+  </si>
+  <si>
+    <t>daily mean T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test if CTmin and CTmax increased with increasing static acclimation temperatures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test if CTmin and CTmax were different across any of the tests </t>
+  </si>
+  <si>
+    <t>Test what environmental temperature indices best explained CTmin and CTmax in acclimated and acclimatized fish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test to compare if CTmin and CTmax differed between field and lab tests </t>
+  </si>
+  <si>
+    <t>lmer(temp_tolerance ~  temp + TL_mm + (1|tank))</t>
+  </si>
+  <si>
+    <t>All CT tests (lab and field)</t>
+  </si>
+  <si>
+    <t>Dataset</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Hypothesis</t>
+  </si>
+  <si>
+    <t>Variable lab accliamtions and all field tests</t>
+  </si>
+  <si>
+    <t>Only static tretments</t>
+  </si>
+  <si>
+    <t>lmer(temp_tolerance ~ TL_mm + treatment + (1|tank))</t>
+  </si>
+  <si>
+    <t>lmer(temp_tolerance ~ Field_Lab + TL_mm + (1|treatment:tank))</t>
+  </si>
+  <si>
+    <t>lmer(temp_tolerance ~ max.Env.Temp + delta.T + TL_mm + (1|treatment:tank))</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> lmer(temp_tolerance ~ mean.Env.Temp + TL_mm + (1|treatment:tank))</t>
+  </si>
 </sst>
 </file>
 
@@ -603,7 +813,7 @@
     <numFmt numFmtId="165" formatCode="0.00000"/>
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -669,8 +879,21 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -755,8 +978,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="12">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -885,11 +1114,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -918,9 +1224,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
@@ -952,6 +1255,13 @@
     <xf numFmtId="165" fontId="1" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -985,16 +1295,49 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="9" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1370,25 +1713,25 @@
         <f>CONCATENATE(C3, " ",D3," ", E3)</f>
         <v>11.1 ± 4.7</v>
       </c>
-      <c r="I3" s="52" t="s">
+      <c r="I3" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="54" t="s">
+      <c r="J3" s="58" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="54" t="s">
+      <c r="L3" s="58" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="54" t="s">
+      <c r="N3" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="56" t="s">
+      <c r="O3" s="60" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1415,17 +1758,17 @@
         <f t="shared" ref="G4:G7" si="0">CONCATENATE(C4, " ",D4," ", E4)</f>
         <v>15.2 ± 1.54</v>
       </c>
-      <c r="I4" s="53"/>
-      <c r="J4" s="55"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="59"/>
       <c r="K4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="55"/>
+      <c r="L4" s="59"/>
       <c r="M4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="55"/>
-      <c r="O4" s="57"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="61"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -2031,10 +2374,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6B25FA-E12C-9342-968B-84F8C5E44A66}">
-  <dimension ref="B1:N50"/>
+  <dimension ref="B1:AA47"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:Z46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2043,341 +2386,1570 @@
     <col min="9" max="9" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="22" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="2" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="58" t="s">
+    <row r="1" spans="2:27" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="S2" s="82" t="s">
+        <v>117</v>
+      </c>
+      <c r="T2" s="82"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82" t="s">
+        <v>221</v>
+      </c>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="82"/>
+      <c r="AA2" s="72"/>
+    </row>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B3" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="20"/>
-      <c r="H3" s="60" t="s">
+      <c r="C3" s="68" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="70"/>
+      <c r="H3" s="64" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="59"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="20"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="20"/>
-      <c r="N4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C5" s="6"/>
-      <c r="F5" s="5"/>
-      <c r="I5" s="6"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C6" s="6"/>
-      <c r="F6" s="5"/>
-      <c r="I6" s="6"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="I7" s="6"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="I8" s="6"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="I9" s="6"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="I10" s="6"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="I11" s="6"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="I12" s="6"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="I13" s="6"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="I14" s="6"/>
-      <c r="L14" s="5"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="I15" s="6"/>
-      <c r="L15" s="5"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
-      <c r="C16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="I16" s="6"/>
-      <c r="L16" s="5"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="I17" s="6"/>
-      <c r="L17" s="5"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="I18" s="6"/>
-      <c r="L18" s="5"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="I19" s="6"/>
-      <c r="L19" s="5"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="I20" s="6"/>
-      <c r="L20" s="5"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="I21" s="6"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="I22" s="6"/>
-      <c r="L22" s="5"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="I23" s="6"/>
-      <c r="L23" s="5"/>
-    </row>
-    <row r="24" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="6"/>
-      <c r="F24" s="5"/>
+      <c r="I3" s="68" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="S3" s="81" t="s">
+        <v>217</v>
+      </c>
+      <c r="T3" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="U3" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="V3" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="W3" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="X3" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y3" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z3" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA3" s="72"/>
+    </row>
+    <row r="4" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="71"/>
+      <c r="C4" s="31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="31">
+        <v>6</v>
+      </c>
+      <c r="E4" s="31">
+        <v>855.82690000000002</v>
+      </c>
+      <c r="F4" s="31">
+        <v>0</v>
+      </c>
+      <c r="H4" s="65"/>
+      <c r="I4" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" s="31">
+        <v>5</v>
+      </c>
+      <c r="K4" s="31">
+        <v>684.74069999999995</v>
+      </c>
+      <c r="L4" s="31">
+        <v>0</v>
+      </c>
+      <c r="S4" s="74" t="s">
+        <v>135</v>
+      </c>
+      <c r="T4" s="74">
+        <v>6</v>
+      </c>
+      <c r="U4" s="74">
+        <v>855.82690000000002</v>
+      </c>
+      <c r="V4" s="75">
+        <v>0</v>
+      </c>
+      <c r="W4" s="74" t="s">
+        <v>229</v>
+      </c>
+      <c r="X4" s="74">
+        <v>71.6126</v>
+      </c>
+      <c r="Y4" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="78" t="s">
+        <v>226</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C5" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="31">
+        <v>5</v>
+      </c>
+      <c r="E5" s="31">
+        <v>857.92470000000003</v>
+      </c>
+      <c r="F5" s="31">
+        <v>2.0977800000000002</v>
+      </c>
+      <c r="I5" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="J5" s="31">
+        <v>6</v>
+      </c>
+      <c r="K5" s="31">
+        <v>685.67290000000003</v>
+      </c>
+      <c r="L5" s="31">
+        <v>0.93225000000000002</v>
+      </c>
+      <c r="S5" s="73" t="s">
+        <v>136</v>
+      </c>
+      <c r="T5" s="73">
+        <v>5</v>
+      </c>
+      <c r="U5" s="73">
+        <v>857.92470000000003</v>
+      </c>
+      <c r="V5" s="76">
+        <v>2.0977800000000002</v>
+      </c>
+      <c r="W5" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="X5" s="74">
+        <v>8.9544999999999995</v>
+      </c>
+      <c r="Y5" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="79">
+        <v>2.7680000000000001E-3</v>
+      </c>
+      <c r="AA5" s="72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C6" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="D6" s="31">
+        <v>5</v>
+      </c>
+      <c r="E6" s="31">
+        <v>858.57420000000002</v>
+      </c>
+      <c r="F6" s="31">
+        <v>2.74729</v>
+      </c>
+      <c r="I6" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="J6" s="31">
+        <v>4</v>
+      </c>
+      <c r="K6" s="31">
+        <v>687.50440000000003</v>
+      </c>
+      <c r="L6" s="31">
+        <v>2.7637499999999999</v>
+      </c>
+      <c r="S6" s="73" t="s">
+        <v>137</v>
+      </c>
+      <c r="T6" s="73">
+        <v>5</v>
+      </c>
+      <c r="U6" s="73">
+        <v>858.57420000000002</v>
+      </c>
+      <c r="V6" s="76">
+        <v>2.74729</v>
+      </c>
+      <c r="W6" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="X6" s="74">
+        <v>7.7394999999999996</v>
+      </c>
+      <c r="Y6" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="79">
+        <v>5.4019999999999997E-3</v>
+      </c>
+      <c r="AA6" s="72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C7" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="31">
+        <v>7</v>
+      </c>
+      <c r="E7" s="31">
+        <v>859.85559999999998</v>
+      </c>
+      <c r="F7" s="31">
+        <v>4.0287499999999996</v>
+      </c>
+      <c r="I7" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="J7" s="31">
+        <v>6</v>
+      </c>
+      <c r="K7" s="31">
+        <v>688.14149999999995</v>
+      </c>
+      <c r="L7" s="31">
+        <v>3.4007900000000002</v>
+      </c>
+      <c r="S7" s="73" t="s">
+        <v>138</v>
+      </c>
+      <c r="T7" s="73">
+        <v>7</v>
+      </c>
+      <c r="U7" s="73">
+        <v>859.85559999999998</v>
+      </c>
+      <c r="V7" s="73">
+        <v>4.0287499999999996</v>
+      </c>
+      <c r="W7" s="84"/>
+      <c r="X7" s="84"/>
+      <c r="Y7" s="84"/>
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="72"/>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C8" s="31" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="31">
+        <v>5</v>
+      </c>
+      <c r="E8" s="31">
+        <v>862.75229999999999</v>
+      </c>
+      <c r="F8" s="31">
+        <v>6.9254499999999997</v>
+      </c>
+      <c r="I8" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="J8" s="31">
+        <v>5</v>
+      </c>
+      <c r="K8" s="31">
+        <v>688.94370000000004</v>
+      </c>
+      <c r="L8" s="31">
+        <v>4.2030399999999997</v>
+      </c>
+      <c r="S8" s="73" t="s">
+        <v>139</v>
+      </c>
+      <c r="T8" s="73">
+        <v>5</v>
+      </c>
+      <c r="U8" s="73">
+        <v>862.75229999999999</v>
+      </c>
+      <c r="V8" s="73">
+        <v>6.9254499999999997</v>
+      </c>
+      <c r="W8" s="84"/>
+      <c r="X8" s="84"/>
+      <c r="Y8" s="84"/>
+      <c r="Z8" s="85"/>
+      <c r="AA8" s="72"/>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C9" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="31">
+        <v>5</v>
+      </c>
+      <c r="E9" s="31">
+        <v>863.49450000000002</v>
+      </c>
+      <c r="F9" s="31">
+        <v>7.6676500000000001</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" s="31">
+        <v>5</v>
+      </c>
+      <c r="K9" s="31">
+        <v>689.17740000000003</v>
+      </c>
+      <c r="L9" s="31">
+        <v>4.4367799999999997</v>
+      </c>
+      <c r="S9" s="73" t="s">
+        <v>140</v>
+      </c>
+      <c r="T9" s="73">
+        <v>5</v>
+      </c>
+      <c r="U9" s="73">
+        <v>863.49450000000002</v>
+      </c>
+      <c r="V9" s="73">
+        <v>7.6676500000000001</v>
+      </c>
+      <c r="W9" s="84"/>
+      <c r="X9" s="84"/>
+      <c r="Y9" s="84"/>
+      <c r="Z9" s="85"/>
+      <c r="AA9" s="72"/>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C10" s="31" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" s="31">
+        <v>6</v>
+      </c>
+      <c r="E10" s="31">
+        <v>864.37549999999999</v>
+      </c>
+      <c r="F10" s="31">
+        <v>8.5486500000000003</v>
+      </c>
+      <c r="I10" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" s="31">
+        <v>4</v>
+      </c>
+      <c r="K10" s="31">
+        <v>691.98140000000001</v>
+      </c>
+      <c r="L10" s="31">
+        <v>7.24078</v>
+      </c>
+      <c r="S10" s="73" t="s">
+        <v>141</v>
+      </c>
+      <c r="T10" s="73">
+        <v>6</v>
+      </c>
+      <c r="U10" s="73">
+        <v>864.37549999999999</v>
+      </c>
+      <c r="V10" s="73">
+        <v>8.5486500000000003</v>
+      </c>
+      <c r="W10" s="84"/>
+      <c r="X10" s="84"/>
+      <c r="Y10" s="84"/>
+      <c r="Z10" s="85"/>
+      <c r="AA10" s="72"/>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C11" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="31">
+        <v>4</v>
+      </c>
+      <c r="E11" s="31">
+        <v>865.91499999999996</v>
+      </c>
+      <c r="F11" s="31">
+        <v>10.08808</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11" s="31">
+        <v>6</v>
+      </c>
+      <c r="K11" s="31">
+        <v>693.92909999999995</v>
+      </c>
+      <c r="L11" s="31">
+        <v>9.1884599999999992</v>
+      </c>
+      <c r="S11" s="73" t="s">
+        <v>142</v>
+      </c>
+      <c r="T11" s="73">
+        <v>4</v>
+      </c>
+      <c r="U11" s="73">
+        <v>865.91499999999996</v>
+      </c>
+      <c r="V11" s="73">
+        <v>10.08808</v>
+      </c>
+      <c r="W11" s="84"/>
+      <c r="X11" s="84"/>
+      <c r="Y11" s="84"/>
+      <c r="Z11" s="85"/>
+      <c r="AA11" s="72"/>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C12" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="31">
+        <v>6</v>
+      </c>
+      <c r="E12" s="31">
+        <v>866.14620000000002</v>
+      </c>
+      <c r="F12" s="31">
+        <v>10.31935</v>
+      </c>
+      <c r="I12" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="J12" s="31">
+        <v>6</v>
+      </c>
+      <c r="K12" s="31">
+        <v>694.19780000000003</v>
+      </c>
+      <c r="L12" s="31">
+        <v>9.4571699999999996</v>
+      </c>
+      <c r="S12" s="73" t="s">
+        <v>143</v>
+      </c>
+      <c r="T12" s="73">
+        <v>6</v>
+      </c>
+      <c r="U12" s="73">
+        <v>866.14620000000002</v>
+      </c>
+      <c r="V12" s="73">
+        <v>10.31935</v>
+      </c>
+      <c r="W12" s="84"/>
+      <c r="X12" s="84"/>
+      <c r="Y12" s="84"/>
+      <c r="Z12" s="85"/>
+      <c r="AA12" s="72"/>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C13" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="31">
+        <v>6</v>
+      </c>
+      <c r="E13" s="31">
+        <v>867.15480000000002</v>
+      </c>
+      <c r="F13" s="31">
+        <v>11.3279</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="J13" s="31">
+        <v>5</v>
+      </c>
+      <c r="K13" s="31">
+        <v>695.87909999999999</v>
+      </c>
+      <c r="L13" s="31">
+        <v>11.138439999999999</v>
+      </c>
+      <c r="S13" s="73" t="s">
+        <v>144</v>
+      </c>
+      <c r="T13" s="73">
+        <v>6</v>
+      </c>
+      <c r="U13" s="73">
+        <v>867.15480000000002</v>
+      </c>
+      <c r="V13" s="73">
+        <v>11.3279</v>
+      </c>
+      <c r="W13" s="84"/>
+      <c r="X13" s="84"/>
+      <c r="Y13" s="84"/>
+      <c r="Z13" s="85"/>
+      <c r="AA13" s="72"/>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C14" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="31">
+        <v>4</v>
+      </c>
+      <c r="E14" s="31">
+        <v>867.51120000000003</v>
+      </c>
+      <c r="F14" s="31">
+        <v>11.68431</v>
+      </c>
+      <c r="I14" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="31">
+        <v>5</v>
+      </c>
+      <c r="K14" s="31">
+        <v>703.78620000000001</v>
+      </c>
+      <c r="L14" s="31">
+        <v>19.045549999999999</v>
+      </c>
+      <c r="S14" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="T14" s="73">
+        <v>4</v>
+      </c>
+      <c r="U14" s="73">
+        <v>867.51120000000003</v>
+      </c>
+      <c r="V14" s="73">
+        <v>11.68431</v>
+      </c>
+      <c r="W14" s="84"/>
+      <c r="X14" s="84"/>
+      <c r="Y14" s="84"/>
+      <c r="Z14" s="85"/>
+      <c r="AA14" s="72"/>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C15" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="31">
+        <v>5</v>
+      </c>
+      <c r="E15" s="31">
+        <v>872.45429999999999</v>
+      </c>
+      <c r="F15" s="31">
+        <v>16.627389999999998</v>
+      </c>
+      <c r="I15" s="31" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" s="31">
+        <v>5</v>
+      </c>
+      <c r="K15" s="31">
+        <v>706.75800000000004</v>
+      </c>
+      <c r="L15" s="31">
+        <v>22.017330000000001</v>
+      </c>
+      <c r="S15" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="T15" s="73">
+        <v>5</v>
+      </c>
+      <c r="U15" s="73">
+        <v>872.45429999999999</v>
+      </c>
+      <c r="V15" s="73">
+        <v>16.627389999999998</v>
+      </c>
+      <c r="W15" s="84"/>
+      <c r="X15" s="84"/>
+      <c r="Y15" s="84"/>
+      <c r="Z15" s="85"/>
+      <c r="AA15" s="72"/>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C16" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D16" s="31">
+        <v>5</v>
+      </c>
+      <c r="E16" s="31">
+        <v>883.8442</v>
+      </c>
+      <c r="F16" s="31">
+        <v>28.017320000000002</v>
+      </c>
+      <c r="I16" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="J16" s="31">
+        <v>4</v>
+      </c>
+      <c r="K16" s="31">
+        <v>709.67359999999996</v>
+      </c>
+      <c r="L16" s="31">
+        <v>24.93289</v>
+      </c>
+      <c r="S16" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="T16" s="73">
+        <v>5</v>
+      </c>
+      <c r="U16" s="73">
+        <v>883.8442</v>
+      </c>
+      <c r="V16" s="73">
+        <v>28.017320000000002</v>
+      </c>
+      <c r="W16" s="84"/>
+      <c r="X16" s="84"/>
+      <c r="Y16" s="84"/>
+      <c r="Z16" s="85"/>
+      <c r="AA16" s="72"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C17" s="31" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" s="31">
+        <v>5</v>
+      </c>
+      <c r="E17" s="31">
+        <v>884.77440000000001</v>
+      </c>
+      <c r="F17" s="31">
+        <v>28.94755</v>
+      </c>
+      <c r="I17" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" s="31">
+        <v>5</v>
+      </c>
+      <c r="K17" s="31">
+        <v>711.78440000000001</v>
+      </c>
+      <c r="L17" s="31">
+        <v>27.04372</v>
+      </c>
+      <c r="S17" s="73" t="s">
+        <v>148</v>
+      </c>
+      <c r="T17" s="73">
+        <v>5</v>
+      </c>
+      <c r="U17" s="73">
+        <v>884.77440000000001</v>
+      </c>
+      <c r="V17" s="73">
+        <v>28.94755</v>
+      </c>
+      <c r="W17" s="84"/>
+      <c r="X17" s="84"/>
+      <c r="Y17" s="84"/>
+      <c r="Z17" s="85"/>
+      <c r="AA17" s="72"/>
+    </row>
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C18" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="D18" s="31">
+        <v>4</v>
+      </c>
+      <c r="E18" s="31">
+        <v>891.43230000000005</v>
+      </c>
+      <c r="F18" s="31">
+        <v>35.605409999999999</v>
+      </c>
+      <c r="I18" s="31" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" s="31">
+        <v>4</v>
+      </c>
+      <c r="K18" s="31">
+        <v>714.57079999999996</v>
+      </c>
+      <c r="L18" s="31">
+        <v>29.830159999999999</v>
+      </c>
+      <c r="S18" s="73" t="s">
+        <v>149</v>
+      </c>
+      <c r="T18" s="73">
+        <v>4</v>
+      </c>
+      <c r="U18" s="73">
+        <v>891.43230000000005</v>
+      </c>
+      <c r="V18" s="73">
+        <v>35.605409999999999</v>
+      </c>
+      <c r="W18" s="84"/>
+      <c r="X18" s="84"/>
+      <c r="Y18" s="84"/>
+      <c r="Z18" s="85"/>
+      <c r="AA18" s="72"/>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C19" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="D19" s="31">
+        <v>4</v>
+      </c>
+      <c r="E19" s="31">
+        <v>893.22180000000003</v>
+      </c>
+      <c r="F19" s="31">
+        <v>37.394889999999997</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="J19" s="31">
+        <v>5</v>
+      </c>
+      <c r="K19" s="31">
+        <v>757.33140000000003</v>
+      </c>
+      <c r="L19" s="31">
+        <v>72.590689999999995</v>
+      </c>
+      <c r="S19" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="T19" s="73">
+        <v>4</v>
+      </c>
+      <c r="U19" s="73">
+        <v>893.22180000000003</v>
+      </c>
+      <c r="V19" s="73">
+        <v>37.394889999999997</v>
+      </c>
+      <c r="W19" s="84"/>
+      <c r="X19" s="84"/>
+      <c r="Y19" s="84"/>
+      <c r="Z19" s="85"/>
+      <c r="AA19" s="72"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C20" s="31" t="s">
+        <v>151</v>
+      </c>
+      <c r="D20" s="31">
+        <v>5</v>
+      </c>
+      <c r="E20" s="31">
+        <v>896.13520000000005</v>
+      </c>
+      <c r="F20" s="31">
+        <v>40.308300000000003</v>
+      </c>
+      <c r="I20" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" s="31">
+        <v>4</v>
+      </c>
+      <c r="K20" s="31">
+        <v>759.66959999999995</v>
+      </c>
+      <c r="L20" s="31">
+        <v>74.928899999999999</v>
+      </c>
+      <c r="S20" s="73" t="s">
+        <v>151</v>
+      </c>
+      <c r="T20" s="73">
+        <v>5</v>
+      </c>
+      <c r="U20" s="73">
+        <v>896.13520000000005</v>
+      </c>
+      <c r="V20" s="73">
+        <v>40.308300000000003</v>
+      </c>
+      <c r="W20" s="84"/>
+      <c r="X20" s="84"/>
+      <c r="Y20" s="84"/>
+      <c r="Z20" s="85"/>
+      <c r="AA20" s="72"/>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C21" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D21" s="31">
+        <v>4</v>
+      </c>
+      <c r="E21" s="31">
+        <v>901.60680000000002</v>
+      </c>
+      <c r="F21" s="31">
+        <v>45.779890000000002</v>
+      </c>
+      <c r="I21" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="J21" s="31">
+        <v>3</v>
+      </c>
+      <c r="K21" s="31">
+        <v>771.27470000000005</v>
+      </c>
+      <c r="L21" s="31">
+        <v>86.534059999999997</v>
+      </c>
+      <c r="S21" s="73" t="s">
+        <v>152</v>
+      </c>
+      <c r="T21" s="73">
+        <v>4</v>
+      </c>
+      <c r="U21" s="73">
+        <v>901.60680000000002</v>
+      </c>
+      <c r="V21" s="73">
+        <v>45.779890000000002</v>
+      </c>
+      <c r="W21" s="84"/>
+      <c r="X21" s="84"/>
+      <c r="Y21" s="84"/>
+      <c r="Z21" s="85"/>
+      <c r="AA21" s="72"/>
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C22" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="D22" s="31">
+        <v>5</v>
+      </c>
+      <c r="E22" s="31">
+        <v>922.71190000000001</v>
+      </c>
+      <c r="F22" s="31">
+        <v>66.884960000000007</v>
+      </c>
+      <c r="I22" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" s="31">
+        <v>5</v>
+      </c>
+      <c r="K22" s="31">
+        <v>773.71939999999995</v>
+      </c>
+      <c r="L22" s="31">
+        <v>88.97869</v>
+      </c>
+      <c r="S22" s="73" t="s">
+        <v>153</v>
+      </c>
+      <c r="T22" s="73">
+        <v>5</v>
+      </c>
+      <c r="U22" s="73">
+        <v>922.71190000000001</v>
+      </c>
+      <c r="V22" s="73">
+        <v>66.884960000000007</v>
+      </c>
+      <c r="W22" s="84"/>
+      <c r="X22" s="84"/>
+      <c r="Y22" s="84"/>
+      <c r="Z22" s="85"/>
+      <c r="AA22" s="72"/>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C23" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" s="31">
+        <v>3</v>
+      </c>
+      <c r="E23" s="31">
+        <v>926.5367</v>
+      </c>
+      <c r="F23" s="31">
+        <v>70.709760000000003</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="J23" s="31">
+        <v>4</v>
+      </c>
+      <c r="K23" s="31">
+        <v>776.12400000000002</v>
+      </c>
+      <c r="L23" s="31">
+        <v>91.383290000000002</v>
+      </c>
+      <c r="S23" s="73" t="s">
+        <v>154</v>
+      </c>
+      <c r="T23" s="73">
+        <v>3</v>
+      </c>
+      <c r="U23" s="73">
+        <v>926.5367</v>
+      </c>
+      <c r="V23" s="73">
+        <v>70.709760000000003</v>
+      </c>
+      <c r="W23" s="84"/>
+      <c r="X23" s="84"/>
+      <c r="Y23" s="84"/>
+      <c r="Z23" s="85"/>
+      <c r="AA23" s="72"/>
+    </row>
+    <row r="24" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="31" t="s">
+        <v>155</v>
+      </c>
+      <c r="D24" s="31">
+        <v>4</v>
+      </c>
+      <c r="E24" s="31">
+        <v>931.95799999999997</v>
+      </c>
+      <c r="F24" s="31">
+        <v>76.131079999999997</v>
+      </c>
       <c r="I24" s="7"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9"/>
-    </row>
-    <row r="25" spans="3:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="7"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="9"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C27" t="s">
-        <v>80</v>
-      </c>
-      <c r="I27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C28" t="s">
-        <v>81</v>
-      </c>
-      <c r="I28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C29" t="s">
-        <v>82</v>
-      </c>
-      <c r="I29" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
-        <v>83</v>
-      </c>
-      <c r="I30" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C31" t="s">
-        <v>84</v>
-      </c>
-      <c r="I31" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
-      <c r="C32" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="33" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
-        <v>86</v>
-      </c>
-      <c r="I33" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="34" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>87</v>
-      </c>
-      <c r="I34" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
-        <v>88</v>
-      </c>
-      <c r="I35" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C36" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C37" t="s">
-        <v>90</v>
-      </c>
-      <c r="I37" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C38" t="s">
-        <v>91</v>
-      </c>
-      <c r="I38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C39" t="s">
-        <v>92</v>
-      </c>
-      <c r="I39" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="I40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C41" t="s">
-        <v>93</v>
-      </c>
-      <c r="I41" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>94</v>
-      </c>
-      <c r="I42" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C44" t="s">
-        <v>96</v>
-      </c>
-      <c r="I44" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="I45" t="s">
+      <c r="S24" s="83" t="s">
+        <v>155</v>
+      </c>
+      <c r="T24" s="83">
+        <v>4</v>
+      </c>
+      <c r="U24" s="83">
+        <v>931.95799999999997</v>
+      </c>
+      <c r="V24" s="83">
+        <v>76.131079999999997</v>
+      </c>
+      <c r="W24" s="84"/>
+      <c r="X24" s="84"/>
+      <c r="Y24" s="84"/>
+      <c r="Z24" s="85"/>
+      <c r="AA24" s="72"/>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="S25" s="82" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C46" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C47" t="s">
-        <v>98</v>
-      </c>
-      <c r="I47" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C48" t="s">
-        <v>99</v>
-      </c>
-      <c r="I48" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="49" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="C49" t="s">
-        <v>100</v>
-      </c>
-      <c r="I49" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="50" spans="3:9" x14ac:dyDescent="0.2">
-      <c r="I50" t="s">
-        <v>120</v>
+      <c r="T25" s="82"/>
+      <c r="U25" s="82"/>
+      <c r="V25" s="82"/>
+      <c r="W25" s="82" t="s">
+        <v>221</v>
+      </c>
+      <c r="X25" s="82"/>
+      <c r="Y25" s="82"/>
+      <c r="Z25" s="82"/>
+      <c r="AA25" s="72"/>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="S26" s="81" t="s">
+        <v>217</v>
+      </c>
+      <c r="T26" s="81" t="s">
+        <v>218</v>
+      </c>
+      <c r="U26" s="81" t="s">
+        <v>219</v>
+      </c>
+      <c r="V26" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="W26" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="X26" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y26" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z26" s="77" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA26" s="72"/>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C27" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="I27" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="S27" s="74" t="s">
+        <v>156</v>
+      </c>
+      <c r="T27" s="74">
+        <v>5</v>
+      </c>
+      <c r="U27" s="74">
+        <v>684.74069999999995</v>
+      </c>
+      <c r="V27" s="75">
+        <v>0</v>
+      </c>
+      <c r="W27" s="74" t="s">
+        <v>230</v>
+      </c>
+      <c r="X27" s="74">
+        <v>54.679499999999997</v>
+      </c>
+      <c r="Y27" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="80">
+        <v>1.4190000000000001E-13</v>
+      </c>
+      <c r="AA27" s="72"/>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C28" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="I28" s="43" t="s">
+        <v>177</v>
+      </c>
+      <c r="S28" s="73" t="s">
+        <v>157</v>
+      </c>
+      <c r="T28" s="73">
+        <v>6</v>
+      </c>
+      <c r="U28" s="73">
+        <v>685.67290000000003</v>
+      </c>
+      <c r="V28" s="76">
+        <v>0.93225000000000002</v>
+      </c>
+      <c r="W28" s="74" t="s">
+        <v>228</v>
+      </c>
+      <c r="X28" s="74">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="Y28" s="74">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="74">
+        <v>0.7843</v>
+      </c>
+      <c r="AA28" s="72"/>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C29" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>178</v>
+      </c>
+      <c r="S29" s="73" t="s">
+        <v>158</v>
+      </c>
+      <c r="T29" s="73">
+        <v>4</v>
+      </c>
+      <c r="U29" s="73">
+        <v>687.50440000000003</v>
+      </c>
+      <c r="V29" s="73">
+        <v>2.7637499999999999</v>
+      </c>
+      <c r="W29" s="84"/>
+      <c r="X29" s="84"/>
+      <c r="Y29" s="84"/>
+      <c r="Z29" s="85"/>
+      <c r="AA29" s="72"/>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C30" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="I30" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="S30" s="73" t="s">
+        <v>159</v>
+      </c>
+      <c r="T30" s="73">
+        <v>6</v>
+      </c>
+      <c r="U30" s="73">
+        <v>688.14149999999995</v>
+      </c>
+      <c r="V30" s="73">
+        <v>3.4007900000000002</v>
+      </c>
+      <c r="W30" s="84"/>
+      <c r="X30" s="84"/>
+      <c r="Y30" s="84"/>
+      <c r="Z30" s="85"/>
+      <c r="AA30" s="72"/>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C31" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="I31" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="S31" s="73" t="s">
+        <v>160</v>
+      </c>
+      <c r="T31" s="73">
+        <v>5</v>
+      </c>
+      <c r="U31" s="73">
+        <v>688.94370000000004</v>
+      </c>
+      <c r="V31" s="73">
+        <v>4.2030399999999997</v>
+      </c>
+      <c r="W31" s="84"/>
+      <c r="X31" s="84"/>
+      <c r="Y31" s="84"/>
+      <c r="Z31" s="85"/>
+      <c r="AA31" s="72"/>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C32" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="I32" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="S32" s="73" t="s">
+        <v>161</v>
+      </c>
+      <c r="T32" s="73">
+        <v>5</v>
+      </c>
+      <c r="U32" s="73">
+        <v>689.17740000000003</v>
+      </c>
+      <c r="V32" s="73">
+        <v>4.4367799999999997</v>
+      </c>
+      <c r="W32" s="84"/>
+      <c r="X32" s="84"/>
+      <c r="Y32" s="84"/>
+      <c r="Z32" s="85"/>
+      <c r="AA32" s="72"/>
+    </row>
+    <row r="33" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C33" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="I33" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="S33" s="73" t="s">
+        <v>162</v>
+      </c>
+      <c r="T33" s="73">
+        <v>4</v>
+      </c>
+      <c r="U33" s="73">
+        <v>691.98140000000001</v>
+      </c>
+      <c r="V33" s="73">
+        <v>7.24078</v>
+      </c>
+      <c r="W33" s="84"/>
+      <c r="X33" s="84"/>
+      <c r="Y33" s="84"/>
+      <c r="Z33" s="85"/>
+      <c r="AA33" s="72"/>
+    </row>
+    <row r="34" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C34" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="I34" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="S34" s="73" t="s">
+        <v>163</v>
+      </c>
+      <c r="T34" s="73">
+        <v>6</v>
+      </c>
+      <c r="U34" s="73">
+        <v>693.92909999999995</v>
+      </c>
+      <c r="V34" s="73">
+        <v>9.1884599999999992</v>
+      </c>
+      <c r="W34" s="84"/>
+      <c r="X34" s="84"/>
+      <c r="Y34" s="84"/>
+      <c r="Z34" s="85"/>
+      <c r="AA34" s="72"/>
+    </row>
+    <row r="35" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C35" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="I35" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="S35" s="73" t="s">
+        <v>164</v>
+      </c>
+      <c r="T35" s="73">
+        <v>6</v>
+      </c>
+      <c r="U35" s="73">
+        <v>694.19780000000003</v>
+      </c>
+      <c r="V35" s="73">
+        <v>9.4571699999999996</v>
+      </c>
+      <c r="W35" s="84"/>
+      <c r="X35" s="84"/>
+      <c r="Y35" s="84"/>
+      <c r="Z35" s="85"/>
+      <c r="AA35" s="72"/>
+    </row>
+    <row r="36" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C36" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="I36" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="S36" s="73" t="s">
+        <v>165</v>
+      </c>
+      <c r="T36" s="73">
+        <v>5</v>
+      </c>
+      <c r="U36" s="73">
+        <v>695.87909999999999</v>
+      </c>
+      <c r="V36" s="73">
+        <v>11.138439999999999</v>
+      </c>
+      <c r="W36" s="84"/>
+      <c r="X36" s="84"/>
+      <c r="Y36" s="84"/>
+      <c r="Z36" s="85"/>
+      <c r="AA36" s="72"/>
+    </row>
+    <row r="37" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C37" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>186</v>
+      </c>
+      <c r="S37" s="73" t="s">
+        <v>166</v>
+      </c>
+      <c r="T37" s="73">
+        <v>5</v>
+      </c>
+      <c r="U37" s="73">
+        <v>703.78620000000001</v>
+      </c>
+      <c r="V37" s="73">
+        <v>19.045549999999999</v>
+      </c>
+      <c r="W37" s="84"/>
+      <c r="X37" s="84"/>
+      <c r="Y37" s="84"/>
+      <c r="Z37" s="85"/>
+      <c r="AA37" s="72"/>
+    </row>
+    <row r="38" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C38" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="I38" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="S38" s="73" t="s">
+        <v>167</v>
+      </c>
+      <c r="T38" s="73">
+        <v>5</v>
+      </c>
+      <c r="U38" s="73">
+        <v>706.75800000000004</v>
+      </c>
+      <c r="V38" s="73">
+        <v>22.017330000000001</v>
+      </c>
+      <c r="W38" s="84"/>
+      <c r="X38" s="84"/>
+      <c r="Y38" s="84"/>
+      <c r="Z38" s="85"/>
+      <c r="AA38" s="72"/>
+    </row>
+    <row r="39" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C39" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="I39" s="43" t="s">
+        <v>188</v>
+      </c>
+      <c r="S39" s="73" t="s">
+        <v>168</v>
+      </c>
+      <c r="T39" s="73">
+        <v>4</v>
+      </c>
+      <c r="U39" s="73">
+        <v>709.67359999999996</v>
+      </c>
+      <c r="V39" s="73">
+        <v>24.93289</v>
+      </c>
+      <c r="W39" s="84"/>
+      <c r="X39" s="84"/>
+      <c r="Y39" s="84"/>
+      <c r="Z39" s="85"/>
+      <c r="AA39" s="72"/>
+    </row>
+    <row r="40" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C40" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="I40" s="43" t="s">
+        <v>189</v>
+      </c>
+      <c r="S40" s="73" t="s">
+        <v>169</v>
+      </c>
+      <c r="T40" s="73">
+        <v>5</v>
+      </c>
+      <c r="U40" s="73">
+        <v>711.78440000000001</v>
+      </c>
+      <c r="V40" s="73">
+        <v>27.04372</v>
+      </c>
+      <c r="W40" s="84"/>
+      <c r="X40" s="84"/>
+      <c r="Y40" s="84"/>
+      <c r="Z40" s="85"/>
+      <c r="AA40" s="72"/>
+    </row>
+    <row r="41" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C41" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="I41" s="43" t="s">
+        <v>190</v>
+      </c>
+      <c r="S41" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="T41" s="73">
+        <v>4</v>
+      </c>
+      <c r="U41" s="73">
+        <v>714.57079999999996</v>
+      </c>
+      <c r="V41" s="73">
+        <v>29.830159999999999</v>
+      </c>
+      <c r="W41" s="84"/>
+      <c r="X41" s="84"/>
+      <c r="Y41" s="84"/>
+      <c r="Z41" s="85"/>
+      <c r="AA41" s="72"/>
+    </row>
+    <row r="42" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C42" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="I42" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="S42" s="73" t="s">
+        <v>171</v>
+      </c>
+      <c r="T42" s="73">
+        <v>5</v>
+      </c>
+      <c r="U42" s="73">
+        <v>757.33140000000003</v>
+      </c>
+      <c r="V42" s="73">
+        <v>72.590689999999995</v>
+      </c>
+      <c r="W42" s="84"/>
+      <c r="X42" s="84"/>
+      <c r="Y42" s="84"/>
+      <c r="Z42" s="85"/>
+      <c r="AA42" s="72"/>
+    </row>
+    <row r="43" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C43" s="67" t="s">
+        <v>212</v>
+      </c>
+      <c r="I43" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="S43" s="73" t="s">
+        <v>172</v>
+      </c>
+      <c r="T43" s="73">
+        <v>4</v>
+      </c>
+      <c r="U43" s="73">
+        <v>759.66959999999995</v>
+      </c>
+      <c r="V43" s="73">
+        <v>74.928899999999999</v>
+      </c>
+      <c r="W43" s="84"/>
+      <c r="X43" s="84"/>
+      <c r="Y43" s="84"/>
+      <c r="Z43" s="85"/>
+      <c r="AA43" s="72"/>
+    </row>
+    <row r="44" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C44" s="67" t="s">
+        <v>213</v>
+      </c>
+      <c r="I44" s="43" t="s">
+        <v>193</v>
+      </c>
+      <c r="S44" s="73" t="s">
+        <v>173</v>
+      </c>
+      <c r="T44" s="73">
+        <v>3</v>
+      </c>
+      <c r="U44" s="73">
+        <v>771.27470000000005</v>
+      </c>
+      <c r="V44" s="73">
+        <v>86.534059999999997</v>
+      </c>
+      <c r="W44" s="84"/>
+      <c r="X44" s="84"/>
+      <c r="Y44" s="84"/>
+      <c r="Z44" s="85"/>
+      <c r="AA44" s="72"/>
+    </row>
+    <row r="45" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C45" s="67" t="s">
+        <v>214</v>
+      </c>
+      <c r="I45" s="43" t="s">
+        <v>194</v>
+      </c>
+      <c r="S45" s="73" t="s">
+        <v>174</v>
+      </c>
+      <c r="T45" s="73">
+        <v>5</v>
+      </c>
+      <c r="U45" s="73">
+        <v>773.71939999999995</v>
+      </c>
+      <c r="V45" s="73">
+        <v>88.97869</v>
+      </c>
+      <c r="W45" s="84"/>
+      <c r="X45" s="84"/>
+      <c r="Y45" s="84"/>
+      <c r="Z45" s="85"/>
+      <c r="AA45" s="72"/>
+    </row>
+    <row r="46" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C46" s="67" t="s">
+        <v>215</v>
+      </c>
+      <c r="I46" s="43" t="s">
+        <v>195</v>
+      </c>
+      <c r="S46" s="73" t="s">
+        <v>175</v>
+      </c>
+      <c r="T46" s="73">
+        <v>4</v>
+      </c>
+      <c r="U46" s="73">
+        <v>776.12400000000002</v>
+      </c>
+      <c r="V46" s="73">
+        <v>91.383290000000002</v>
+      </c>
+      <c r="W46" s="86"/>
+      <c r="X46" s="86"/>
+      <c r="Y46" s="86"/>
+      <c r="Z46" s="87"/>
+    </row>
+    <row r="47" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C47" s="67" t="s">
+        <v>216</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="8">
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="W25:Z25"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="H3:H4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="S2:V2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2385,10 +3957,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255BB1AB-E722-C344-8E9D-48658E19A72C}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2399,40 +3971,90 @@
     <col min="10" max="10" width="14.1640625" customWidth="1"/>
     <col min="11" max="11" width="4.33203125" customWidth="1"/>
     <col min="12" max="12" width="14.5" customWidth="1"/>
-    <col min="23" max="23" width="15.6640625" customWidth="1"/>
+    <col min="13" max="13" width="3.5" customWidth="1"/>
+    <col min="14" max="14" width="0.1640625" customWidth="1"/>
+    <col min="15" max="15" width="10.83203125" customWidth="1"/>
+    <col min="16" max="16" width="37.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.6640625" customWidth="1"/>
+    <col min="19" max="19" width="21.5" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="38" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:19" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="51" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="58" t="s">
+      <c r="B1" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="P1" s="88" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q1" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="R1" s="88" t="s">
+        <v>238</v>
+      </c>
+      <c r="S1" s="88" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="33" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="32" t="s">
+      <c r="B2" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="P2" s="89" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q2" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="R2" s="91" t="s">
+        <v>235</v>
+      </c>
+      <c r="S2" s="89" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="63"/>
+      <c r="B3" s="29" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="P3" s="89"/>
+      <c r="Q3" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="R3" s="91" t="s">
+        <v>235</v>
+      </c>
+      <c r="S3" s="89"/>
+    </row>
+    <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="P4" s="89" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q4" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="R4" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="S4" s="89" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>39</v>
       </c>
@@ -2442,8 +4064,16 @@
       <c r="D5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="P5" s="89"/>
+      <c r="Q5" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="R5" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="S5" s="89"/>
+    </row>
+    <row r="6" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2459,8 +4089,20 @@
       <c r="E6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="P6" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q6" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="R6" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="S6" s="89" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -2473,25 +4115,53 @@
       <c r="D7">
         <v>0.80720000000000003</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="89"/>
+      <c r="Q7" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="R7" s="91" t="s">
+        <v>244</v>
+      </c>
+      <c r="S7" s="89"/>
+    </row>
+    <row r="8" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="60" t="s">
+      <c r="P8" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q8" s="90" t="s">
+        <v>117</v>
+      </c>
+      <c r="R8" s="91" t="s">
+        <v>245</v>
+      </c>
+      <c r="S8" s="89" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
-      <c r="B10" s="32" t="s">
+      <c r="B9" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="P9" s="89"/>
+      <c r="Q9" s="90" t="s">
+        <v>116</v>
+      </c>
+      <c r="R9" s="91" t="s">
+        <v>246</v>
+      </c>
+      <c r="S9" s="89"/>
+    </row>
+    <row r="10" spans="1:19" s="1" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="66"/>
+      <c r="B10" s="29" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>37</v>
       </c>
@@ -2499,7 +4169,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>39</v>
       </c>
@@ -2510,7 +4180,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2527,7 +4197,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>45</v>
       </c>
@@ -2541,26 +4211,26 @@
         <v>0.13519999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:5" s="42" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
+    <row r="15" spans="1:19" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:19" s="39" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="38" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58" t="s">
+      <c r="A17" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="32" t="s">
-        <v>172</v>
+      <c r="B17" s="29" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="63"/>
+      <c r="B18" s="29" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2573,7 +4243,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="23"/>
+      <c r="A20" s="20"/>
       <c r="B20" t="s">
         <v>39</v>
       </c>
@@ -2601,23 +4271,23 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="45" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="44" t="s">
+    <row r="22" spans="1:6" s="42" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="B22" s="45">
+      <c r="B22" s="42">
         <v>379.43680000000001</v>
       </c>
-      <c r="C22" s="45">
+      <c r="C22" s="42">
         <v>13</v>
       </c>
-      <c r="D22" s="45" t="s">
+      <c r="D22" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="F22" s="45" t="s">
+      <c r="F22" s="42" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2625,11 +4295,11 @@
       <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="32" t="s">
-        <v>168</v>
+      <c r="B24" s="29" t="s">
+        <v>126</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2637,13 +4307,13 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
-      <c r="B25" s="33" t="s">
-        <v>138</v>
+      <c r="A25" s="66"/>
+      <c r="B25" s="30" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:6" s="1" customFormat="1" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="20" t="s">
         <v>37</v>
       </c>
       <c r="B26" t="s">
@@ -2676,23 +4346,23 @@
         <v>0.90539999999999998</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="46" t="s">
+    <row r="29" spans="1:6" s="43" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="46">
+      <c r="B29" s="43">
         <v>214.14359999999999</v>
       </c>
-      <c r="C29" s="46">
+      <c r="C29" s="43">
         <v>13</v>
       </c>
-      <c r="D29" s="46" t="s">
+      <c r="D29" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="E29" s="46" t="s">
+      <c r="E29" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="F29" s="46" t="s">
+      <c r="F29" s="43" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2700,26 +4370,26 @@
       <c r="A30" s="7"/>
     </row>
     <row r="31" spans="1:6" s="17" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:6" s="40" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="39" t="s">
+    <row r="32" spans="1:6" s="37" customFormat="1" ht="27" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="B32" s="37" t="s">
-        <v>175</v>
+      <c r="B32" s="34" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="58" t="s">
+      <c r="A33" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="32" t="s">
-        <v>164</v>
+      <c r="B33" s="29" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="33" t="s">
-        <v>136</v>
+      <c r="A34" s="63"/>
+      <c r="B34" s="30" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -2777,17 +4447,17 @@
       <c r="A39" s="6"/>
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="60" t="s">
+      <c r="A40" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B40" s="32" t="s">
-        <v>165</v>
+      <c r="B40" s="29" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="62"/>
-      <c r="B41" s="32" t="s">
-        <v>137</v>
+      <c r="A41" s="66"/>
+      <c r="B41" s="29" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
@@ -2820,7 +4490,7 @@
       <c r="C44">
         <v>1</v>
       </c>
-      <c r="D44" s="24">
+      <c r="D44" s="21">
         <v>0.76249999999999996</v>
       </c>
     </row>
@@ -2839,26 +4509,26 @@
       </c>
     </row>
     <row r="46" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:5" s="38" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="36" t="s">
+    <row r="47" spans="1:5" s="35" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
         <v>79</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="34" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="58" t="s">
+      <c r="A48" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="B48" s="33" t="s">
-        <v>169</v>
+      <c r="B48" s="30" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:6" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="59"/>
-      <c r="B49" s="32" t="s">
-        <v>167</v>
+      <c r="A49" s="63"/>
+      <c r="B49" s="29" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
@@ -2868,7 +4538,7 @@
       <c r="B50" t="s">
         <v>38</v>
       </c>
-      <c r="E50" s="24"/>
+      <c r="E50" s="21"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
@@ -2881,7 +4551,7 @@
       <c r="D51" t="s">
         <v>41</v>
       </c>
-      <c r="E51" s="24"/>
+      <c r="E51" s="21"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
@@ -2896,13 +4566,13 @@
       <c r="D52" s="16">
         <v>2.2E-16</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="E52" s="28" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>166</v>
+        <v>124</v>
       </c>
       <c r="B53">
         <v>8.9544999999999995</v>
@@ -2936,23 +4606,23 @@
     </row>
     <row r="55" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
-      <c r="E55" s="24"/>
+      <c r="E55" s="21"/>
     </row>
     <row r="56" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="60" t="s">
+      <c r="A56" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="B56" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="E56" s="25"/>
+      <c r="B56" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="22"/>
     </row>
     <row r="57" spans="1:6" s="1" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="62"/>
-      <c r="B57" s="32" t="s">
-        <v>135</v>
-      </c>
-      <c r="E57" s="25"/>
+      <c r="A57" s="66"/>
+      <c r="B57" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
@@ -2961,7 +4631,7 @@
       <c r="B58" t="s">
         <v>38</v>
       </c>
-      <c r="E58" s="24"/>
+      <c r="E58" s="21"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="6"/>
@@ -2974,8 +4644,8 @@
       <c r="D59" t="s">
         <v>41</v>
       </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="31"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="28"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -2990,7 +4660,7 @@
       <c r="D60" s="16">
         <v>1.4190000000000001E-13</v>
       </c>
-      <c r="E60" s="26" t="s">
+      <c r="E60" s="23" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3007,14 +4677,22 @@
       <c r="D61">
         <v>0.7843</v>
       </c>
-      <c r="E61" s="24"/>
+      <c r="E61" s="21"/>
     </row>
     <row r="62" spans="1:6" s="8" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7"/>
-      <c r="E62" s="27"/>
+      <c r="E62" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="16">
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="P6:P7"/>
+    <mergeCell ref="P8:P9"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="S6:S7"/>
+    <mergeCell ref="S8:S9"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A2:A3"/>
@@ -3032,7 +4710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98569322-74B1-BD4E-B2E9-7D0205056BE0}">
   <dimension ref="A1:V93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H52" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A164" zoomScale="109" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U66" sqref="U66"/>
     </sheetView>
   </sheetViews>
@@ -3044,39 +4722,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="64" t="s">
         <v>54</v>
       </c>
       <c r="C1" t="s">
-        <v>121</v>
+        <v>80</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="E1" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s">
-        <v>124</v>
-      </c>
-      <c r="L1" s="58" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="62" t="s">
         <v>53</v>
       </c>
       <c r="M1" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="N1" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="O1" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="P1" t="s">
-        <v>124</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="62"/>
+      <c r="B2" s="66"/>
       <c r="E2" t="s">
         <v>29</v>
       </c>
@@ -3095,7 +4773,7 @@
       <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="59"/>
+      <c r="L2" s="63"/>
       <c r="O2" t="s">
         <v>29</v>
       </c>
@@ -3117,7 +4795,7 @@
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C3" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
@@ -3137,11 +4815,11 @@
       <c r="I3" s="1">
         <v>-5.9089999999999998</v>
       </c>
-      <c r="J3" s="48">
+      <c r="J3" s="45">
         <v>5.57E-2</v>
       </c>
       <c r="M3" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="N3" t="s">
         <v>35</v>
@@ -3167,7 +4845,7 @@
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C4" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D4" t="s">
         <v>35</v>
@@ -3187,11 +4865,11 @@
       <c r="I4" s="1">
         <v>-6.6429999999999998</v>
       </c>
-      <c r="J4" s="48">
+      <c r="J4" s="45">
         <v>2.35E-2</v>
       </c>
       <c r="M4" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="N4" t="s">
         <v>35</v>
@@ -3217,7 +4895,7 @@
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C5" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D5" t="s">
         <v>35</v>
@@ -3237,11 +4915,11 @@
       <c r="I5" s="1">
         <v>-7.0659999999999998</v>
       </c>
-      <c r="J5" s="48">
+      <c r="J5" s="45">
         <v>1.78E-2</v>
       </c>
       <c r="M5" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="N5" t="s">
         <v>35</v>
@@ -3267,7 +4945,7 @@
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
         <v>35</v>
@@ -3287,11 +4965,11 @@
       <c r="I6" s="1">
         <v>-4.1399999999999997</v>
       </c>
-      <c r="J6" s="48">
+      <c r="J6" s="45">
         <v>0.1469</v>
       </c>
       <c r="M6" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="N6" t="s">
         <v>35</v>
@@ -3317,7 +4995,7 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D7" t="s">
         <v>35</v>
@@ -3337,11 +5015,11 @@
       <c r="I7" s="1">
         <v>-9.7680000000000007</v>
       </c>
-      <c r="J7" s="48">
+      <c r="J7" s="45">
         <v>1.03E-2</v>
       </c>
       <c r="M7" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="N7" t="s">
         <v>35</v>
@@ -3367,7 +5045,7 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>35</v>
@@ -3387,11 +5065,11 @@
       <c r="I8" s="1">
         <v>-3.1059999999999999</v>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="45">
         <v>0.30409999999999998</v>
       </c>
       <c r="M8" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="N8" t="s">
         <v>35</v>
@@ -3417,7 +5095,7 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D9" t="s">
         <v>35</v>
@@ -3437,11 +5115,11 @@
       <c r="I9" s="1">
         <v>-7.8760000000000003</v>
       </c>
-      <c r="J9" s="48">
+      <c r="J9" s="45">
         <v>9.4000000000000004E-3</v>
       </c>
       <c r="M9" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="N9" t="s">
         <v>35</v>
@@ -3467,7 +5145,7 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
         <v>35</v>
@@ -3487,11 +5165,11 @@
       <c r="I10" s="1">
         <v>-7.7539999999999996</v>
       </c>
-      <c r="J10" s="48">
+      <c r="J10" s="45">
         <v>1.2200000000000001E-2</v>
       </c>
       <c r="M10" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -3517,13 +5195,13 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="F11">
         <v>-4.9586199999999998</v>
@@ -3537,17 +5215,17 @@
       <c r="I11" s="1">
         <v>-9.0169999999999995</v>
       </c>
-      <c r="J11" s="48">
+      <c r="J11" s="45">
         <v>1E-4</v>
       </c>
       <c r="M11" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="N11" t="s">
         <v>35</v>
       </c>
       <c r="O11" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="P11" s="1">
         <v>-4.86381</v>
@@ -3567,13 +5245,13 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
         <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="F12">
         <v>-1.12595</v>
@@ -3587,17 +5265,17 @@
       <c r="I12" s="1">
         <v>-2.13</v>
       </c>
-      <c r="J12" s="48">
+      <c r="J12" s="45">
         <v>0.67479999999999996</v>
       </c>
       <c r="M12" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="N12" t="s">
         <v>35</v>
       </c>
       <c r="O12" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="P12" s="1">
         <v>-1.3459300000000001</v>
@@ -3617,13 +5295,13 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D13" t="s">
         <v>35</v>
       </c>
       <c r="E13" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="F13">
         <v>-3.10873</v>
@@ -3637,17 +5315,17 @@
       <c r="I13" s="1">
         <v>-5.7889999999999997</v>
       </c>
-      <c r="J13" s="48">
+      <c r="J13" s="45">
         <v>5.5999999999999999E-3</v>
       </c>
       <c r="M13" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="N13" t="s">
         <v>35</v>
       </c>
       <c r="O13" t="s">
-        <v>128</v>
+        <v>87</v>
       </c>
       <c r="P13" s="1">
         <v>-3.1009500000000001</v>
@@ -3667,13 +5345,13 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D14" t="s">
         <v>35</v>
       </c>
       <c r="E14" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="F14">
         <v>-3.9828800000000002</v>
@@ -3687,17 +5365,17 @@
       <c r="I14" s="1">
         <v>-6.7910000000000004</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="45">
         <v>2E-3</v>
       </c>
       <c r="M14" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="N14" t="s">
         <v>35</v>
       </c>
       <c r="O14" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="P14" s="1">
         <v>-4.4418899999999999</v>
@@ -3717,13 +5395,13 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
         <v>35</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="F15">
         <v>-3.7681399999999998</v>
@@ -3737,17 +5415,17 @@
       <c r="I15" s="1">
         <v>-7.2069999999999999</v>
       </c>
-      <c r="J15" s="48">
+      <c r="J15" s="45">
         <v>1.4E-3</v>
       </c>
       <c r="M15" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="N15" t="s">
         <v>35</v>
       </c>
       <c r="O15" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="P15" s="1">
         <v>-4.1093200000000003</v>
@@ -3766,11 +5444,11 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="28">
+      <c r="A16" s="25">
         <v>45128</v>
       </c>
       <c r="B16" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="C16" s="15" t="s">
         <v>55</v>
@@ -3793,7 +5471,7 @@
       <c r="I16" s="12">
         <v>-1.31</v>
       </c>
-      <c r="J16" s="47">
+      <c r="J16" s="44">
         <v>0.98939999999999995</v>
       </c>
       <c r="M16" t="s">
@@ -3843,7 +5521,7 @@
       <c r="I17" s="1">
         <v>-1.3220000000000001</v>
       </c>
-      <c r="J17" s="48">
+      <c r="J17" s="45">
         <v>0.94499999999999995</v>
       </c>
       <c r="M17" t="s">
@@ -3893,7 +5571,7 @@
       <c r="I18" s="1">
         <v>1.4259999999999999</v>
       </c>
-      <c r="J18" s="48">
+      <c r="J18" s="45">
         <v>0.92</v>
       </c>
       <c r="M18" t="s">
@@ -3943,7 +5621,7 @@
       <c r="I19" s="1">
         <v>-3.4390000000000001</v>
       </c>
-      <c r="J19" s="48">
+      <c r="J19" s="45">
         <v>0.34010000000000001</v>
       </c>
       <c r="M19" t="s">
@@ -3993,7 +5671,7 @@
       <c r="I20" s="1">
         <v>2.0710000000000002</v>
       </c>
-      <c r="J20" s="48">
+      <c r="J20" s="45">
         <v>0.70469999999999999</v>
       </c>
       <c r="M20" t="s">
@@ -4043,7 +5721,7 @@
       <c r="I21" s="1">
         <v>-2.1309999999999998</v>
       </c>
-      <c r="J21" s="48">
+      <c r="J21" s="45">
         <v>0.68259999999999998</v>
       </c>
       <c r="M21" t="s">
@@ -4093,7 +5771,7 @@
       <c r="I22" s="1">
         <v>-1.9390000000000001</v>
       </c>
-      <c r="J22" s="48">
+      <c r="J22" s="45">
         <v>0.75519999999999998</v>
       </c>
       <c r="M22" t="s">
@@ -4129,7 +5807,7 @@
         <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="F23">
         <v>-1.4822</v>
@@ -4143,7 +5821,7 @@
       <c r="I23" s="1">
         <v>-2.4180000000000001</v>
       </c>
-      <c r="J23" s="48">
+      <c r="J23" s="45">
         <v>0.56140000000000001</v>
       </c>
       <c r="M23" t="s">
@@ -4153,7 +5831,7 @@
         <v>35</v>
       </c>
       <c r="O23" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="P23" s="1">
         <v>0.85129999999999995</v>
@@ -4179,7 +5857,7 @@
         <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="F24">
         <v>2.3504700000000001</v>
@@ -4193,7 +5871,7 @@
       <c r="I24" s="1">
         <v>3.9590000000000001</v>
       </c>
-      <c r="J24" s="48">
+      <c r="J24" s="45">
         <v>0.18390000000000001</v>
       </c>
       <c r="M24" t="s">
@@ -4203,7 +5881,7 @@
         <v>35</v>
       </c>
       <c r="O24" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="P24" s="1">
         <v>4.3691899999999997</v>
@@ -4221,59 +5899,59 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="25" spans="3:22" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="66" t="s">
+    <row r="25" spans="3:22" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C25" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="D25" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="F25" s="66">
+      <c r="D25" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25" s="49">
         <v>0.36769000000000002</v>
       </c>
-      <c r="G25" s="66">
+      <c r="G25" s="49">
         <v>0.60199999999999998</v>
       </c>
-      <c r="H25" s="67">
+      <c r="H25" s="50">
         <v>4.25</v>
       </c>
-      <c r="I25" s="67">
+      <c r="I25" s="50">
         <v>0.61099999999999999</v>
       </c>
-      <c r="J25" s="68">
+      <c r="J25" s="51">
         <v>0.99990000000000001</v>
       </c>
-      <c r="M25" s="69" t="s">
+      <c r="M25" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="N25" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="O25" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="P25" s="70">
+      <c r="N25" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="O25" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="P25" s="53">
         <v>2.61416</v>
       </c>
-      <c r="Q25" s="69">
+      <c r="Q25" s="52">
         <v>0.50700000000000001</v>
       </c>
-      <c r="R25" s="70">
+      <c r="R25" s="53">
         <v>9.48</v>
       </c>
-      <c r="S25" s="70">
+      <c r="S25" s="53">
         <v>5.1609999999999996</v>
       </c>
-      <c r="T25" s="69">
+      <c r="T25" s="52">
         <v>1.66E-2</v>
       </c>
-      <c r="U25" s="66" t="s">
-        <v>176</v>
-      </c>
-      <c r="V25" s="71">
+      <c r="U25" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="V25" s="54">
         <v>44382</v>
       </c>
     </row>
@@ -4285,7 +5963,7 @@
         <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="F26">
         <v>-0.50646000000000002</v>
@@ -4299,7 +5977,7 @@
       <c r="I26" s="1">
         <v>-0.78600000000000003</v>
       </c>
-      <c r="J26" s="48">
+      <c r="J26" s="45">
         <v>0.99909999999999999</v>
       </c>
       <c r="M26" t="s">
@@ -4309,7 +5987,7 @@
         <v>35</v>
       </c>
       <c r="O26" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="P26" s="1">
         <v>1.27322</v>
@@ -4335,7 +6013,7 @@
         <v>35</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="F27">
         <v>-0.29171999999999998</v>
@@ -4349,7 +6027,7 @@
       <c r="I27" s="1">
         <v>-0.496</v>
       </c>
-      <c r="J27" s="48">
+      <c r="J27" s="45">
         <v>1</v>
       </c>
       <c r="M27" t="s">
@@ -4359,7 +6037,7 @@
         <v>35</v>
       </c>
       <c r="O27" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="P27" s="1">
         <v>1.6057900000000001</v>
@@ -4399,7 +6077,7 @@
       <c r="I28" s="1">
         <v>-0.38500000000000001</v>
       </c>
-      <c r="J28" s="48">
+      <c r="J28" s="45">
         <v>1</v>
       </c>
       <c r="M28" t="s">
@@ -4449,7 +6127,7 @@
       <c r="I29" s="1">
         <v>2.27</v>
       </c>
-      <c r="J29" s="48">
+      <c r="J29" s="45">
         <v>0.63009999999999999</v>
       </c>
       <c r="M29" t="s">
@@ -4499,7 +6177,7 @@
       <c r="I30" s="1">
         <v>-2.3919999999999999</v>
       </c>
-      <c r="J30" s="48">
+      <c r="J30" s="45">
         <v>0.59160000000000001</v>
       </c>
       <c r="M30" t="s">
@@ -4549,7 +6227,7 @@
       <c r="I31" s="1">
         <v>2.855</v>
       </c>
-      <c r="J31" s="48">
+      <c r="J31" s="45">
         <v>0.41260000000000002</v>
       </c>
       <c r="M31" t="s">
@@ -4599,7 +6277,7 @@
       <c r="I32" s="1">
         <v>-1.196</v>
       </c>
-      <c r="J32" s="48">
+      <c r="J32" s="45">
         <v>0.97340000000000004</v>
       </c>
       <c r="M32" t="s">
@@ -4649,34 +6327,34 @@
       <c r="I33" s="1">
         <v>-0.997</v>
       </c>
-      <c r="J33" s="48">
+      <c r="J33" s="45">
         <v>0.99170000000000003</v>
       </c>
       <c r="L33" t="s">
-        <v>133</v>
-      </c>
-      <c r="M33" s="29" t="s">
+        <v>91</v>
+      </c>
+      <c r="M33" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="N33" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="O33" s="29" t="s">
+      <c r="N33" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="O33" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="P33" s="30">
+      <c r="P33" s="27">
         <v>-0.29892000000000002</v>
       </c>
-      <c r="Q33" s="29">
+      <c r="Q33" s="26">
         <v>0.379</v>
       </c>
-      <c r="R33" s="30">
+      <c r="R33" s="27">
         <v>258.08</v>
       </c>
-      <c r="S33" s="30">
+      <c r="S33" s="27">
         <v>-0.78800000000000003</v>
       </c>
-      <c r="T33" s="50">
+      <c r="T33" s="47">
         <v>0.99990000000000001</v>
       </c>
     </row>
@@ -4688,7 +6366,7 @@
         <v>35</v>
       </c>
       <c r="E34" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="F34">
         <v>-0.85955000000000004</v>
@@ -4702,7 +6380,7 @@
       <c r="I34" s="1">
         <v>-1.341</v>
       </c>
-      <c r="J34" s="48">
+      <c r="J34" s="45">
         <v>0.95730000000000004</v>
       </c>
       <c r="M34" t="s">
@@ -4712,7 +6390,7 @@
         <v>35</v>
       </c>
       <c r="O34" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="P34" s="1">
         <v>-2.2579899999999999</v>
@@ -4738,7 +6416,7 @@
         <v>35</v>
       </c>
       <c r="E35" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="F35">
         <v>2.9731200000000002</v>
@@ -4752,7 +6430,7 @@
       <c r="I35" s="1">
         <v>4.7770000000000001</v>
       </c>
-      <c r="J35" s="48">
+      <c r="J35" s="45">
         <v>7.9899999999999999E-2</v>
       </c>
       <c r="M35" t="s">
@@ -4762,7 +6440,7 @@
         <v>35</v>
       </c>
       <c r="O35" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="P35" s="1">
         <v>1.2599</v>
@@ -4780,53 +6458,53 @@
         <v>0.47639999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="66" t="s">
+    <row r="36" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="D36" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E36" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="F36" s="66">
+      <c r="D36" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F36" s="49">
         <v>0.99034</v>
       </c>
-      <c r="G36" s="66">
+      <c r="G36" s="49">
         <v>0.63</v>
       </c>
-      <c r="H36" s="67">
+      <c r="H36" s="50">
         <v>5.12</v>
       </c>
-      <c r="I36" s="67">
+      <c r="I36" s="50">
         <v>1.5720000000000001</v>
       </c>
-      <c r="J36" s="68">
+      <c r="J36" s="51">
         <v>0.89880000000000004</v>
       </c>
-      <c r="M36" s="66" t="s">
+      <c r="M36" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="N36" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="O36" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="P36" s="67">
+      <c r="N36" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="O36" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="P36" s="50">
         <v>-0.49513000000000001</v>
       </c>
-      <c r="Q36" s="66">
+      <c r="Q36" s="49">
         <v>0.46400000000000002</v>
       </c>
-      <c r="R36" s="67">
+      <c r="R36" s="50">
         <v>6.7</v>
       </c>
-      <c r="S36" s="67">
+      <c r="S36" s="50">
         <v>-1.0680000000000001</v>
       </c>
-      <c r="T36" s="66">
+      <c r="T36" s="49">
         <v>0.99270000000000003</v>
       </c>
     </row>
@@ -4838,7 +6516,7 @@
         <v>35</v>
       </c>
       <c r="E37" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="F37">
         <v>0.1162</v>
@@ -4852,7 +6530,7 @@
       <c r="I37" s="1">
         <v>0.17299999999999999</v>
       </c>
-      <c r="J37" s="48">
+      <c r="J37" s="45">
         <v>1</v>
       </c>
       <c r="M37" t="s">
@@ -4862,7 +6540,7 @@
         <v>35</v>
       </c>
       <c r="O37" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="P37" s="1">
         <v>-1.83606</v>
@@ -4888,7 +6566,7 @@
         <v>35</v>
       </c>
       <c r="E38" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="F38">
         <v>0.33093</v>
@@ -4902,7 +6580,7 @@
       <c r="I38" s="1">
         <v>0.53600000000000003</v>
       </c>
-      <c r="J38" s="48">
+      <c r="J38" s="45">
         <v>1</v>
       </c>
       <c r="M38" t="s">
@@ -4912,7 +6590,7 @@
         <v>35</v>
       </c>
       <c r="O38" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="P38" s="1">
         <v>-1.5035000000000001</v>
@@ -4931,11 +6609,11 @@
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A39" s="28">
+      <c r="A39" s="25">
         <v>45129</v>
       </c>
       <c r="B39" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>57</v>
@@ -4958,11 +6636,11 @@
       <c r="I39" s="12">
         <v>3.6459999999999999</v>
       </c>
-      <c r="J39" s="47">
+      <c r="J39" s="44">
         <v>2.3E-2</v>
       </c>
       <c r="L39" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="M39" s="13" t="s">
         <v>65</v>
@@ -4985,7 +6663,7 @@
       <c r="S39" s="14">
         <v>4.7560000000000002</v>
       </c>
-      <c r="T39" s="50">
+      <c r="T39" s="47">
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
@@ -5011,7 +6689,7 @@
       <c r="I40" s="1">
         <v>-1.9730000000000001</v>
       </c>
-      <c r="J40" s="48">
+      <c r="J40" s="45">
         <v>0.74260000000000004</v>
       </c>
       <c r="M40" t="s">
@@ -5061,7 +6739,7 @@
       <c r="I41" s="1">
         <v>3.1779999999999999</v>
       </c>
-      <c r="J41" s="48">
+      <c r="J41" s="45">
         <v>0.31619999999999998</v>
       </c>
       <c r="M41" t="s">
@@ -5111,7 +6789,7 @@
       <c r="I42" s="1">
         <v>-0.80900000000000005</v>
       </c>
-      <c r="J42" s="48">
+      <c r="J42" s="45">
         <v>0.99860000000000004</v>
       </c>
       <c r="M42" t="s">
@@ -5161,7 +6839,7 @@
       <c r="I43" s="1">
         <v>-0.60799999999999998</v>
       </c>
-      <c r="J43" s="48">
+      <c r="J43" s="45">
         <v>0.99990000000000001</v>
       </c>
       <c r="M43" t="s">
@@ -5197,7 +6875,7 @@
         <v>35</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="F44">
         <v>-0.58958999999999995</v>
@@ -5211,7 +6889,7 @@
       <c r="I44" s="1">
         <v>-0.92100000000000004</v>
       </c>
-      <c r="J44" s="48">
+      <c r="J44" s="45">
         <v>0.99709999999999999</v>
       </c>
       <c r="M44" t="s">
@@ -5221,7 +6899,7 @@
         <v>35</v>
       </c>
       <c r="O44" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="P44" s="1">
         <v>-4.2049999999999997E-2</v>
@@ -5247,7 +6925,7 @@
         <v>35</v>
       </c>
       <c r="E45" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="F45">
         <v>3.24308</v>
@@ -5261,7 +6939,7 @@
       <c r="I45" s="1">
         <v>5.2169999999999996</v>
       </c>
-      <c r="J45" s="48">
+      <c r="J45" s="45">
         <v>5.7500000000000002E-2</v>
       </c>
       <c r="M45" t="s">
@@ -5271,7 +6949,7 @@
         <v>35</v>
       </c>
       <c r="O45" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="P45" s="1">
         <v>3.4758399999999998</v>
@@ -5289,53 +6967,53 @@
         <v>1.9E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:20" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="66" t="s">
+    <row r="46" spans="1:20" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="D46" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E46" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="F46" s="66">
+      <c r="D46" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F46" s="49">
         <v>1.2603</v>
       </c>
-      <c r="G46" s="66">
+      <c r="G46" s="49">
         <v>0.63</v>
       </c>
-      <c r="H46" s="67">
+      <c r="H46" s="50">
         <v>5.0999999999999996</v>
       </c>
-      <c r="I46" s="67">
+      <c r="I46" s="50">
         <v>2.0019999999999998</v>
       </c>
-      <c r="J46" s="68">
+      <c r="J46" s="51">
         <v>0.73370000000000002</v>
       </c>
-      <c r="M46" s="66" t="s">
+      <c r="M46" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="N46" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="O46" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="P46" s="67">
+      <c r="N46" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="O46" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="P46" s="50">
         <v>1.72081</v>
       </c>
-      <c r="Q46" s="66">
+      <c r="Q46" s="49">
         <v>0.47799999999999998</v>
       </c>
-      <c r="R46" s="67">
+      <c r="R46" s="50">
         <v>7.58</v>
       </c>
-      <c r="S46" s="67">
+      <c r="S46" s="50">
         <v>3.6</v>
       </c>
-      <c r="T46" s="66">
+      <c r="T46" s="49">
         <v>0.15409999999999999</v>
       </c>
     </row>
@@ -5347,7 +7025,7 @@
         <v>35</v>
       </c>
       <c r="E47" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="F47">
         <v>0.38614999999999999</v>
@@ -5361,7 +7039,7 @@
       <c r="I47" s="1">
         <v>0.57699999999999996</v>
       </c>
-      <c r="J47" s="48">
+      <c r="J47" s="45">
         <v>1</v>
       </c>
       <c r="M47" t="s">
@@ -5371,7 +7049,7 @@
         <v>35</v>
       </c>
       <c r="O47" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="P47" s="1">
         <v>0.37988</v>
@@ -5397,7 +7075,7 @@
         <v>35</v>
       </c>
       <c r="E48" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="F48">
         <v>0.60089000000000004</v>
@@ -5411,7 +7089,7 @@
       <c r="I48" s="1">
         <v>0.97399999999999998</v>
       </c>
-      <c r="J48" s="48">
+      <c r="J48" s="45">
         <v>0.99480000000000002</v>
       </c>
       <c r="M48" t="s">
@@ -5421,7 +7099,7 @@
         <v>35</v>
       </c>
       <c r="O48" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="P48" s="1">
         <v>0.71243999999999996</v>
@@ -5461,7 +7139,7 @@
       <c r="I49" s="1">
         <v>-4.8810000000000002</v>
       </c>
-      <c r="J49" s="48">
+      <c r="J49" s="45">
         <v>0.1633</v>
       </c>
       <c r="M49" t="s">
@@ -5511,7 +7189,7 @@
       <c r="I50" s="1">
         <v>0.73599999999999999</v>
       </c>
-      <c r="J50" s="48">
+      <c r="J50" s="45">
         <v>0.99919999999999998</v>
       </c>
       <c r="M50" t="s">
@@ -5561,7 +7239,7 @@
       <c r="I51" s="1">
         <v>-3.5430000000000001</v>
       </c>
-      <c r="J51" s="48">
+      <c r="J51" s="45">
         <v>0.2863</v>
       </c>
       <c r="M51" t="s">
@@ -5611,7 +7289,7 @@
       <c r="I52" s="1">
         <v>-3.351</v>
       </c>
-      <c r="J52" s="48">
+      <c r="J52" s="45">
         <v>0.32829999999999998</v>
       </c>
       <c r="M52" t="s">
@@ -5647,7 +7325,7 @@
         <v>35</v>
       </c>
       <c r="E53" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="F53">
         <v>-2.4366699999999999</v>
@@ -5661,7 +7339,7 @@
       <c r="I53" s="1">
         <v>-3.8210000000000002</v>
       </c>
-      <c r="J53" s="48">
+      <c r="J53" s="45">
         <v>0.16850000000000001</v>
       </c>
       <c r="M53" t="s">
@@ -5671,7 +7349,7 @@
         <v>35</v>
       </c>
       <c r="O53" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="P53" s="1">
         <v>-1.9493</v>
@@ -5697,7 +7375,7 @@
         <v>35</v>
       </c>
       <c r="E54" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="F54">
         <v>1.3959999999999999</v>
@@ -5711,7 +7389,7 @@
       <c r="I54" s="1">
         <v>2.2530000000000001</v>
       </c>
-      <c r="J54" s="48">
+      <c r="J54" s="45">
         <v>0.62509999999999999</v>
       </c>
       <c r="M54" t="s">
@@ -5721,7 +7399,7 @@
         <v>35</v>
       </c>
       <c r="O54" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="P54" s="1">
         <v>1.5685899999999999</v>
@@ -5739,53 +7417,53 @@
         <v>0.24790000000000001</v>
       </c>
     </row>
-    <row r="55" spans="3:21" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C55" s="66" t="s">
+    <row r="55" spans="3:21" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C55" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="D55" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E55" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="F55" s="66">
+      <c r="D55" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F55" s="49">
         <v>-0.58677999999999997</v>
       </c>
-      <c r="G55" s="66">
+      <c r="G55" s="49">
         <v>0.626</v>
       </c>
-      <c r="H55" s="67">
+      <c r="H55" s="50">
         <v>4.99</v>
       </c>
-      <c r="I55" s="67">
+      <c r="I55" s="50">
         <v>-0.93700000000000006</v>
       </c>
-      <c r="J55" s="68">
+      <c r="J55" s="51">
         <v>0.99639999999999995</v>
       </c>
-      <c r="M55" s="66" t="s">
+      <c r="M55" s="49" t="s">
         <v>66</v>
       </c>
-      <c r="N55" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="O55" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="P55" s="67">
+      <c r="N55" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="O55" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="P55" s="50">
         <v>-0.18643999999999999</v>
       </c>
-      <c r="Q55" s="66">
+      <c r="Q55" s="49">
         <v>0.47399999999999998</v>
       </c>
-      <c r="R55" s="67">
+      <c r="R55" s="50">
         <v>7.32</v>
       </c>
-      <c r="S55" s="67">
+      <c r="S55" s="50">
         <v>-0.39300000000000002</v>
       </c>
-      <c r="T55" s="66">
+      <c r="T55" s="49">
         <v>1</v>
       </c>
     </row>
@@ -5797,7 +7475,7 @@
         <v>35</v>
       </c>
       <c r="E56" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="F56">
         <v>-1.4609300000000001</v>
@@ -5811,7 +7489,7 @@
       <c r="I56" s="1">
         <v>-2.1749999999999998</v>
       </c>
-      <c r="J56" s="48">
+      <c r="J56" s="45">
         <v>0.65739999999999998</v>
       </c>
       <c r="M56" t="s">
@@ -5821,7 +7499,7 @@
         <v>35</v>
       </c>
       <c r="O56" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="P56" s="1">
         <v>-1.5273699999999999</v>
@@ -5847,7 +7525,7 @@
         <v>35</v>
       </c>
       <c r="E57" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="F57">
         <v>-1.2461899999999999</v>
@@ -5861,7 +7539,7 @@
       <c r="I57" s="1">
         <v>-2.0270000000000001</v>
       </c>
-      <c r="J57" s="48">
+      <c r="J57" s="45">
         <v>0.72230000000000005</v>
       </c>
       <c r="M57" t="s">
@@ -5871,7 +7549,7 @@
         <v>35</v>
       </c>
       <c r="O57" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="P57" s="1">
         <v>-1.1948099999999999</v>
@@ -5911,7 +7589,7 @@
       <c r="I58" s="1">
         <v>5.9850000000000003</v>
       </c>
-      <c r="J58" s="48">
+      <c r="J58" s="45">
         <v>0.13919999999999999</v>
       </c>
       <c r="M58" t="s">
@@ -5961,8 +7639,8 @@
       <c r="I59" s="1">
         <v>1.2589999999999999</v>
       </c>
-      <c r="J59" s="48" t="s">
-        <v>173</v>
+      <c r="J59" s="45" t="s">
+        <v>131</v>
       </c>
       <c r="M59" t="s">
         <v>67</v>
@@ -6011,8 +7689,8 @@
       <c r="I60" s="1">
         <v>1.506</v>
       </c>
-      <c r="J60" s="48" t="s">
-        <v>173</v>
+      <c r="J60" s="45" t="s">
+        <v>131</v>
       </c>
       <c r="M60" t="s">
         <v>67</v>
@@ -6047,7 +7725,7 @@
         <v>35</v>
       </c>
       <c r="E61" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="F61">
         <v>0.76302000000000003</v>
@@ -6061,7 +7739,7 @@
       <c r="I61" s="1">
         <v>1.2190000000000001</v>
       </c>
-      <c r="J61" s="48">
+      <c r="J61" s="45">
         <v>0.97430000000000005</v>
       </c>
       <c r="M61" t="s">
@@ -6071,7 +7749,7 @@
         <v>35</v>
       </c>
       <c r="O61" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="P61" s="1">
         <v>1.28546</v>
@@ -6097,7 +7775,7 @@
         <v>35</v>
       </c>
       <c r="E62" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="F62">
         <v>4.5956999999999999</v>
@@ -6111,7 +7789,7 @@
       <c r="I62" s="1">
         <v>7.5529999999999999</v>
       </c>
-      <c r="J62" s="48">
+      <c r="J62" s="45">
         <v>1.66E-2</v>
       </c>
       <c r="M62" t="s">
@@ -6121,7 +7799,7 @@
         <v>35</v>
       </c>
       <c r="O62" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="P62" s="1">
         <v>4.8033400000000004</v>
@@ -6139,56 +7817,56 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="63" spans="3:21" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="66" t="s">
+    <row r="63" spans="3:21" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D63" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E63" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="F63" s="66">
+      <c r="D63" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F63" s="49">
         <v>2.6129099999999998</v>
       </c>
-      <c r="G63" s="66">
+      <c r="G63" s="49">
         <v>0.61299999999999999</v>
       </c>
-      <c r="H63" s="67">
+      <c r="H63" s="50">
         <v>4.54</v>
       </c>
-      <c r="I63" s="67">
+      <c r="I63" s="50">
         <v>4.2649999999999997</v>
       </c>
-      <c r="J63" s="68">
+      <c r="J63" s="51">
         <v>0.1326</v>
       </c>
-      <c r="M63" s="69" t="s">
+      <c r="M63" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="N63" s="69" t="s">
-        <v>35</v>
-      </c>
-      <c r="O63" s="69" t="s">
-        <v>128</v>
-      </c>
-      <c r="P63" s="70">
+      <c r="N63" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="O63" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="P63" s="53">
         <v>3.0483199999999999</v>
       </c>
-      <c r="Q63" s="69">
+      <c r="Q63" s="52">
         <v>0.501</v>
       </c>
-      <c r="R63" s="70">
+      <c r="R63" s="53">
         <v>8.99</v>
       </c>
-      <c r="S63" s="70">
+      <c r="S63" s="53">
         <v>6.09</v>
       </c>
-      <c r="T63" s="69">
+      <c r="T63" s="52">
         <v>6.1999999999999998E-3</v>
       </c>
-      <c r="U63" s="72">
+      <c r="U63" s="55">
         <v>45116</v>
       </c>
     </row>
@@ -6200,7 +7878,7 @@
         <v>35</v>
       </c>
       <c r="E64" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="F64">
         <v>1.7387699999999999</v>
@@ -6214,7 +7892,7 @@
       <c r="I64" s="1">
         <v>2.6</v>
       </c>
-      <c r="J64" s="48">
+      <c r="J64" s="45">
         <v>0.48010000000000003</v>
       </c>
       <c r="M64" t="s">
@@ -6224,7 +7902,7 @@
         <v>35</v>
       </c>
       <c r="O64" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="P64" s="1">
         <v>1.7073799999999999</v>
@@ -6250,7 +7928,7 @@
         <v>35</v>
       </c>
       <c r="E65" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="F65">
         <v>1.9535100000000001</v>
@@ -6264,7 +7942,7 @@
       <c r="I65" s="1">
         <v>3.238</v>
       </c>
-      <c r="J65" s="48">
+      <c r="J65" s="45">
         <v>0.30599999999999999</v>
       </c>
       <c r="M65" t="s">
@@ -6274,7 +7952,7 @@
         <v>35</v>
       </c>
       <c r="O65" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="P65" s="1">
         <v>2.0399400000000001</v>
@@ -6314,8 +7992,8 @@
       <c r="I66" s="1">
         <v>-4.867</v>
       </c>
-      <c r="J66" s="48" t="s">
-        <v>173</v>
+      <c r="J66" s="45" t="s">
+        <v>131</v>
       </c>
       <c r="M66" t="s">
         <v>68</v>
@@ -6364,7 +8042,7 @@
       <c r="I67" s="1">
         <v>-4.5289999999999999</v>
       </c>
-      <c r="J67" s="48">
+      <c r="J67" s="45">
         <v>0.2374</v>
       </c>
       <c r="M67" t="s">
@@ -6400,7 +8078,7 @@
         <v>35</v>
       </c>
       <c r="E68" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="F68">
         <v>-2.95383</v>
@@ -6414,7 +8092,7 @@
       <c r="I68" s="1">
         <v>-4.2779999999999996</v>
       </c>
-      <c r="J68" s="48">
+      <c r="J68" s="45">
         <v>8.0100000000000005E-2</v>
       </c>
       <c r="M68" t="s">
@@ -6424,7 +8102,7 @@
         <v>35</v>
       </c>
       <c r="O68" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="P68" s="1">
         <v>-1.28304</v>
@@ -6450,7 +8128,7 @@
         <v>35</v>
       </c>
       <c r="E69" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="F69">
         <v>0.87883999999999995</v>
@@ -6464,7 +8142,7 @@
       <c r="I69" s="1">
         <v>1.3009999999999999</v>
       </c>
-      <c r="J69" s="48">
+      <c r="J69" s="45">
         <v>0.96960000000000002</v>
       </c>
       <c r="M69" t="s">
@@ -6474,7 +8152,7 @@
         <v>35</v>
       </c>
       <c r="O69" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="P69" s="1">
         <v>2.2348400000000002</v>
@@ -6492,53 +8170,53 @@
         <v>4.8899999999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="3:20" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="66" t="s">
+    <row r="70" spans="3:20" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="D70" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E70" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="F70" s="66">
+      <c r="D70" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E70" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F70" s="49">
         <v>-1.1039399999999999</v>
       </c>
-      <c r="G70" s="66">
+      <c r="G70" s="49">
         <v>0.67700000000000005</v>
       </c>
-      <c r="H70" s="67">
+      <c r="H70" s="50">
         <v>6.74</v>
       </c>
-      <c r="I70" s="67">
+      <c r="I70" s="50">
         <v>-1.63</v>
       </c>
-      <c r="J70" s="68">
+      <c r="J70" s="51">
         <v>0.88949999999999996</v>
       </c>
-      <c r="M70" s="66" t="s">
+      <c r="M70" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="N70" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="O70" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="P70" s="67">
+      <c r="N70" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="O70" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="P70" s="50">
         <v>0.47982000000000002</v>
       </c>
-      <c r="Q70" s="66">
+      <c r="Q70" s="49">
         <v>0.51900000000000002</v>
       </c>
-      <c r="R70" s="67">
+      <c r="R70" s="50">
         <v>10.33</v>
       </c>
-      <c r="S70" s="67">
+      <c r="S70" s="50">
         <v>0.92500000000000004</v>
       </c>
-      <c r="T70" s="66">
+      <c r="T70" s="49">
         <v>0.99870000000000003</v>
       </c>
     </row>
@@ -6550,7 +8228,7 @@
         <v>35</v>
       </c>
       <c r="E71" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="F71">
         <v>-1.9780800000000001</v>
@@ -6564,7 +8242,7 @@
       <c r="I71" s="1">
         <v>-2.6869999999999998</v>
       </c>
-      <c r="J71" s="48">
+      <c r="J71" s="45">
         <v>0.4158</v>
       </c>
       <c r="M71" t="s">
@@ -6574,7 +8252,7 @@
         <v>35</v>
       </c>
       <c r="O71" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="P71" s="1">
         <v>-0.86112</v>
@@ -6600,7 +8278,7 @@
         <v>35</v>
       </c>
       <c r="E72" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="F72">
         <v>-1.76335</v>
@@ -6614,7 +8292,7 @@
       <c r="I72" s="1">
         <v>-2.63</v>
       </c>
-      <c r="J72" s="48">
+      <c r="J72" s="45">
         <v>0.45069999999999999</v>
       </c>
       <c r="M72" t="s">
@@ -6624,7 +8302,7 @@
         <v>35</v>
       </c>
       <c r="O72" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="P72" s="1">
         <v>-0.52854999999999996</v>
@@ -6664,8 +8342,8 @@
       <c r="I73" s="1">
         <v>0.255</v>
       </c>
-      <c r="J73" s="48" t="s">
-        <v>173</v>
+      <c r="J73" s="45" t="s">
+        <v>131</v>
       </c>
       <c r="M73" t="s">
         <v>69</v>
@@ -6700,7 +8378,7 @@
         <v>35</v>
       </c>
       <c r="E74" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="F74">
         <v>1.73E-3</v>
@@ -6714,7 +8392,7 @@
       <c r="I74" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="J74" s="48">
+      <c r="J74" s="45">
         <v>1</v>
       </c>
       <c r="M74" t="s">
@@ -6724,7 +8402,7 @@
         <v>35</v>
       </c>
       <c r="O74" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="P74" s="1">
         <v>-0.89512999999999998</v>
@@ -6750,7 +8428,7 @@
         <v>35</v>
       </c>
       <c r="E75" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="F75">
         <v>3.8344</v>
@@ -6764,7 +8442,7 @@
       <c r="I75" s="1">
         <v>5.8049999999999997</v>
       </c>
-      <c r="J75" s="48">
+      <c r="J75" s="45">
         <v>2.3199999999999998E-2</v>
       </c>
       <c r="M75" t="s">
@@ -6774,7 +8452,7 @@
         <v>35</v>
       </c>
       <c r="O75" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="P75" s="1">
         <v>2.62276</v>
@@ -6792,53 +8470,53 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="76" spans="3:20" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C76" s="66" t="s">
+    <row r="76" spans="3:20" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C76" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="D76" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E76" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="F76" s="66">
+      <c r="D76" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E76" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F76" s="49">
         <v>1.85162</v>
       </c>
-      <c r="G76" s="66">
+      <c r="G76" s="49">
         <v>0.66200000000000003</v>
       </c>
-      <c r="H76" s="67">
+      <c r="H76" s="50">
         <v>6.16</v>
       </c>
-      <c r="I76" s="67">
+      <c r="I76" s="50">
         <v>2.7949999999999999</v>
       </c>
-      <c r="J76" s="68">
+      <c r="J76" s="51">
         <v>0.39179999999999998</v>
       </c>
-      <c r="M76" s="66" t="s">
+      <c r="M76" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="N76" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="O76" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="P76" s="67">
+      <c r="N76" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="O76" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="P76" s="50">
         <v>0.86773</v>
       </c>
-      <c r="Q76" s="66">
+      <c r="Q76" s="49">
         <v>0.497</v>
       </c>
-      <c r="R76" s="67">
+      <c r="R76" s="50">
         <v>8.77</v>
       </c>
-      <c r="S76" s="67">
+      <c r="S76" s="50">
         <v>1.7450000000000001</v>
       </c>
-      <c r="T76" s="66">
+      <c r="T76" s="49">
         <v>0.85570000000000002</v>
       </c>
     </row>
@@ -6850,7 +8528,7 @@
         <v>35</v>
       </c>
       <c r="E77" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="F77">
         <v>0.97746999999999995</v>
@@ -6864,7 +8542,7 @@
       <c r="I77" s="1">
         <v>1.353</v>
       </c>
-      <c r="J77" s="48">
+      <c r="J77" s="45">
         <v>0.96179999999999999</v>
       </c>
       <c r="M77" t="s">
@@ -6874,7 +8552,7 @@
         <v>35</v>
       </c>
       <c r="O77" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="P77" s="1">
         <v>-0.47321000000000002</v>
@@ -6900,7 +8578,7 @@
         <v>35</v>
       </c>
       <c r="E78" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="F78">
         <v>1.19221</v>
@@ -6914,7 +8592,7 @@
       <c r="I78" s="1">
         <v>1.819</v>
       </c>
-      <c r="J78" s="48">
+      <c r="J78" s="45">
         <v>0.81440000000000001</v>
       </c>
       <c r="M78" t="s">
@@ -6924,7 +8602,7 @@
         <v>35</v>
       </c>
       <c r="O78" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="P78" s="1">
         <v>-0.14063999999999999</v>
@@ -6950,7 +8628,7 @@
         <v>35</v>
       </c>
       <c r="E79" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="F79">
         <v>-0.15185000000000001</v>
@@ -6964,7 +8642,7 @@
       <c r="I79" s="1">
         <v>-0.22900000000000001</v>
       </c>
-      <c r="J79" s="48">
+      <c r="J79" s="45">
         <v>1</v>
       </c>
       <c r="M79" t="s">
@@ -6974,7 +8652,7 @@
         <v>35</v>
       </c>
       <c r="O79" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="P79" s="1">
         <v>-1.9590700000000001</v>
@@ -7000,7 +8678,7 @@
         <v>35</v>
       </c>
       <c r="E80" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="F80">
         <v>3.6808100000000001</v>
@@ -7014,7 +8692,7 @@
       <c r="I80" s="1">
         <v>5.6849999999999996</v>
       </c>
-      <c r="J80" s="48">
+      <c r="J80" s="45">
         <v>3.0300000000000001E-2</v>
       </c>
       <c r="M80" t="s">
@@ -7024,7 +8702,7 @@
         <v>35</v>
       </c>
       <c r="O80" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="P80" s="1">
         <v>1.5588200000000001</v>
@@ -7042,53 +8720,53 @@
         <v>0.25309999999999999</v>
       </c>
     </row>
-    <row r="81" spans="2:20" s="66" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C81" s="66" t="s">
+    <row r="81" spans="2:20" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C81" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="D81" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="E81" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="F81" s="66">
+      <c r="D81" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="F81" s="49">
         <v>1.6980299999999999</v>
       </c>
-      <c r="G81" s="66">
+      <c r="G81" s="49">
         <v>0.65</v>
       </c>
-      <c r="H81" s="67">
+      <c r="H81" s="50">
         <v>5.74</v>
       </c>
-      <c r="I81" s="67">
+      <c r="I81" s="50">
         <v>2.6110000000000002</v>
       </c>
-      <c r="J81" s="68">
+      <c r="J81" s="51">
         <v>0.46739999999999998</v>
       </c>
-      <c r="M81" s="66" t="s">
+      <c r="M81" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="N81" s="66" t="s">
-        <v>35</v>
-      </c>
-      <c r="O81" s="66" t="s">
-        <v>128</v>
-      </c>
-      <c r="P81" s="67">
+      <c r="N81" s="49" t="s">
+        <v>35</v>
+      </c>
+      <c r="O81" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="P81" s="50">
         <v>-0.19621</v>
       </c>
-      <c r="Q81" s="66">
+      <c r="Q81" s="49">
         <v>0.47199999999999998</v>
       </c>
-      <c r="R81" s="67">
+      <c r="R81" s="50">
         <v>7.2</v>
       </c>
-      <c r="S81" s="67">
+      <c r="S81" s="50">
         <v>-0.41599999999999998</v>
       </c>
-      <c r="T81" s="66">
+      <c r="T81" s="49">
         <v>1</v>
       </c>
     </row>
@@ -7100,7 +8778,7 @@
         <v>35</v>
       </c>
       <c r="E82" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="F82">
         <v>0.82389000000000001</v>
@@ -7114,7 +8792,7 @@
       <c r="I82" s="1">
         <v>1.163</v>
       </c>
-      <c r="J82" s="48">
+      <c r="J82" s="45">
         <v>0.98560000000000003</v>
       </c>
       <c r="M82" t="s">
@@ -7124,7 +8802,7 @@
         <v>35</v>
       </c>
       <c r="O82" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="P82" s="1">
         <v>-1.53715</v>
@@ -7150,7 +8828,7 @@
         <v>35</v>
       </c>
       <c r="E83" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="F83">
         <v>1.0386200000000001</v>
@@ -7164,7 +8842,7 @@
       <c r="I83" s="1">
         <v>1.617</v>
       </c>
-      <c r="J83" s="48">
+      <c r="J83" s="45">
         <v>0.8871</v>
       </c>
       <c r="M83" t="s">
@@ -7174,7 +8852,7 @@
         <v>35</v>
       </c>
       <c r="O83" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="P83" s="1">
         <v>-1.20458</v>
@@ -7194,13 +8872,13 @@
     </row>
     <row r="84" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C84" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D84" t="s">
         <v>35</v>
       </c>
       <c r="E84" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="F84">
         <v>3.8326699999999998</v>
@@ -7214,17 +8892,17 @@
       <c r="I84" s="1">
         <v>6.9290000000000003</v>
       </c>
-      <c r="J84" s="48">
+      <c r="J84" s="45">
         <v>1E-3</v>
       </c>
       <c r="M84" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="N84" t="s">
         <v>35</v>
       </c>
       <c r="O84" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="P84" s="1">
         <v>3.51789</v>
@@ -7242,65 +8920,65 @@
         <v>36</v>
       </c>
     </row>
-    <row r="85" spans="2:20" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C85" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="D85" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="E85" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="F85" s="63">
+    <row r="85" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C85" t="s">
+        <v>85</v>
+      </c>
+      <c r="D85" t="s">
+        <v>35</v>
+      </c>
+      <c r="E85" t="s">
+        <v>87</v>
+      </c>
+      <c r="F85">
         <v>1.84989</v>
       </c>
-      <c r="G85" s="63">
+      <c r="G85">
         <v>0.56200000000000006</v>
       </c>
-      <c r="H85" s="64">
+      <c r="H85" s="1">
         <v>11.58</v>
       </c>
-      <c r="I85" s="64">
+      <c r="I85" s="1">
         <v>3.2909999999999999</v>
       </c>
-      <c r="J85" s="65">
+      <c r="J85" s="45">
         <v>0.17319999999999999</v>
       </c>
-      <c r="M85" s="63" t="s">
-        <v>126</v>
-      </c>
-      <c r="N85" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="O85" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="P85" s="64">
+      <c r="M85" t="s">
+        <v>85</v>
+      </c>
+      <c r="N85" t="s">
+        <v>35</v>
+      </c>
+      <c r="O85" t="s">
+        <v>87</v>
+      </c>
+      <c r="P85" s="1">
         <v>1.7628600000000001</v>
       </c>
-      <c r="Q85" s="63">
+      <c r="Q85">
         <v>0.42599999999999999</v>
       </c>
-      <c r="R85" s="64">
+      <c r="R85" s="1">
         <v>17.2</v>
       </c>
-      <c r="S85" s="64">
+      <c r="S85" s="1">
         <v>4.133</v>
       </c>
-      <c r="T85" s="63">
+      <c r="T85">
         <v>2.98E-2</v>
       </c>
     </row>
     <row r="86" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C86" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D86" t="s">
         <v>35</v>
       </c>
       <c r="E86" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="F86">
         <v>0.97574000000000005</v>
@@ -7314,17 +8992,17 @@
       <c r="I86" s="1">
         <v>1.611</v>
       </c>
-      <c r="J86" s="48">
+      <c r="J86" s="45">
         <v>0.9093</v>
       </c>
       <c r="M86" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="N86" t="s">
         <v>35</v>
       </c>
       <c r="O86" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="P86" s="1">
         <v>0.42192000000000002</v>
@@ -7344,13 +9022,13 @@
     </row>
     <row r="87" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C87" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="D87" t="s">
         <v>35</v>
       </c>
       <c r="E87" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="F87">
         <v>1.19048</v>
@@ -7364,17 +9042,17 @@
       <c r="I87" s="1">
         <v>2.173</v>
       </c>
-      <c r="J87" s="48">
+      <c r="J87" s="45">
         <v>0.65159999999999996</v>
       </c>
       <c r="M87" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="N87" t="s">
         <v>35</v>
       </c>
       <c r="O87" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="P87" s="1">
         <v>0.75448999999999999</v>
@@ -7392,65 +9070,65 @@
         <v>0.85829999999999995</v>
       </c>
     </row>
-    <row r="88" spans="2:20" s="63" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="C88" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="D88" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="E88" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="F88" s="63">
+    <row r="88" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C88" t="s">
+        <v>86</v>
+      </c>
+      <c r="D88" t="s">
+        <v>35</v>
+      </c>
+      <c r="E88" t="s">
+        <v>87</v>
+      </c>
+      <c r="F88">
         <v>-1.98278</v>
       </c>
-      <c r="G88" s="63">
+      <c r="G88">
         <v>0.54100000000000004</v>
       </c>
-      <c r="H88" s="64">
+      <c r="H88" s="1">
         <v>10.92</v>
       </c>
-      <c r="I88" s="64">
+      <c r="I88" s="1">
         <v>-3.6659999999999999</v>
       </c>
-      <c r="J88" s="65">
+      <c r="J88" s="45">
         <v>0.1056</v>
       </c>
-      <c r="M88" s="63" t="s">
-        <v>127</v>
-      </c>
-      <c r="N88" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="O88" s="63" t="s">
-        <v>128</v>
-      </c>
-      <c r="P88" s="64">
+      <c r="M88" t="s">
+        <v>86</v>
+      </c>
+      <c r="N88" t="s">
+        <v>35</v>
+      </c>
+      <c r="O88" t="s">
+        <v>87</v>
+      </c>
+      <c r="P88" s="1">
         <v>-1.7550300000000001</v>
       </c>
-      <c r="Q88" s="63">
+      <c r="Q88">
         <v>0.39900000000000002</v>
       </c>
-      <c r="R88" s="64">
+      <c r="R88" s="1">
         <v>14.65</v>
       </c>
-      <c r="S88" s="64">
+      <c r="S88" s="1">
         <v>-4.4029999999999996</v>
       </c>
-      <c r="T88" s="63">
+      <c r="T88">
         <v>2.2800000000000001E-2</v>
       </c>
     </row>
     <row r="89" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C89" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="D89" t="s">
         <v>35</v>
       </c>
       <c r="E89" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="F89">
         <v>-2.8569300000000002</v>
@@ -7464,17 +9142,17 @@
       <c r="I89" s="1">
         <v>-4.8760000000000003</v>
       </c>
-      <c r="J89" s="48">
+      <c r="J89" s="45">
         <v>2.1600000000000001E-2</v>
       </c>
       <c r="M89" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="N89" t="s">
         <v>35</v>
       </c>
       <c r="O89" t="s">
-        <v>129</v>
+        <v>88</v>
       </c>
       <c r="P89" s="1">
         <v>-3.0959599999999998</v>
@@ -7494,13 +9172,13 @@
     </row>
     <row r="90" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C90" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="D90" t="s">
         <v>35</v>
       </c>
       <c r="E90" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="F90">
         <v>-2.6421899999999998</v>
@@ -7514,17 +9192,17 @@
       <c r="I90" s="1">
         <v>-5.024</v>
       </c>
-      <c r="J90" s="48">
+      <c r="J90" s="45">
         <v>1.7899999999999999E-2</v>
       </c>
       <c r="M90" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="N90" t="s">
         <v>35</v>
       </c>
       <c r="O90" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="P90" s="1">
         <v>-2.7633999999999999</v>
@@ -7543,156 +9221,156 @@
       </c>
     </row>
     <row r="91" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="C91" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D91" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E91" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="F91" s="21">
+      <c r="C91" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D91" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E91" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="F91" s="18">
         <v>-0.87414000000000003</v>
       </c>
-      <c r="G91" s="21">
+      <c r="G91" s="18">
         <v>0.59499999999999997</v>
       </c>
-      <c r="H91" s="22">
+      <c r="H91" s="19">
         <v>10.37</v>
       </c>
-      <c r="I91" s="22">
+      <c r="I91" s="19">
         <v>-1.4690000000000001</v>
       </c>
-      <c r="J91" s="49">
+      <c r="J91" s="46">
         <v>0.94730000000000003</v>
       </c>
-      <c r="M91" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="N91" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O91" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="P91" s="22">
+      <c r="M91" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N91" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O91" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="P91" s="19">
         <v>-1.34094</v>
       </c>
-      <c r="Q91" s="21">
+      <c r="Q91" s="18">
         <v>0.45500000000000002</v>
       </c>
-      <c r="R91" s="22">
+      <c r="R91" s="19">
         <v>15.86</v>
       </c>
-      <c r="S91" s="22">
+      <c r="S91" s="19">
         <v>-2.95</v>
       </c>
-      <c r="T91" s="21">
+      <c r="T91" s="18">
         <v>0.25080000000000002</v>
       </c>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B92" s="60" t="s">
+      <c r="B92" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="C92" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="D92" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="F92" s="21">
+      <c r="C92" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="F92" s="18">
         <v>-0.65941000000000005</v>
       </c>
-      <c r="G92" s="21">
+      <c r="G92" s="18">
         <v>0.53500000000000003</v>
       </c>
-      <c r="H92" s="22">
+      <c r="H92" s="19">
         <v>10.36</v>
       </c>
-      <c r="I92" s="22">
+      <c r="I92" s="19">
         <v>-1.232</v>
       </c>
-      <c r="J92" s="49">
+      <c r="J92" s="46">
         <v>0.98460000000000003</v>
       </c>
-      <c r="M92" s="21" t="s">
-        <v>128</v>
-      </c>
-      <c r="N92" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="O92" s="21" t="s">
-        <v>130</v>
-      </c>
-      <c r="P92" s="22">
+      <c r="M92" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="N92" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="O92" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="P92" s="19">
         <v>-1.00837</v>
       </c>
-      <c r="Q92" s="21">
+      <c r="Q92" s="18">
         <v>0.35199999999999998</v>
       </c>
-      <c r="R92" s="22">
+      <c r="R92" s="19">
         <v>8.9700000000000006</v>
       </c>
-      <c r="S92" s="22">
+      <c r="S92" s="19">
         <v>-2.8610000000000002</v>
       </c>
-      <c r="T92" s="21">
+      <c r="T92" s="18">
         <v>0.33169999999999999</v>
       </c>
     </row>
     <row r="93" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="62"/>
-      <c r="C93" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="D93" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E93" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="F93" s="21">
+      <c r="B93" s="66"/>
+      <c r="C93" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F93" s="18">
         <v>0.21473999999999999</v>
       </c>
-      <c r="G93" s="22">
+      <c r="G93" s="19">
         <v>0.58099999999999996</v>
       </c>
-      <c r="H93" s="22">
+      <c r="H93" s="19">
         <v>9.57</v>
       </c>
-      <c r="I93" s="22">
+      <c r="I93" s="19">
         <v>0.37</v>
       </c>
-      <c r="J93" s="49">
+      <c r="J93" s="46">
         <v>1</v>
       </c>
-      <c r="M93" s="22" t="s">
-        <v>129</v>
-      </c>
-      <c r="N93" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="O93" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="P93" s="22">
+      <c r="M93" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="N93" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="O93" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="P93" s="19">
         <v>0.33256999999999998</v>
       </c>
-      <c r="Q93" s="22">
+      <c r="Q93" s="19">
         <v>0.45300000000000001</v>
       </c>
-      <c r="R93" s="22">
+      <c r="R93" s="19">
         <v>15.7</v>
       </c>
-      <c r="S93" s="22">
+      <c r="S93" s="19">
         <v>0.73399999999999999</v>
       </c>
-      <c r="T93" s="21">
+      <c r="T93" s="18">
         <v>0.99990000000000001</v>
       </c>
     </row>
@@ -7718,244 +9396,244 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B3" s="35" t="s">
-        <v>153</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="E3" s="35" t="s">
-        <v>156</v>
+      <c r="B3" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B4" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E4" s="34">
+      <c r="B4" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="31">
         <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" s="34" t="s">
-        <v>157</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="34">
+      <c r="B5" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E5" s="31">
         <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B6" s="34" t="s">
-        <v>139</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E6" s="34">
+      <c r="B6" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E6" s="31">
         <v>12.5</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B7" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E7" s="34">
+      <c r="B7" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7" s="31">
         <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B8" s="34" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E8" s="34">
+      <c r="B8" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E8" s="31">
         <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B9" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>145</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="34">
+      <c r="B9" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="31">
         <v>26.7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B10" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>146</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="34">
+      <c r="B10" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="31">
         <v>26.7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B11" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" s="34">
+      <c r="B11" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E11" s="31">
         <v>22.8</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="34" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="34">
+      <c r="B12" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E12" s="31">
         <v>22.8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="34">
+      <c r="B13" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="31">
         <v>12.9</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="34" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="34">
+      <c r="B14" s="31" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E14" s="31">
         <v>17.7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B15" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="34" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E15" s="34">
+      <c r="B15" s="31" t="s">
+        <v>105</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E15" s="31">
         <v>17.2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B16" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="34" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E16" s="34">
+      <c r="B16" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="31">
         <v>21.2</v>
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B17" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E17" s="34">
+      <c r="B17" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E17" s="31">
         <v>21.2</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B18" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E18" s="34">
+      <c r="B18" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="31">
         <v>12.9</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B19" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="34" t="s">
-        <v>159</v>
-      </c>
-      <c r="E19" s="34">
+      <c r="B19" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="E19" s="31">
         <v>12.6</v>
       </c>
     </row>

--- a/Data/Datatables_ms.xlsx
+++ b/Data/Datatables_ms.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristakraskura/Github_repositories/KK_etal_gobies_tempVar_tempTol/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48412AA5-4907-3C48-8BD1-D3C9FF92B264}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB5D8EF6-1D12-7C47-BEDD-7B22C95928E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="2" xr2:uid="{C7FD16A5-6D6F-ED42-9CEB-C21D96802EB4}"/>
   </bookViews>
@@ -985,7 +985,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1191,11 +1191,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1262,6 +1277,29 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="9" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1280,10 +1318,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1292,10 +1333,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1305,39 +1342,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="9" fillId="15" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1713,25 +1727,25 @@
         <f>CONCATENATE(C3, " ",D3," ", E3)</f>
         <v>11.1 ± 4.7</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="58" t="s">
+      <c r="J3" s="75" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="75" t="s">
         <v>15</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="58" t="s">
+      <c r="N3" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="O3" s="60" t="s">
+      <c r="O3" s="77" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1758,17 +1772,17 @@
         <f t="shared" ref="G4:G7" si="0">CONCATENATE(C4, " ",D4," ", E4)</f>
         <v>15.2 ± 1.54</v>
       </c>
-      <c r="I4" s="57"/>
-      <c r="J4" s="59"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="76"/>
       <c r="K4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="L4" s="59"/>
+      <c r="L4" s="76"/>
       <c r="M4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="59"/>
-      <c r="O4" s="61"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="78"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -2392,67 +2406,67 @@
       </c>
     </row>
     <row r="2" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="S2" s="82" t="s">
+      <c r="S2" s="79" t="s">
         <v>117</v>
       </c>
-      <c r="T2" s="82"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82" t="s">
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="82"/>
-      <c r="AA2" s="72"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="57"/>
     </row>
     <row r="3" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="80" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="68" t="s">
+      <c r="C3" s="84" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="70"/>
-      <c r="H3" s="64" t="s">
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="86"/>
+      <c r="H3" s="82" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="68" t="s">
+      <c r="I3" s="84" t="s">
         <v>116</v>
       </c>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="S3" s="81" t="s">
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="S3" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="T3" s="81" t="s">
+      <c r="T3" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="U3" s="81" t="s">
+      <c r="U3" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="V3" s="81" t="s">
+      <c r="V3" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="W3" s="77" t="s">
+      <c r="W3" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="X3" s="77" t="s">
+      <c r="X3" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="Y3" s="77" t="s">
+      <c r="Y3" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="Z3" s="77" t="s">
+      <c r="Z3" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="AA3" s="72"/>
+      <c r="AA3" s="57"/>
     </row>
     <row r="4" spans="2:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="71"/>
+      <c r="B4" s="81"/>
       <c r="C4" s="31" t="s">
         <v>135</v>
       </c>
@@ -2465,7 +2479,7 @@
       <c r="F4" s="31">
         <v>0</v>
       </c>
-      <c r="H4" s="65"/>
+      <c r="H4" s="83"/>
       <c r="I4" s="31" t="s">
         <v>156</v>
       </c>
@@ -2478,28 +2492,28 @@
       <c r="L4" s="31">
         <v>0</v>
       </c>
-      <c r="S4" s="74" t="s">
+      <c r="S4" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="T4" s="74">
+      <c r="T4" s="59">
         <v>6</v>
       </c>
-      <c r="U4" s="74">
+      <c r="U4" s="59">
         <v>855.82690000000002</v>
       </c>
-      <c r="V4" s="75">
+      <c r="V4" s="60">
         <v>0</v>
       </c>
-      <c r="W4" s="74" t="s">
+      <c r="W4" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="X4" s="74">
+      <c r="X4" s="59">
         <v>71.6126</v>
       </c>
-      <c r="Y4" s="74">
+      <c r="Y4" s="59">
         <v>1</v>
       </c>
-      <c r="Z4" s="78" t="s">
+      <c r="Z4" s="63" t="s">
         <v>226</v>
       </c>
       <c r="AA4" t="s">
@@ -2531,31 +2545,31 @@
       <c r="L5" s="31">
         <v>0.93225000000000002</v>
       </c>
-      <c r="S5" s="73" t="s">
+      <c r="S5" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="T5" s="73">
+      <c r="T5" s="58">
         <v>5</v>
       </c>
-      <c r="U5" s="73">
+      <c r="U5" s="58">
         <v>857.92470000000003</v>
       </c>
-      <c r="V5" s="76">
+      <c r="V5" s="61">
         <v>2.0977800000000002</v>
       </c>
-      <c r="W5" s="74" t="s">
+      <c r="W5" s="59" t="s">
         <v>227</v>
       </c>
-      <c r="X5" s="74">
+      <c r="X5" s="59">
         <v>8.9544999999999995</v>
       </c>
-      <c r="Y5" s="74">
+      <c r="Y5" s="59">
         <v>1</v>
       </c>
-      <c r="Z5" s="79">
+      <c r="Z5" s="64">
         <v>2.7680000000000001E-3</v>
       </c>
-      <c r="AA5" s="72" t="s">
+      <c r="AA5" s="57" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2584,31 +2598,31 @@
       <c r="L6" s="31">
         <v>2.7637499999999999</v>
       </c>
-      <c r="S6" s="73" t="s">
+      <c r="S6" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="T6" s="73">
+      <c r="T6" s="58">
         <v>5</v>
       </c>
-      <c r="U6" s="73">
+      <c r="U6" s="58">
         <v>858.57420000000002</v>
       </c>
-      <c r="V6" s="76">
+      <c r="V6" s="61">
         <v>2.74729</v>
       </c>
-      <c r="W6" s="74" t="s">
+      <c r="W6" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="X6" s="74">
+      <c r="X6" s="59">
         <v>7.7394999999999996</v>
       </c>
-      <c r="Y6" s="74">
+      <c r="Y6" s="59">
         <v>1</v>
       </c>
-      <c r="Z6" s="79">
+      <c r="Z6" s="64">
         <v>5.4019999999999997E-3</v>
       </c>
-      <c r="AA6" s="72" t="s">
+      <c r="AA6" s="57" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2637,23 +2651,23 @@
       <c r="L7" s="31">
         <v>3.4007900000000002</v>
       </c>
-      <c r="S7" s="73" t="s">
+      <c r="S7" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="T7" s="73">
+      <c r="T7" s="58">
         <v>7</v>
       </c>
-      <c r="U7" s="73">
+      <c r="U7" s="58">
         <v>859.85559999999998</v>
       </c>
-      <c r="V7" s="73">
+      <c r="V7" s="58">
         <v>4.0287499999999996</v>
       </c>
-      <c r="W7" s="84"/>
-      <c r="X7" s="84"/>
-      <c r="Y7" s="84"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="72"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="68"/>
+      <c r="AA7" s="57"/>
     </row>
     <row r="8" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C8" s="31" t="s">
@@ -2680,23 +2694,23 @@
       <c r="L8" s="31">
         <v>4.2030399999999997</v>
       </c>
-      <c r="S8" s="73" t="s">
+      <c r="S8" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="T8" s="73">
+      <c r="T8" s="58">
         <v>5</v>
       </c>
-      <c r="U8" s="73">
+      <c r="U8" s="58">
         <v>862.75229999999999</v>
       </c>
-      <c r="V8" s="73">
+      <c r="V8" s="58">
         <v>6.9254499999999997</v>
       </c>
-      <c r="W8" s="84"/>
-      <c r="X8" s="84"/>
-      <c r="Y8" s="84"/>
-      <c r="Z8" s="85"/>
-      <c r="AA8" s="72"/>
+      <c r="W8" s="57"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="57"/>
+      <c r="Z8" s="68"/>
+      <c r="AA8" s="57"/>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C9" s="31" t="s">
@@ -2723,23 +2737,23 @@
       <c r="L9" s="31">
         <v>4.4367799999999997</v>
       </c>
-      <c r="S9" s="73" t="s">
+      <c r="S9" s="58" t="s">
         <v>140</v>
       </c>
-      <c r="T9" s="73">
+      <c r="T9" s="58">
         <v>5</v>
       </c>
-      <c r="U9" s="73">
+      <c r="U9" s="58">
         <v>863.49450000000002</v>
       </c>
-      <c r="V9" s="73">
+      <c r="V9" s="58">
         <v>7.6676500000000001</v>
       </c>
-      <c r="W9" s="84"/>
-      <c r="X9" s="84"/>
-      <c r="Y9" s="84"/>
-      <c r="Z9" s="85"/>
-      <c r="AA9" s="72"/>
+      <c r="W9" s="57"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="57"/>
+      <c r="Z9" s="68"/>
+      <c r="AA9" s="57"/>
     </row>
     <row r="10" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C10" s="31" t="s">
@@ -2766,23 +2780,23 @@
       <c r="L10" s="31">
         <v>7.24078</v>
       </c>
-      <c r="S10" s="73" t="s">
+      <c r="S10" s="58" t="s">
         <v>141</v>
       </c>
-      <c r="T10" s="73">
+      <c r="T10" s="58">
         <v>6</v>
       </c>
-      <c r="U10" s="73">
+      <c r="U10" s="58">
         <v>864.37549999999999</v>
       </c>
-      <c r="V10" s="73">
+      <c r="V10" s="58">
         <v>8.5486500000000003</v>
       </c>
-      <c r="W10" s="84"/>
-      <c r="X10" s="84"/>
-      <c r="Y10" s="84"/>
-      <c r="Z10" s="85"/>
-      <c r="AA10" s="72"/>
+      <c r="W10" s="57"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="57"/>
+      <c r="Z10" s="68"/>
+      <c r="AA10" s="57"/>
     </row>
     <row r="11" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C11" s="31" t="s">
@@ -2809,23 +2823,23 @@
       <c r="L11" s="31">
         <v>9.1884599999999992</v>
       </c>
-      <c r="S11" s="73" t="s">
+      <c r="S11" s="58" t="s">
         <v>142</v>
       </c>
-      <c r="T11" s="73">
+      <c r="T11" s="58">
         <v>4</v>
       </c>
-      <c r="U11" s="73">
+      <c r="U11" s="58">
         <v>865.91499999999996</v>
       </c>
-      <c r="V11" s="73">
+      <c r="V11" s="58">
         <v>10.08808</v>
       </c>
-      <c r="W11" s="84"/>
-      <c r="X11" s="84"/>
-      <c r="Y11" s="84"/>
-      <c r="Z11" s="85"/>
-      <c r="AA11" s="72"/>
+      <c r="W11" s="57"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="57"/>
+      <c r="Z11" s="68"/>
+      <c r="AA11" s="57"/>
     </row>
     <row r="12" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C12" s="31" t="s">
@@ -2852,23 +2866,23 @@
       <c r="L12" s="31">
         <v>9.4571699999999996</v>
       </c>
-      <c r="S12" s="73" t="s">
+      <c r="S12" s="58" t="s">
         <v>143</v>
       </c>
-      <c r="T12" s="73">
+      <c r="T12" s="58">
         <v>6</v>
       </c>
-      <c r="U12" s="73">
+      <c r="U12" s="58">
         <v>866.14620000000002</v>
       </c>
-      <c r="V12" s="73">
+      <c r="V12" s="58">
         <v>10.31935</v>
       </c>
-      <c r="W12" s="84"/>
-      <c r="X12" s="84"/>
-      <c r="Y12" s="84"/>
-      <c r="Z12" s="85"/>
-      <c r="AA12" s="72"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="68"/>
+      <c r="AA12" s="57"/>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C13" s="31" t="s">
@@ -2895,23 +2909,23 @@
       <c r="L13" s="31">
         <v>11.138439999999999</v>
       </c>
-      <c r="S13" s="73" t="s">
+      <c r="S13" s="58" t="s">
         <v>144</v>
       </c>
-      <c r="T13" s="73">
+      <c r="T13" s="58">
         <v>6</v>
       </c>
-      <c r="U13" s="73">
+      <c r="U13" s="58">
         <v>867.15480000000002</v>
       </c>
-      <c r="V13" s="73">
+      <c r="V13" s="58">
         <v>11.3279</v>
       </c>
-      <c r="W13" s="84"/>
-      <c r="X13" s="84"/>
-      <c r="Y13" s="84"/>
-      <c r="Z13" s="85"/>
-      <c r="AA13" s="72"/>
+      <c r="W13" s="57"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="57"/>
+      <c r="Z13" s="68"/>
+      <c r="AA13" s="57"/>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C14" s="31" t="s">
@@ -2938,23 +2952,23 @@
       <c r="L14" s="31">
         <v>19.045549999999999</v>
       </c>
-      <c r="S14" s="73" t="s">
+      <c r="S14" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="T14" s="73">
+      <c r="T14" s="58">
         <v>4</v>
       </c>
-      <c r="U14" s="73">
+      <c r="U14" s="58">
         <v>867.51120000000003</v>
       </c>
-      <c r="V14" s="73">
+      <c r="V14" s="58">
         <v>11.68431</v>
       </c>
-      <c r="W14" s="84"/>
-      <c r="X14" s="84"/>
-      <c r="Y14" s="84"/>
-      <c r="Z14" s="85"/>
-      <c r="AA14" s="72"/>
+      <c r="W14" s="57"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="57"/>
+      <c r="Z14" s="68"/>
+      <c r="AA14" s="57"/>
     </row>
     <row r="15" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C15" s="31" t="s">
@@ -2981,23 +2995,23 @@
       <c r="L15" s="31">
         <v>22.017330000000001</v>
       </c>
-      <c r="S15" s="73" t="s">
+      <c r="S15" s="58" t="s">
         <v>146</v>
       </c>
-      <c r="T15" s="73">
+      <c r="T15" s="58">
         <v>5</v>
       </c>
-      <c r="U15" s="73">
+      <c r="U15" s="58">
         <v>872.45429999999999</v>
       </c>
-      <c r="V15" s="73">
+      <c r="V15" s="58">
         <v>16.627389999999998</v>
       </c>
-      <c r="W15" s="84"/>
-      <c r="X15" s="84"/>
-      <c r="Y15" s="84"/>
-      <c r="Z15" s="85"/>
-      <c r="AA15" s="72"/>
+      <c r="W15" s="57"/>
+      <c r="X15" s="57"/>
+      <c r="Y15" s="57"/>
+      <c r="Z15" s="68"/>
+      <c r="AA15" s="57"/>
     </row>
     <row r="16" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C16" s="31" t="s">
@@ -3024,23 +3038,23 @@
       <c r="L16" s="31">
         <v>24.93289</v>
       </c>
-      <c r="S16" s="73" t="s">
+      <c r="S16" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="T16" s="73">
+      <c r="T16" s="58">
         <v>5</v>
       </c>
-      <c r="U16" s="73">
+      <c r="U16" s="58">
         <v>883.8442</v>
       </c>
-      <c r="V16" s="73">
+      <c r="V16" s="58">
         <v>28.017320000000002</v>
       </c>
-      <c r="W16" s="84"/>
-      <c r="X16" s="84"/>
-      <c r="Y16" s="84"/>
-      <c r="Z16" s="85"/>
-      <c r="AA16" s="72"/>
+      <c r="W16" s="57"/>
+      <c r="X16" s="57"/>
+      <c r="Y16" s="57"/>
+      <c r="Z16" s="68"/>
+      <c r="AA16" s="57"/>
     </row>
     <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="31" t="s">
@@ -3067,23 +3081,23 @@
       <c r="L17" s="31">
         <v>27.04372</v>
       </c>
-      <c r="S17" s="73" t="s">
+      <c r="S17" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="T17" s="73">
+      <c r="T17" s="58">
         <v>5</v>
       </c>
-      <c r="U17" s="73">
+      <c r="U17" s="58">
         <v>884.77440000000001</v>
       </c>
-      <c r="V17" s="73">
+      <c r="V17" s="58">
         <v>28.94755</v>
       </c>
-      <c r="W17" s="84"/>
-      <c r="X17" s="84"/>
-      <c r="Y17" s="84"/>
-      <c r="Z17" s="85"/>
-      <c r="AA17" s="72"/>
+      <c r="W17" s="57"/>
+      <c r="X17" s="57"/>
+      <c r="Y17" s="57"/>
+      <c r="Z17" s="68"/>
+      <c r="AA17" s="57"/>
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="31" t="s">
@@ -3110,23 +3124,23 @@
       <c r="L18" s="31">
         <v>29.830159999999999</v>
       </c>
-      <c r="S18" s="73" t="s">
+      <c r="S18" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="T18" s="73">
+      <c r="T18" s="58">
         <v>4</v>
       </c>
-      <c r="U18" s="73">
+      <c r="U18" s="58">
         <v>891.43230000000005</v>
       </c>
-      <c r="V18" s="73">
+      <c r="V18" s="58">
         <v>35.605409999999999</v>
       </c>
-      <c r="W18" s="84"/>
-      <c r="X18" s="84"/>
-      <c r="Y18" s="84"/>
-      <c r="Z18" s="85"/>
-      <c r="AA18" s="72"/>
+      <c r="W18" s="57"/>
+      <c r="X18" s="57"/>
+      <c r="Y18" s="57"/>
+      <c r="Z18" s="68"/>
+      <c r="AA18" s="57"/>
     </row>
     <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="31" t="s">
@@ -3153,23 +3167,23 @@
       <c r="L19" s="31">
         <v>72.590689999999995</v>
       </c>
-      <c r="S19" s="73" t="s">
+      <c r="S19" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="T19" s="73">
+      <c r="T19" s="58">
         <v>4</v>
       </c>
-      <c r="U19" s="73">
+      <c r="U19" s="58">
         <v>893.22180000000003</v>
       </c>
-      <c r="V19" s="73">
+      <c r="V19" s="58">
         <v>37.394889999999997</v>
       </c>
-      <c r="W19" s="84"/>
-      <c r="X19" s="84"/>
-      <c r="Y19" s="84"/>
-      <c r="Z19" s="85"/>
-      <c r="AA19" s="72"/>
+      <c r="W19" s="57"/>
+      <c r="X19" s="57"/>
+      <c r="Y19" s="57"/>
+      <c r="Z19" s="68"/>
+      <c r="AA19" s="57"/>
     </row>
     <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="31" t="s">
@@ -3196,23 +3210,23 @@
       <c r="L20" s="31">
         <v>74.928899999999999</v>
       </c>
-      <c r="S20" s="73" t="s">
+      <c r="S20" s="58" t="s">
         <v>151</v>
       </c>
-      <c r="T20" s="73">
+      <c r="T20" s="58">
         <v>5</v>
       </c>
-      <c r="U20" s="73">
+      <c r="U20" s="58">
         <v>896.13520000000005</v>
       </c>
-      <c r="V20" s="73">
+      <c r="V20" s="58">
         <v>40.308300000000003</v>
       </c>
-      <c r="W20" s="84"/>
-      <c r="X20" s="84"/>
-      <c r="Y20" s="84"/>
-      <c r="Z20" s="85"/>
-      <c r="AA20" s="72"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="68"/>
+      <c r="AA20" s="57"/>
     </row>
     <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="31" t="s">
@@ -3239,23 +3253,23 @@
       <c r="L21" s="31">
         <v>86.534059999999997</v>
       </c>
-      <c r="S21" s="73" t="s">
+      <c r="S21" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="T21" s="73">
+      <c r="T21" s="58">
         <v>4</v>
       </c>
-      <c r="U21" s="73">
+      <c r="U21" s="58">
         <v>901.60680000000002</v>
       </c>
-      <c r="V21" s="73">
+      <c r="V21" s="58">
         <v>45.779890000000002</v>
       </c>
-      <c r="W21" s="84"/>
-      <c r="X21" s="84"/>
-      <c r="Y21" s="84"/>
-      <c r="Z21" s="85"/>
-      <c r="AA21" s="72"/>
+      <c r="W21" s="57"/>
+      <c r="X21" s="57"/>
+      <c r="Y21" s="57"/>
+      <c r="Z21" s="68"/>
+      <c r="AA21" s="57"/>
     </row>
     <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="31" t="s">
@@ -3282,23 +3296,23 @@
       <c r="L22" s="31">
         <v>88.97869</v>
       </c>
-      <c r="S22" s="73" t="s">
+      <c r="S22" s="58" t="s">
         <v>153</v>
       </c>
-      <c r="T22" s="73">
+      <c r="T22" s="58">
         <v>5</v>
       </c>
-      <c r="U22" s="73">
+      <c r="U22" s="58">
         <v>922.71190000000001</v>
       </c>
-      <c r="V22" s="73">
+      <c r="V22" s="58">
         <v>66.884960000000007</v>
       </c>
-      <c r="W22" s="84"/>
-      <c r="X22" s="84"/>
-      <c r="Y22" s="84"/>
-      <c r="Z22" s="85"/>
-      <c r="AA22" s="72"/>
+      <c r="W22" s="57"/>
+      <c r="X22" s="57"/>
+      <c r="Y22" s="57"/>
+      <c r="Z22" s="68"/>
+      <c r="AA22" s="57"/>
     </row>
     <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="31" t="s">
@@ -3325,23 +3339,23 @@
       <c r="L23" s="31">
         <v>91.383290000000002</v>
       </c>
-      <c r="S23" s="73" t="s">
+      <c r="S23" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="T23" s="73">
+      <c r="T23" s="58">
         <v>3</v>
       </c>
-      <c r="U23" s="73">
+      <c r="U23" s="58">
         <v>926.5367</v>
       </c>
-      <c r="V23" s="73">
+      <c r="V23" s="58">
         <v>70.709760000000003</v>
       </c>
-      <c r="W23" s="84"/>
-      <c r="X23" s="84"/>
-      <c r="Y23" s="84"/>
-      <c r="Z23" s="85"/>
-      <c r="AA23" s="72"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="68"/>
+      <c r="AA23" s="57"/>
     </row>
     <row r="24" spans="3:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="C24" s="31" t="s">
@@ -3360,583 +3374,583 @@
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9"/>
-      <c r="S24" s="83" t="s">
+      <c r="S24" s="67" t="s">
         <v>155</v>
       </c>
-      <c r="T24" s="83">
+      <c r="T24" s="67">
         <v>4</v>
       </c>
-      <c r="U24" s="83">
+      <c r="U24" s="67">
         <v>931.95799999999997</v>
       </c>
-      <c r="V24" s="83">
+      <c r="V24" s="67">
         <v>76.131079999999997</v>
       </c>
-      <c r="W24" s="84"/>
-      <c r="X24" s="84"/>
-      <c r="Y24" s="84"/>
-      <c r="Z24" s="85"/>
-      <c r="AA24" s="72"/>
+      <c r="W24" s="57"/>
+      <c r="X24" s="57"/>
+      <c r="Y24" s="57"/>
+      <c r="Z24" s="68"/>
+      <c r="AA24" s="57"/>
     </row>
     <row r="25" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="S25" s="82" t="s">
+      <c r="S25" s="79" t="s">
         <v>116</v>
       </c>
-      <c r="T25" s="82"/>
-      <c r="U25" s="82"/>
-      <c r="V25" s="82"/>
-      <c r="W25" s="82" t="s">
+      <c r="T25" s="79"/>
+      <c r="U25" s="79"/>
+      <c r="V25" s="79"/>
+      <c r="W25" s="79" t="s">
         <v>221</v>
       </c>
-      <c r="X25" s="82"/>
-      <c r="Y25" s="82"/>
-      <c r="Z25" s="82"/>
-      <c r="AA25" s="72"/>
+      <c r="X25" s="79"/>
+      <c r="Y25" s="79"/>
+      <c r="Z25" s="79"/>
+      <c r="AA25" s="57"/>
     </row>
     <row r="26" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="S26" s="81" t="s">
+      <c r="S26" s="66" t="s">
         <v>217</v>
       </c>
-      <c r="T26" s="81" t="s">
+      <c r="T26" s="66" t="s">
         <v>218</v>
       </c>
-      <c r="U26" s="81" t="s">
+      <c r="U26" s="66" t="s">
         <v>219</v>
       </c>
-      <c r="V26" s="81" t="s">
+      <c r="V26" s="66" t="s">
         <v>220</v>
       </c>
-      <c r="W26" s="77" t="s">
+      <c r="W26" s="62" t="s">
         <v>222</v>
       </c>
-      <c r="X26" s="77" t="s">
+      <c r="X26" s="62" t="s">
         <v>223</v>
       </c>
-      <c r="Y26" s="77" t="s">
+      <c r="Y26" s="62" t="s">
         <v>224</v>
       </c>
-      <c r="Z26" s="77" t="s">
+      <c r="Z26" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="AA26" s="72"/>
+      <c r="AA26" s="57"/>
     </row>
     <row r="27" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C27" s="67" t="s">
+      <c r="C27" s="56" t="s">
         <v>196</v>
       </c>
       <c r="I27" s="43" t="s">
         <v>176</v>
       </c>
-      <c r="S27" s="74" t="s">
+      <c r="S27" s="59" t="s">
         <v>156</v>
       </c>
-      <c r="T27" s="74">
+      <c r="T27" s="59">
         <v>5</v>
       </c>
-      <c r="U27" s="74">
+      <c r="U27" s="59">
         <v>684.74069999999995</v>
       </c>
-      <c r="V27" s="75">
+      <c r="V27" s="60">
         <v>0</v>
       </c>
-      <c r="W27" s="74" t="s">
+      <c r="W27" s="59" t="s">
         <v>230</v>
       </c>
-      <c r="X27" s="74">
+      <c r="X27" s="59">
         <v>54.679499999999997</v>
       </c>
-      <c r="Y27" s="74">
+      <c r="Y27" s="59">
         <v>1</v>
       </c>
-      <c r="Z27" s="80">
+      <c r="Z27" s="65">
         <v>1.4190000000000001E-13</v>
       </c>
-      <c r="AA27" s="72"/>
+      <c r="AA27" s="57"/>
     </row>
     <row r="28" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C28" s="67" t="s">
+      <c r="C28" s="56" t="s">
         <v>197</v>
       </c>
       <c r="I28" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="S28" s="73" t="s">
+      <c r="S28" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="T28" s="73">
+      <c r="T28" s="58">
         <v>6</v>
       </c>
-      <c r="U28" s="73">
+      <c r="U28" s="58">
         <v>685.67290000000003</v>
       </c>
-      <c r="V28" s="76">
+      <c r="V28" s="61">
         <v>0.93225000000000002</v>
       </c>
-      <c r="W28" s="74" t="s">
+      <c r="W28" s="59" t="s">
         <v>228</v>
       </c>
-      <c r="X28" s="74">
+      <c r="X28" s="59">
         <v>7.4899999999999994E-2</v>
       </c>
-      <c r="Y28" s="74">
+      <c r="Y28" s="59">
         <v>1</v>
       </c>
-      <c r="Z28" s="74">
+      <c r="Z28" s="59">
         <v>0.7843</v>
       </c>
-      <c r="AA28" s="72"/>
+      <c r="AA28" s="57"/>
     </row>
     <row r="29" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C29" s="67" t="s">
+      <c r="C29" s="56" t="s">
         <v>198</v>
       </c>
       <c r="I29" s="43" t="s">
         <v>178</v>
       </c>
-      <c r="S29" s="73" t="s">
+      <c r="S29" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="T29" s="73">
+      <c r="T29" s="58">
         <v>4</v>
       </c>
-      <c r="U29" s="73">
+      <c r="U29" s="58">
         <v>687.50440000000003</v>
       </c>
-      <c r="V29" s="73">
+      <c r="V29" s="58">
         <v>2.7637499999999999</v>
       </c>
-      <c r="W29" s="84"/>
-      <c r="X29" s="84"/>
-      <c r="Y29" s="84"/>
-      <c r="Z29" s="85"/>
-      <c r="AA29" s="72"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="68"/>
+      <c r="AA29" s="57"/>
     </row>
     <row r="30" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C30" s="67" t="s">
+      <c r="C30" s="56" t="s">
         <v>199</v>
       </c>
       <c r="I30" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="S30" s="73" t="s">
+      <c r="S30" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="T30" s="73">
+      <c r="T30" s="58">
         <v>6</v>
       </c>
-      <c r="U30" s="73">
+      <c r="U30" s="58">
         <v>688.14149999999995</v>
       </c>
-      <c r="V30" s="73">
+      <c r="V30" s="58">
         <v>3.4007900000000002</v>
       </c>
-      <c r="W30" s="84"/>
-      <c r="X30" s="84"/>
-      <c r="Y30" s="84"/>
-      <c r="Z30" s="85"/>
-      <c r="AA30" s="72"/>
+      <c r="W30" s="57"/>
+      <c r="X30" s="57"/>
+      <c r="Y30" s="57"/>
+      <c r="Z30" s="68"/>
+      <c r="AA30" s="57"/>
     </row>
     <row r="31" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C31" s="67" t="s">
+      <c r="C31" s="56" t="s">
         <v>200</v>
       </c>
       <c r="I31" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="S31" s="73" t="s">
+      <c r="S31" s="58" t="s">
         <v>160</v>
       </c>
-      <c r="T31" s="73">
+      <c r="T31" s="58">
         <v>5</v>
       </c>
-      <c r="U31" s="73">
+      <c r="U31" s="58">
         <v>688.94370000000004</v>
       </c>
-      <c r="V31" s="73">
+      <c r="V31" s="58">
         <v>4.2030399999999997</v>
       </c>
-      <c r="W31" s="84"/>
-      <c r="X31" s="84"/>
-      <c r="Y31" s="84"/>
-      <c r="Z31" s="85"/>
-      <c r="AA31" s="72"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="68"/>
+      <c r="AA31" s="57"/>
     </row>
     <row r="32" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C32" s="67" t="s">
+      <c r="C32" s="56" t="s">
         <v>201</v>
       </c>
       <c r="I32" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="S32" s="73" t="s">
+      <c r="S32" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="T32" s="73">
+      <c r="T32" s="58">
         <v>5</v>
       </c>
-      <c r="U32" s="73">
+      <c r="U32" s="58">
         <v>689.17740000000003</v>
       </c>
-      <c r="V32" s="73">
+      <c r="V32" s="58">
         <v>4.4367799999999997</v>
       </c>
-      <c r="W32" s="84"/>
-      <c r="X32" s="84"/>
-      <c r="Y32" s="84"/>
-      <c r="Z32" s="85"/>
-      <c r="AA32" s="72"/>
+      <c r="W32" s="57"/>
+      <c r="X32" s="57"/>
+      <c r="Y32" s="57"/>
+      <c r="Z32" s="68"/>
+      <c r="AA32" s="57"/>
     </row>
     <row r="33" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C33" s="67" t="s">
+      <c r="C33" s="56" t="s">
         <v>202</v>
       </c>
       <c r="I33" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="S33" s="73" t="s">
+      <c r="S33" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="T33" s="73">
+      <c r="T33" s="58">
         <v>4</v>
       </c>
-      <c r="U33" s="73">
+      <c r="U33" s="58">
         <v>691.98140000000001</v>
       </c>
-      <c r="V33" s="73">
+      <c r="V33" s="58">
         <v>7.24078</v>
       </c>
-      <c r="W33" s="84"/>
-      <c r="X33" s="84"/>
-      <c r="Y33" s="84"/>
-      <c r="Z33" s="85"/>
-      <c r="AA33" s="72"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="68"/>
+      <c r="AA33" s="57"/>
     </row>
     <row r="34" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C34" s="67" t="s">
+      <c r="C34" s="56" t="s">
         <v>203</v>
       </c>
       <c r="I34" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="S34" s="73" t="s">
+      <c r="S34" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="T34" s="73">
+      <c r="T34" s="58">
         <v>6</v>
       </c>
-      <c r="U34" s="73">
+      <c r="U34" s="58">
         <v>693.92909999999995</v>
       </c>
-      <c r="V34" s="73">
+      <c r="V34" s="58">
         <v>9.1884599999999992</v>
       </c>
-      <c r="W34" s="84"/>
-      <c r="X34" s="84"/>
-      <c r="Y34" s="84"/>
-      <c r="Z34" s="85"/>
-      <c r="AA34" s="72"/>
+      <c r="W34" s="57"/>
+      <c r="X34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="68"/>
+      <c r="AA34" s="57"/>
     </row>
     <row r="35" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C35" s="67" t="s">
+      <c r="C35" s="56" t="s">
         <v>204</v>
       </c>
       <c r="I35" s="43" t="s">
         <v>184</v>
       </c>
-      <c r="S35" s="73" t="s">
+      <c r="S35" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="T35" s="73">
+      <c r="T35" s="58">
         <v>6</v>
       </c>
-      <c r="U35" s="73">
+      <c r="U35" s="58">
         <v>694.19780000000003</v>
       </c>
-      <c r="V35" s="73">
+      <c r="V35" s="58">
         <v>9.4571699999999996</v>
       </c>
-      <c r="W35" s="84"/>
-      <c r="X35" s="84"/>
-      <c r="Y35" s="84"/>
-      <c r="Z35" s="85"/>
-      <c r="AA35" s="72"/>
+      <c r="W35" s="57"/>
+      <c r="X35" s="57"/>
+      <c r="Y35" s="57"/>
+      <c r="Z35" s="68"/>
+      <c r="AA35" s="57"/>
     </row>
     <row r="36" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C36" s="67" t="s">
+      <c r="C36" s="56" t="s">
         <v>205</v>
       </c>
       <c r="I36" s="43" t="s">
         <v>185</v>
       </c>
-      <c r="S36" s="73" t="s">
+      <c r="S36" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="T36" s="73">
+      <c r="T36" s="58">
         <v>5</v>
       </c>
-      <c r="U36" s="73">
+      <c r="U36" s="58">
         <v>695.87909999999999</v>
       </c>
-      <c r="V36" s="73">
+      <c r="V36" s="58">
         <v>11.138439999999999</v>
       </c>
-      <c r="W36" s="84"/>
-      <c r="X36" s="84"/>
-      <c r="Y36" s="84"/>
-      <c r="Z36" s="85"/>
-      <c r="AA36" s="72"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="68"/>
+      <c r="AA36" s="57"/>
     </row>
     <row r="37" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C37" s="67" t="s">
+      <c r="C37" s="56" t="s">
         <v>206</v>
       </c>
       <c r="I37" s="43" t="s">
         <v>186</v>
       </c>
-      <c r="S37" s="73" t="s">
+      <c r="S37" s="58" t="s">
         <v>166</v>
       </c>
-      <c r="T37" s="73">
+      <c r="T37" s="58">
         <v>5</v>
       </c>
-      <c r="U37" s="73">
+      <c r="U37" s="58">
         <v>703.78620000000001</v>
       </c>
-      <c r="V37" s="73">
+      <c r="V37" s="58">
         <v>19.045549999999999</v>
       </c>
-      <c r="W37" s="84"/>
-      <c r="X37" s="84"/>
-      <c r="Y37" s="84"/>
-      <c r="Z37" s="85"/>
-      <c r="AA37" s="72"/>
+      <c r="W37" s="57"/>
+      <c r="X37" s="57"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="68"/>
+      <c r="AA37" s="57"/>
     </row>
     <row r="38" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C38" s="67" t="s">
+      <c r="C38" s="56" t="s">
         <v>207</v>
       </c>
       <c r="I38" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="S38" s="73" t="s">
+      <c r="S38" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="T38" s="73">
+      <c r="T38" s="58">
         <v>5</v>
       </c>
-      <c r="U38" s="73">
+      <c r="U38" s="58">
         <v>706.75800000000004</v>
       </c>
-      <c r="V38" s="73">
+      <c r="V38" s="58">
         <v>22.017330000000001</v>
       </c>
-      <c r="W38" s="84"/>
-      <c r="X38" s="84"/>
-      <c r="Y38" s="84"/>
-      <c r="Z38" s="85"/>
-      <c r="AA38" s="72"/>
+      <c r="W38" s="57"/>
+      <c r="X38" s="57"/>
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="68"/>
+      <c r="AA38" s="57"/>
     </row>
     <row r="39" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C39" s="67" t="s">
+      <c r="C39" s="56" t="s">
         <v>208</v>
       </c>
       <c r="I39" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="S39" s="73" t="s">
+      <c r="S39" s="58" t="s">
         <v>168</v>
       </c>
-      <c r="T39" s="73">
+      <c r="T39" s="58">
         <v>4</v>
       </c>
-      <c r="U39" s="73">
+      <c r="U39" s="58">
         <v>709.67359999999996</v>
       </c>
-      <c r="V39" s="73">
+      <c r="V39" s="58">
         <v>24.93289</v>
       </c>
-      <c r="W39" s="84"/>
-      <c r="X39" s="84"/>
-      <c r="Y39" s="84"/>
-      <c r="Z39" s="85"/>
-      <c r="AA39" s="72"/>
+      <c r="W39" s="57"/>
+      <c r="X39" s="57"/>
+      <c r="Y39" s="57"/>
+      <c r="Z39" s="68"/>
+      <c r="AA39" s="57"/>
     </row>
     <row r="40" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C40" s="67" t="s">
+      <c r="C40" s="56" t="s">
         <v>209</v>
       </c>
       <c r="I40" s="43" t="s">
         <v>189</v>
       </c>
-      <c r="S40" s="73" t="s">
+      <c r="S40" s="58" t="s">
         <v>169</v>
       </c>
-      <c r="T40" s="73">
+      <c r="T40" s="58">
         <v>5</v>
       </c>
-      <c r="U40" s="73">
+      <c r="U40" s="58">
         <v>711.78440000000001</v>
       </c>
-      <c r="V40" s="73">
+      <c r="V40" s="58">
         <v>27.04372</v>
       </c>
-      <c r="W40" s="84"/>
-      <c r="X40" s="84"/>
-      <c r="Y40" s="84"/>
-      <c r="Z40" s="85"/>
-      <c r="AA40" s="72"/>
+      <c r="W40" s="57"/>
+      <c r="X40" s="57"/>
+      <c r="Y40" s="57"/>
+      <c r="Z40" s="68"/>
+      <c r="AA40" s="57"/>
     </row>
     <row r="41" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C41" s="67" t="s">
+      <c r="C41" s="56" t="s">
         <v>210</v>
       </c>
       <c r="I41" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="S41" s="73" t="s">
+      <c r="S41" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="T41" s="73">
+      <c r="T41" s="58">
         <v>4</v>
       </c>
-      <c r="U41" s="73">
+      <c r="U41" s="58">
         <v>714.57079999999996</v>
       </c>
-      <c r="V41" s="73">
+      <c r="V41" s="58">
         <v>29.830159999999999</v>
       </c>
-      <c r="W41" s="84"/>
-      <c r="X41" s="84"/>
-      <c r="Y41" s="84"/>
-      <c r="Z41" s="85"/>
-      <c r="AA41" s="72"/>
+      <c r="W41" s="57"/>
+      <c r="X41" s="57"/>
+      <c r="Y41" s="57"/>
+      <c r="Z41" s="68"/>
+      <c r="AA41" s="57"/>
     </row>
     <row r="42" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C42" s="67" t="s">
+      <c r="C42" s="56" t="s">
         <v>211</v>
       </c>
       <c r="I42" s="43" t="s">
         <v>191</v>
       </c>
-      <c r="S42" s="73" t="s">
+      <c r="S42" s="58" t="s">
         <v>171</v>
       </c>
-      <c r="T42" s="73">
+      <c r="T42" s="58">
         <v>5</v>
       </c>
-      <c r="U42" s="73">
+      <c r="U42" s="58">
         <v>757.33140000000003</v>
       </c>
-      <c r="V42" s="73">
+      <c r="V42" s="58">
         <v>72.590689999999995</v>
       </c>
-      <c r="W42" s="84"/>
-      <c r="X42" s="84"/>
-      <c r="Y42" s="84"/>
-      <c r="Z42" s="85"/>
-      <c r="AA42" s="72"/>
+      <c r="W42" s="57"/>
+      <c r="X42" s="57"/>
+      <c r="Y42" s="57"/>
+      <c r="Z42" s="68"/>
+      <c r="AA42" s="57"/>
     </row>
     <row r="43" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C43" s="67" t="s">
+      <c r="C43" s="56" t="s">
         <v>212</v>
       </c>
       <c r="I43" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="S43" s="73" t="s">
+      <c r="S43" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="T43" s="73">
+      <c r="T43" s="58">
         <v>4</v>
       </c>
-      <c r="U43" s="73">
+      <c r="U43" s="58">
         <v>759.66959999999995</v>
       </c>
-      <c r="V43" s="73">
+      <c r="V43" s="58">
         <v>74.928899999999999</v>
       </c>
-      <c r="W43" s="84"/>
-      <c r="X43" s="84"/>
-      <c r="Y43" s="84"/>
-      <c r="Z43" s="85"/>
-      <c r="AA43" s="72"/>
+      <c r="W43" s="57"/>
+      <c r="X43" s="57"/>
+      <c r="Y43" s="57"/>
+      <c r="Z43" s="68"/>
+      <c r="AA43" s="57"/>
     </row>
     <row r="44" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C44" s="67" t="s">
+      <c r="C44" s="56" t="s">
         <v>213</v>
       </c>
       <c r="I44" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="S44" s="73" t="s">
+      <c r="S44" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="T44" s="73">
+      <c r="T44" s="58">
         <v>3</v>
       </c>
-      <c r="U44" s="73">
+      <c r="U44" s="58">
         <v>771.27470000000005</v>
       </c>
-      <c r="V44" s="73">
+      <c r="V44" s="58">
         <v>86.534059999999997</v>
       </c>
-      <c r="W44" s="84"/>
-      <c r="X44" s="84"/>
-      <c r="Y44" s="84"/>
-      <c r="Z44" s="85"/>
-      <c r="AA44" s="72"/>
+      <c r="W44" s="57"/>
+      <c r="X44" s="57"/>
+      <c r="Y44" s="57"/>
+      <c r="Z44" s="68"/>
+      <c r="AA44" s="57"/>
     </row>
     <row r="45" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C45" s="67" t="s">
+      <c r="C45" s="56" t="s">
         <v>214</v>
       </c>
       <c r="I45" s="43" t="s">
         <v>194</v>
       </c>
-      <c r="S45" s="73" t="s">
+      <c r="S45" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="T45" s="73">
+      <c r="T45" s="58">
         <v>5</v>
       </c>
-      <c r="U45" s="73">
+      <c r="U45" s="58">
         <v>773.71939999999995</v>
       </c>
-      <c r="V45" s="73">
+      <c r="V45" s="58">
         <v>88.97869</v>
       </c>
-      <c r="W45" s="84"/>
-      <c r="X45" s="84"/>
-      <c r="Y45" s="84"/>
-      <c r="Z45" s="85"/>
-      <c r="AA45" s="72"/>
+      <c r="W45" s="57"/>
+      <c r="X45" s="57"/>
+      <c r="Y45" s="57"/>
+      <c r="Z45" s="68"/>
+      <c r="AA45" s="57"/>
     </row>
     <row r="46" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C46" s="67" t="s">
+      <c r="C46" s="56" t="s">
         <v>215</v>
       </c>
       <c r="I46" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="S46" s="73" t="s">
+      <c r="S46" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="T46" s="73">
+      <c r="T46" s="58">
         <v>4</v>
       </c>
-      <c r="U46" s="73">
+      <c r="U46" s="58">
         <v>776.12400000000002</v>
       </c>
-      <c r="V46" s="73">
+      <c r="V46" s="58">
         <v>91.383290000000002</v>
       </c>
-      <c r="W46" s="86"/>
-      <c r="X46" s="86"/>
-      <c r="Y46" s="86"/>
-      <c r="Z46" s="87"/>
+      <c r="W46" s="69"/>
+      <c r="X46" s="69"/>
+      <c r="Y46" s="69"/>
+      <c r="Z46" s="70"/>
     </row>
     <row r="47" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C47" s="67" t="s">
+      <c r="C47" s="56" t="s">
         <v>216</v>
       </c>
     </row>
@@ -3959,8 +3973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255BB1AB-E722-C344-8E9D-48658E19A72C}">
   <dimension ref="A1:S62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1:S9"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="H53" sqref="H53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3987,52 +4001,52 @@
       <c r="B1" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="P1" s="88" t="s">
+      <c r="P1" s="62" t="s">
         <v>240</v>
       </c>
-      <c r="Q1" s="88" t="s">
+      <c r="Q1" s="62" t="s">
         <v>239</v>
       </c>
-      <c r="R1" s="88" t="s">
+      <c r="R1" s="62" t="s">
         <v>238</v>
       </c>
-      <c r="S1" s="88" t="s">
+      <c r="S1" s="62" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="80" t="s">
         <v>53</v>
       </c>
       <c r="B2" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="P2" s="89" t="s">
+      <c r="P2" s="87" t="s">
         <v>231</v>
       </c>
-      <c r="Q2" s="90" t="s">
+      <c r="Q2" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="R2" s="91" t="s">
+      <c r="R2" s="72" t="s">
         <v>235</v>
       </c>
-      <c r="S2" s="89" t="s">
+      <c r="S2" s="87" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="3" spans="1:19" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
+      <c r="A3" s="88"/>
       <c r="B3" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="90" t="s">
+      <c r="P3" s="87"/>
+      <c r="Q3" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="R3" s="91" t="s">
+      <c r="R3" s="72" t="s">
         <v>235</v>
       </c>
-      <c r="S3" s="89"/>
+      <c r="S3" s="87"/>
     </row>
     <row r="4" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -4041,16 +4055,16 @@
       <c r="B4" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="87" t="s">
         <v>232</v>
       </c>
-      <c r="Q4" s="90" t="s">
+      <c r="Q4" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="R4" s="91" t="s">
+      <c r="R4" s="72" t="s">
         <v>243</v>
       </c>
-      <c r="S4" s="89" t="s">
+      <c r="S4" s="87" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4064,14 +4078,14 @@
       <c r="D5" t="s">
         <v>41</v>
       </c>
-      <c r="P5" s="89"/>
-      <c r="Q5" s="90" t="s">
+      <c r="P5" s="87"/>
+      <c r="Q5" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="R5" s="91" t="s">
+      <c r="R5" s="72" t="s">
         <v>243</v>
       </c>
-      <c r="S5" s="89"/>
+      <c r="S5" s="87"/>
     </row>
     <row r="6" spans="1:19" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4089,16 +4103,16 @@
       <c r="E6" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="89" t="s">
+      <c r="P6" s="87" t="s">
         <v>234</v>
       </c>
-      <c r="Q6" s="90" t="s">
+      <c r="Q6" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="R6" s="91" t="s">
+      <c r="R6" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="S6" s="89" t="s">
+      <c r="S6" s="87" t="s">
         <v>241</v>
       </c>
     </row>
@@ -4115,48 +4129,48 @@
       <c r="D7">
         <v>0.80720000000000003</v>
       </c>
-      <c r="P7" s="89"/>
-      <c r="Q7" s="90" t="s">
+      <c r="P7" s="87"/>
+      <c r="Q7" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="R7" s="91" t="s">
+      <c r="R7" s="72" t="s">
         <v>244</v>
       </c>
-      <c r="S7" s="89"/>
+      <c r="S7" s="87"/>
     </row>
     <row r="8" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="P8" s="89" t="s">
+      <c r="P8" s="87" t="s">
         <v>233</v>
       </c>
-      <c r="Q8" s="90" t="s">
+      <c r="Q8" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="91" t="s">
+      <c r="R8" s="72" t="s">
         <v>245</v>
       </c>
-      <c r="S8" s="89" t="s">
+      <c r="S8" s="87" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:19" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="82" t="s">
         <v>54</v>
       </c>
       <c r="B9" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="P9" s="89"/>
-      <c r="Q9" s="90" t="s">
+      <c r="P9" s="87"/>
+      <c r="Q9" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="R9" s="91" t="s">
+      <c r="R9" s="72" t="s">
         <v>246</v>
       </c>
-      <c r="S9" s="89"/>
+      <c r="S9" s="87"/>
     </row>
     <row r="10" spans="1:19" s="1" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66"/>
+      <c r="A10" s="89"/>
       <c r="B10" s="29" t="s">
         <v>46</v>
       </c>
@@ -4221,7 +4235,7 @@
       </c>
     </row>
     <row r="17" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="62" t="s">
+      <c r="A17" s="80" t="s">
         <v>53</v>
       </c>
       <c r="B17" s="29" t="s">
@@ -4229,7 +4243,7 @@
       </c>
     </row>
     <row r="18" spans="1:6" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
+      <c r="A18" s="88"/>
       <c r="B18" s="29" t="s">
         <v>52</v>
       </c>
@@ -4242,7 +4256,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" t="s">
         <v>39</v>
@@ -4254,7 +4268,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>45</v>
       </c>
@@ -4264,7 +4278,7 @@
       <c r="C21">
         <v>1</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="90">
         <v>3.1579999999999997E-2</v>
       </c>
       <c r="E21" t="s">
@@ -4295,7 +4309,7 @@
       <c r="A23" s="6"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="64" t="s">
+      <c r="A24" s="82" t="s">
         <v>54</v>
       </c>
       <c r="B24" s="29" t="s">
@@ -4307,7 +4321,7 @@
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="66"/>
+      <c r="A25" s="89"/>
       <c r="B25" s="30" t="s">
         <v>96</v>
       </c>
@@ -4379,7 +4393,7 @@
       </c>
     </row>
     <row r="33" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="62" t="s">
+      <c r="A33" s="80" t="s">
         <v>53</v>
       </c>
       <c r="B33" s="29" t="s">
@@ -4387,7 +4401,7 @@
       </c>
     </row>
     <row r="34" spans="1:5" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
+      <c r="A34" s="88"/>
       <c r="B34" s="30" t="s">
         <v>94</v>
       </c>
@@ -4412,7 +4426,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>71</v>
       </c>
@@ -4426,7 +4440,7 @@
         <v>0.42310710000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>45</v>
       </c>
@@ -4436,7 +4450,7 @@
       <c r="C38">
         <v>1</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="90">
         <v>8.7659999999999995E-4</v>
       </c>
       <c r="E38" t="s">
@@ -4447,7 +4461,7 @@
       <c r="A39" s="6"/>
     </row>
     <row r="40" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="64" t="s">
+      <c r="A40" s="82" t="s">
         <v>54</v>
       </c>
       <c r="B40" s="29" t="s">
@@ -4455,7 +4469,7 @@
       </c>
     </row>
     <row r="41" spans="1:5" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="66"/>
+      <c r="A41" s="89"/>
       <c r="B41" s="29" t="s">
         <v>95</v>
       </c>
@@ -4518,7 +4532,7 @@
       </c>
     </row>
     <row r="48" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="62" t="s">
+      <c r="A48" s="80" t="s">
         <v>53</v>
       </c>
       <c r="B48" s="30" t="s">
@@ -4526,7 +4540,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="63"/>
+      <c r="A49" s="88"/>
       <c r="B49" s="29" t="s">
         <v>125</v>
       </c>
@@ -4570,7 +4584,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>124</v>
       </c>
@@ -4587,7 +4601,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>45</v>
       </c>
@@ -4597,7 +4611,7 @@
       <c r="C54">
         <v>1</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="90">
         <v>5.4019999999999997E-3</v>
       </c>
       <c r="E54" t="s">
@@ -4609,7 +4623,7 @@
       <c r="E55" s="21"/>
     </row>
     <row r="56" spans="1:6" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="64" t="s">
+      <c r="A56" s="82" t="s">
         <v>54</v>
       </c>
       <c r="B56" s="30" t="s">
@@ -4618,7 +4632,7 @@
       <c r="E56" s="22"/>
     </row>
     <row r="57" spans="1:6" s="1" customFormat="1" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="66"/>
+      <c r="A57" s="89"/>
       <c r="B57" s="29" t="s">
         <v>93</v>
       </c>
@@ -4685,6 +4699,14 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A24:A25"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="P6:P7"/>
@@ -4693,14 +4715,6 @@
     <mergeCell ref="S4:S5"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="S8:S9"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A24:A25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4722,7 +4736,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="82" t="s">
         <v>54</v>
       </c>
       <c r="C1" t="s">
@@ -4737,7 +4751,7 @@
       <c r="F1" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="62" t="s">
+      <c r="L1" s="80" t="s">
         <v>53</v>
       </c>
       <c r="M1" t="s">
@@ -4754,7 +4768,7 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="66"/>
+      <c r="B2" s="89"/>
       <c r="E2" t="s">
         <v>29</v>
       </c>
@@ -4773,7 +4787,7 @@
       <c r="J2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="L2" s="63"/>
+      <c r="L2" s="88"/>
       <c r="O2" t="s">
         <v>29</v>
       </c>
@@ -9271,7 +9285,7 @@
       </c>
     </row>
     <row r="92" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B92" s="64" t="s">
+      <c r="B92" s="82" t="s">
         <v>54</v>
       </c>
       <c r="C92" s="18" t="s">
@@ -9324,7 +9338,7 @@
       </c>
     </row>
     <row r="93" spans="2:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="66"/>
+      <c r="B93" s="89"/>
       <c r="C93" s="19" t="s">
         <v>88</v>
       </c>
